--- a/BackTest/2019-10-22 BackTest BSV.xlsx
+++ b/BackTest/2019-10-22 BackTest BSV.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1500</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-23.07692307692308</v>
+      </c>
       <c r="L12" t="n">
         <v>125130</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1600</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L13" t="n">
         <v>125090</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1600</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>25</v>
+      </c>
       <c r="L14" t="n">
         <v>125080</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1700</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>125110</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1900</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L16" t="n">
         <v>125120</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2200</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>125100</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2300</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-20</v>
+      </c>
       <c r="L18" t="n">
         <v>125110</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2800</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-46.66666666666666</v>
+      </c>
       <c r="L19" t="n">
         <v>125040</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2800</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-46.66666666666666</v>
+      </c>
       <c r="L20" t="n">
         <v>124970</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3100</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-75</v>
+      </c>
       <c r="L21" t="n">
         <v>124870</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3400</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-77.77777777777779</v>
+      </c>
       <c r="L22" t="n">
         <v>124720</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3500</v>
       </c>
       <c r="K23" t="n">
-        <v>-51.51515151515152</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L23" t="n">
         <v>124590</v>
@@ -1466,7 +1488,7 @@
         <v>3500</v>
       </c>
       <c r="K24" t="n">
-        <v>-46.66666666666666</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L24" t="n">
         <v>124460</v>
@@ -1515,7 +1537,7 @@
         <v>3700</v>
       </c>
       <c r="K25" t="n">
-        <v>-31.03448275862069</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L25" t="n">
         <v>124340</v>
@@ -1564,7 +1586,7 @@
         <v>4100</v>
       </c>
       <c r="K26" t="n">
-        <v>-15.15151515151515</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L26" t="n">
         <v>124280</v>
@@ -1613,7 +1635,7 @@
         <v>4100</v>
       </c>
       <c r="K27" t="n">
-        <v>-15.15151515151515</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L27" t="n">
         <v>124250</v>
@@ -1662,7 +1684,7 @@
         <v>4200</v>
       </c>
       <c r="K28" t="n">
-        <v>-6.25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L28" t="n">
         <v>124220</v>
@@ -1711,7 +1733,7 @@
         <v>4300</v>
       </c>
       <c r="K29" t="n">
-        <v>-20</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L29" t="n">
         <v>124230</v>
@@ -1760,7 +1782,7 @@
         <v>4400</v>
       </c>
       <c r="K30" t="n">
-        <v>-16.12903225806452</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L30" t="n">
         <v>124250</v>
@@ -1809,7 +1831,7 @@
         <v>4900</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L31" t="n">
         <v>124350</v>
@@ -1860,7 +1882,7 @@
         <v>5800</v>
       </c>
       <c r="K32" t="n">
-        <v>16.27906976744186</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="L32" t="n">
         <v>124570</v>
@@ -1911,7 +1933,7 @@
         <v>6500</v>
       </c>
       <c r="K33" t="n">
-        <v>2.040816326530612</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L33" t="n">
         <v>124710</v>
@@ -1962,7 +1984,7 @@
         <v>7300</v>
       </c>
       <c r="K34" t="n">
-        <v>-12.28070175438596</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L34" t="n">
         <v>124770</v>
@@ -2013,7 +2035,7 @@
         <v>7900</v>
       </c>
       <c r="K35" t="n">
-        <v>-22.58064516129032</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L35" t="n">
         <v>124750</v>
@@ -2064,7 +2086,7 @@
         <v>9700</v>
       </c>
       <c r="K36" t="n">
-        <v>-38.46153846153847</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L36" t="n">
         <v>124510</v>
@@ -2115,7 +2137,7 @@
         <v>10600</v>
       </c>
       <c r="K37" t="n">
-        <v>-21.42857142857143</v>
+        <v>-25</v>
       </c>
       <c r="L37" t="n">
         <v>124360</v>
@@ -2166,7 +2188,7 @@
         <v>10800</v>
       </c>
       <c r="K38" t="n">
-        <v>-24.70588235294118</v>
+        <v>-26.15384615384616</v>
       </c>
       <c r="L38" t="n">
         <v>124180</v>
@@ -2217,7 +2239,7 @@
         <v>11000</v>
       </c>
       <c r="K39" t="n">
-        <v>-21.95121951219512</v>
+        <v>-30.3030303030303</v>
       </c>
       <c r="L39" t="n">
         <v>123990</v>
@@ -2268,7 +2290,7 @@
         <v>11300</v>
       </c>
       <c r="K40" t="n">
-        <v>-17.64705882352941</v>
+        <v>-34.375</v>
       </c>
       <c r="L40" t="n">
         <v>123820</v>
@@ -2319,7 +2341,7 @@
         <v>12200</v>
       </c>
       <c r="K41" t="n">
-        <v>-23.07692307692308</v>
+        <v>-62.5</v>
       </c>
       <c r="L41" t="n">
         <v>123510</v>
@@ -2370,7 +2392,7 @@
         <v>12200</v>
       </c>
       <c r="K42" t="n">
-        <v>-20.45454545454546</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L42" t="n">
         <v>123110</v>
@@ -2421,7 +2443,7 @@
         <v>12400</v>
       </c>
       <c r="K43" t="n">
-        <v>-23.59550561797753</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L43" t="n">
         <v>122760</v>
@@ -2472,7 +2494,7 @@
         <v>13000</v>
       </c>
       <c r="K44" t="n">
-        <v>-28.42105263157895</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L44" t="n">
         <v>122430</v>
@@ -2523,7 +2545,7 @@
         <v>13200</v>
       </c>
       <c r="K45" t="n">
-        <v>-32.63157894736842</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L45" t="n">
         <v>122140</v>
@@ -2574,7 +2596,7 @@
         <v>13400</v>
       </c>
       <c r="K46" t="n">
-        <v>-39.78494623655914</v>
+        <v>-78.57142857142857</v>
       </c>
       <c r="L46" t="n">
         <v>122010</v>
@@ -2625,7 +2647,7 @@
         <v>14200</v>
       </c>
       <c r="K47" t="n">
-        <v>-28.71287128712871</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L47" t="n">
         <v>121870</v>
@@ -2676,7 +2698,7 @@
         <v>14500</v>
       </c>
       <c r="K48" t="n">
-        <v>-32.03883495145632</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L48" t="n">
         <v>121720</v>
@@ -2727,7 +2749,7 @@
         <v>15000</v>
       </c>
       <c r="K49" t="n">
-        <v>-25.23364485981308</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L49" t="n">
         <v>121640</v>
@@ -2778,7 +2800,7 @@
         <v>15200</v>
       </c>
       <c r="K50" t="n">
-        <v>-24.07407407407407</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>121550</v>
@@ -2829,7 +2851,7 @@
         <v>15400</v>
       </c>
       <c r="K51" t="n">
-        <v>-27.61904761904762</v>
+        <v>6.25</v>
       </c>
       <c r="L51" t="n">
         <v>121570</v>
@@ -2880,7 +2902,7 @@
         <v>15400</v>
       </c>
       <c r="K52" t="n">
-        <v>-39.58333333333333</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>121590</v>
@@ -2931,7 +2953,7 @@
         <v>15500</v>
       </c>
       <c r="K53" t="n">
-        <v>-33.33333333333333</v>
+        <v>44</v>
       </c>
       <c r="L53" t="n">
         <v>121640</v>
@@ -2982,7 +3004,7 @@
         <v>15700</v>
       </c>
       <c r="K54" t="n">
-        <v>-28.57142857142857</v>
+        <v>44</v>
       </c>
       <c r="L54" t="n">
         <v>121730</v>
@@ -3033,7 +3055,7 @@
         <v>16000</v>
       </c>
       <c r="K55" t="n">
-        <v>-25.92592592592592</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L55" t="n">
         <v>121810</v>
@@ -3084,7 +3106,7 @@
         <v>16000</v>
       </c>
       <c r="K56" t="n">
-        <v>-4.761904761904762</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L56" t="n">
         <v>121910</v>
@@ -3135,7 +3157,7 @@
         <v>16300</v>
       </c>
       <c r="K57" t="n">
-        <v>-26.31578947368421</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L57" t="n">
         <v>121900</v>
@@ -3186,7 +3208,7 @@
         <v>16600</v>
       </c>
       <c r="K58" t="n">
-        <v>-27.58620689655172</v>
+        <v>-37.5</v>
       </c>
       <c r="L58" t="n">
         <v>121890</v>
@@ -3237,7 +3259,7 @@
         <v>16700</v>
       </c>
       <c r="K59" t="n">
-        <v>-22.80701754385965</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L59" t="n">
         <v>121840</v>
@@ -3288,7 +3310,7 @@
         <v>16700</v>
       </c>
       <c r="K60" t="n">
-        <v>-29.62962962962963</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L60" t="n">
         <v>121770</v>
@@ -3339,7 +3361,7 @@
         <v>16900</v>
       </c>
       <c r="K61" t="n">
-        <v>-19.14893617021277</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L61" t="n">
         <v>121660</v>
@@ -3390,7 +3412,7 @@
         <v>17000</v>
       </c>
       <c r="K62" t="n">
-        <v>-20.83333333333334</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="L62" t="n">
         <v>121540</v>
@@ -3441,7 +3463,7 @@
         <v>17000</v>
       </c>
       <c r="K63" t="n">
-        <v>-17.39130434782609</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L63" t="n">
         <v>121410</v>
@@ -3492,7 +3514,7 @@
         <v>17100</v>
       </c>
       <c r="K64" t="n">
-        <v>-2.439024390243902</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L64" t="n">
         <v>121310</v>
@@ -3543,7 +3565,7 @@
         <v>17100</v>
       </c>
       <c r="K65" t="n">
-        <v>2.564102564102564</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L65" t="n">
         <v>121240</v>
@@ -3594,7 +3616,7 @@
         <v>17100</v>
       </c>
       <c r="K66" t="n">
-        <v>8.108108108108109</v>
+        <v>-50</v>
       </c>
       <c r="L66" t="n">
         <v>121170</v>
@@ -3645,7 +3667,7 @@
         <v>17800</v>
       </c>
       <c r="K67" t="n">
-        <v>5.555555555555555</v>
+        <v>50</v>
       </c>
       <c r="L67" t="n">
         <v>121200</v>
@@ -3696,7 +3718,7 @@
         <v>18400</v>
       </c>
       <c r="K68" t="n">
-        <v>-2.564102564102564</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L68" t="n">
         <v>121200</v>
@@ -3747,7 +3769,7 @@
         <v>18500</v>
       </c>
       <c r="K69" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>121200</v>
@@ -3798,7 +3820,7 @@
         <v>18800</v>
       </c>
       <c r="K70" t="n">
-        <v>-11.11111111111111</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L70" t="n">
         <v>121230</v>
@@ -3849,7 +3871,7 @@
         <v>18800</v>
       </c>
       <c r="K71" t="n">
-        <v>-17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>121280</v>
@@ -3900,7 +3922,7 @@
         <v>19400</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L72" t="n">
         <v>121400</v>
@@ -3951,7 +3973,7 @@
         <v>20200</v>
       </c>
       <c r="K73" t="n">
-        <v>14.8936170212766</v>
+        <v>61.29032258064516</v>
       </c>
       <c r="L73" t="n">
         <v>121600</v>
@@ -4002,7 +4024,7 @@
         <v>20300</v>
       </c>
       <c r="K74" t="n">
-        <v>17.39130434782609</v>
+        <v>56.25</v>
       </c>
       <c r="L74" t="n">
         <v>121780</v>
@@ -4053,7 +4075,7 @@
         <v>20600</v>
       </c>
       <c r="K75" t="n">
-        <v>17.39130434782609</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L75" t="n">
         <v>121930</v>
@@ -4104,7 +4126,7 @@
         <v>20700</v>
       </c>
       <c r="K76" t="n">
-        <v>14.8936170212766</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L76" t="n">
         <v>122070</v>
@@ -4155,7 +4177,7 @@
         <v>21100</v>
       </c>
       <c r="K77" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>122100</v>
@@ -4206,7 +4228,7 @@
         <v>21500</v>
       </c>
       <c r="K78" t="n">
-        <v>10.20408163265306</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>122150</v>
@@ -4257,7 +4279,7 @@
         <v>22100</v>
       </c>
       <c r="K79" t="n">
-        <v>18.51851851851852</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L79" t="n">
         <v>122250</v>
@@ -4308,7 +4330,7 @@
         <v>22200</v>
       </c>
       <c r="K80" t="n">
-        <v>16.36363636363636</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L80" t="n">
         <v>122310</v>
@@ -4359,7 +4381,7 @@
         <v>22600</v>
       </c>
       <c r="K81" t="n">
-        <v>26.31578947368421</v>
+        <v>12.5</v>
       </c>
       <c r="L81" t="n">
         <v>122410</v>
@@ -4410,7 +4432,7 @@
         <v>22900</v>
       </c>
       <c r="K82" t="n">
-        <v>32.20338983050847</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L82" t="n">
         <v>122480</v>
@@ -4461,7 +4483,7 @@
         <v>23300</v>
       </c>
       <c r="K83" t="n">
-        <v>23.80952380952381</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>122430</v>
@@ -4512,7 +4534,7 @@
         <v>23600</v>
       </c>
       <c r="K84" t="n">
-        <v>16.92307692307692</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>122360</v>
@@ -4563,7 +4585,7 @@
         <v>23600</v>
       </c>
       <c r="K85" t="n">
-        <v>16.92307692307692</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L85" t="n">
         <v>122320</v>
@@ -4614,7 +4636,7 @@
         <v>24000</v>
       </c>
       <c r="K86" t="n">
-        <v>10.14492753623188</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L86" t="n">
         <v>122250</v>
@@ -4665,7 +4687,7 @@
         <v>24200</v>
       </c>
       <c r="K87" t="n">
-        <v>-3.125</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L87" t="n">
         <v>122200</v>
@@ -4716,7 +4738,7 @@
         <v>24300</v>
       </c>
       <c r="K88" t="n">
-        <v>8.474576271186439</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L88" t="n">
         <v>122200</v>
@@ -4767,7 +4789,7 @@
         <v>24400</v>
       </c>
       <c r="K89" t="n">
-        <v>5.084745762711865</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L89" t="n">
         <v>122130</v>
@@ -4818,7 +4840,7 @@
         <v>24500</v>
       </c>
       <c r="K90" t="n">
-        <v>1.754385964912281</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L90" t="n">
         <v>122080</v>
@@ -4869,7 +4891,7 @@
         <v>24600</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>-76.47058823529412</v>
       </c>
       <c r="L91" t="n">
         <v>121980</v>
@@ -4920,7 +4942,7 @@
         <v>24800</v>
       </c>
       <c r="K92" t="n">
-        <v>-14.81481481481481</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>121830</v>
@@ -4971,7 +4993,7 @@
         <v>25000</v>
       </c>
       <c r="K93" t="n">
-        <v>-29.16666666666667</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L93" t="n">
         <v>121740</v>
@@ -5022,7 +5044,7 @@
         <v>25000</v>
       </c>
       <c r="K94" t="n">
-        <v>-27.65957446808511</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L94" t="n">
         <v>121680</v>
@@ -5073,7 +5095,7 @@
         <v>25300</v>
       </c>
       <c r="K95" t="n">
-        <v>-14.8936170212766</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L95" t="n">
         <v>121650</v>
@@ -5124,7 +5146,7 @@
         <v>25300</v>
       </c>
       <c r="K96" t="n">
-        <v>-13.04347826086956</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L96" t="n">
         <v>121660</v>
@@ -5175,7 +5197,7 @@
         <v>26200</v>
       </c>
       <c r="K97" t="n">
-        <v>13.72549019607843</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L97" t="n">
         <v>121780</v>
@@ -5226,7 +5248,7 @@
         <v>26300</v>
       </c>
       <c r="K98" t="n">
-        <v>25</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L98" t="n">
         <v>121900</v>
@@ -5277,7 +5299,7 @@
         <v>26300</v>
       </c>
       <c r="K99" t="n">
-        <v>14.28571428571428</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L99" t="n">
         <v>122030</v>
@@ -5328,7 +5350,7 @@
         <v>26800</v>
       </c>
       <c r="K100" t="n">
-        <v>26.08695652173913</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L100" t="n">
         <v>122200</v>
@@ -5379,7 +5401,7 @@
         <v>27300</v>
       </c>
       <c r="K101" t="n">
-        <v>6.382978723404255</v>
+        <v>60</v>
       </c>
       <c r="L101" t="n">
         <v>122330</v>
@@ -5430,7 +5452,7 @@
         <v>27800</v>
       </c>
       <c r="K102" t="n">
-        <v>10.20408163265306</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L102" t="n">
         <v>122530</v>
@@ -5481,7 +5503,7 @@
         <v>28000</v>
       </c>
       <c r="K103" t="n">
-        <v>14.8936170212766</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L103" t="n">
         <v>122690</v>
@@ -5532,7 +5554,7 @@
         <v>28000</v>
       </c>
       <c r="K104" t="n">
-        <v>22.72727272727273</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L104" t="n">
         <v>122850</v>
@@ -5583,7 +5605,7 @@
         <v>28400</v>
       </c>
       <c r="K105" t="n">
-        <v>29.16666666666667</v>
+        <v>54.83870967741935</v>
       </c>
       <c r="L105" t="n">
         <v>123020</v>
@@ -5634,7 +5656,7 @@
         <v>28400</v>
       </c>
       <c r="K106" t="n">
-        <v>40.90909090909091</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L106" t="n">
         <v>123190</v>
@@ -5685,7 +5707,7 @@
         <v>28800</v>
       </c>
       <c r="K107" t="n">
-        <v>34.78260869565217</v>
+        <v>12</v>
       </c>
       <c r="L107" t="n">
         <v>123230</v>
@@ -5736,7 +5758,7 @@
         <v>29000</v>
       </c>
       <c r="K108" t="n">
-        <v>36.17021276595745</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L108" t="n">
         <v>123280</v>
@@ -5787,7 +5809,7 @@
         <v>29400</v>
       </c>
       <c r="K109" t="n">
-        <v>44</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L109" t="n">
         <v>123370</v>
@@ -5838,7 +5860,7 @@
         <v>29800</v>
       </c>
       <c r="K110" t="n">
-        <v>32.0754716981132</v>
+        <v>20</v>
       </c>
       <c r="L110" t="n">
         <v>123370</v>
@@ -5889,7 +5911,7 @@
         <v>30100</v>
       </c>
       <c r="K111" t="n">
-        <v>38.18181818181819</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L111" t="n">
         <v>123450</v>
@@ -5940,7 +5962,7 @@
         <v>30200</v>
       </c>
       <c r="K112" t="n">
-        <v>40.74074074074074</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L112" t="n">
         <v>123470</v>
@@ -5991,7 +6013,7 @@
         <v>30300</v>
       </c>
       <c r="K113" t="n">
-        <v>35.84905660377358</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L113" t="n">
         <v>123500</v>
@@ -6042,7 +6064,7 @@
         <v>30600</v>
       </c>
       <c r="K114" t="n">
-        <v>39.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L114" t="n">
         <v>123560</v>
@@ -6093,7 +6115,7 @@
         <v>30900</v>
       </c>
       <c r="K115" t="n">
-        <v>39.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L115" t="n">
         <v>123610</v>
@@ -6144,7 +6166,7 @@
         <v>31000</v>
       </c>
       <c r="K116" t="n">
-        <v>40.35087719298245</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L116" t="n">
         <v>123670</v>
@@ -6195,7 +6217,7 @@
         <v>31000</v>
       </c>
       <c r="K117" t="n">
-        <v>29.16666666666667</v>
+        <v>40</v>
       </c>
       <c r="L117" t="n">
         <v>123770</v>
@@ -6246,7 +6268,7 @@
         <v>31200</v>
       </c>
       <c r="K118" t="n">
-        <v>22.44897959183674</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L118" t="n">
         <v>123830</v>
@@ -6297,7 +6319,7 @@
         <v>31200</v>
       </c>
       <c r="K119" t="n">
-        <v>22.44897959183674</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L119" t="n">
         <v>123850</v>
@@ -6348,7 +6370,7 @@
         <v>31700</v>
       </c>
       <c r="K120" t="n">
-        <v>22.44897959183674</v>
+        <v>50</v>
       </c>
       <c r="L120" t="n">
         <v>123960</v>
@@ -6399,7 +6421,7 @@
         <v>32700</v>
       </c>
       <c r="K121" t="n">
-        <v>11.11111111111111</v>
+        <v>-4</v>
       </c>
       <c r="L121" t="n">
         <v>123940</v>
@@ -6450,7 +6472,7 @@
         <v>32700</v>
       </c>
       <c r="K122" t="n">
-        <v>2.040816326530612</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>123930</v>
@@ -6501,7 +6523,7 @@
         <v>33000</v>
       </c>
       <c r="K123" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>123960</v>
@@ -6552,7 +6574,7 @@
         <v>33500</v>
       </c>
       <c r="K124" t="n">
-        <v>20</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L124" t="n">
         <v>124010</v>
@@ -6603,7 +6625,7 @@
         <v>33900</v>
       </c>
       <c r="K125" t="n">
-        <v>5.454545454545454</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L125" t="n">
         <v>123990</v>
@@ -6654,7 +6676,7 @@
         <v>34200</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>-18.75</v>
       </c>
       <c r="L126" t="n">
         <v>123930</v>
@@ -6705,7 +6727,7 @@
         <v>34600</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L127" t="n">
         <v>123830</v>
@@ -6756,7 +6778,7 @@
         <v>34900</v>
       </c>
       <c r="K128" t="n">
-        <v>1.694915254237288</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L128" t="n">
         <v>123780</v>
@@ -6807,7 +6829,7 @@
         <v>35300</v>
       </c>
       <c r="K129" t="n">
-        <v>1.694915254237288</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L129" t="n">
         <v>123770</v>
@@ -6858,7 +6880,7 @@
         <v>35400</v>
       </c>
       <c r="K130" t="n">
-        <v>10.71428571428571</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L130" t="n">
         <v>123720</v>
@@ -6909,7 +6931,7 @@
         <v>35400</v>
       </c>
       <c r="K131" t="n">
-        <v>5.660377358490567</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L131" t="n">
         <v>123770</v>
@@ -6960,7 +6982,7 @@
         <v>35500</v>
       </c>
       <c r="K132" t="n">
-        <v>9.433962264150944</v>
+        <v>12</v>
       </c>
       <c r="L132" t="n">
         <v>123830</v>
@@ -7011,7 +7033,7 @@
         <v>35500</v>
       </c>
       <c r="K133" t="n">
-        <v>11.53846153846154</v>
+        <v>-10</v>
       </c>
       <c r="L133" t="n">
         <v>123860</v>
@@ -7062,7 +7084,7 @@
         <v>35800</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L134" t="n">
         <v>123810</v>
@@ -7113,7 +7135,7 @@
         <v>37200</v>
       </c>
       <c r="K135" t="n">
-        <v>17.46031746031746</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L135" t="n">
         <v>123940</v>
@@ -7164,7 +7186,7 @@
         <v>37500</v>
       </c>
       <c r="K136" t="n">
-        <v>10.76923076923077</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="L136" t="n">
         <v>124070</v>
@@ -7215,7 +7237,7 @@
         <v>37600</v>
       </c>
       <c r="K137" t="n">
-        <v>12.12121212121212</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L137" t="n">
         <v>124250</v>
@@ -7266,7 +7288,7 @@
         <v>38000</v>
       </c>
       <c r="K138" t="n">
-        <v>8.823529411764707</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L138" t="n">
         <v>124360</v>
@@ -7317,7 +7339,7 @@
         <v>38200</v>
       </c>
       <c r="K139" t="n">
-        <v>11.42857142857143</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L139" t="n">
         <v>124450</v>
@@ -7368,7 +7390,7 @@
         <v>38200</v>
       </c>
       <c r="K140" t="n">
-        <v>4.615384615384616</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L140" t="n">
         <v>124530</v>
@@ -7470,7 +7492,7 @@
         <v>38900</v>
       </c>
       <c r="K142" t="n">
-        <v>29.03225806451613</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L142" t="n">
         <v>124720</v>
@@ -7521,7 +7543,7 @@
         <v>38900</v>
       </c>
       <c r="K143" t="n">
-        <v>25.42372881355932</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L143" t="n">
         <v>124840</v>
@@ -7572,7 +7594,7 @@
         <v>39100</v>
       </c>
       <c r="K144" t="n">
-        <v>21.42857142857143</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L144" t="n">
         <v>125010</v>
@@ -7623,7 +7645,7 @@
         <v>39200</v>
       </c>
       <c r="K145" t="n">
-        <v>32.0754716981132</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L145" t="n">
         <v>125050</v>
@@ -7674,7 +7696,7 @@
         <v>39600</v>
       </c>
       <c r="K146" t="n">
-        <v>29.62962962962963</v>
+        <v>10</v>
       </c>
       <c r="L146" t="n">
         <v>125080</v>
@@ -7725,7 +7747,7 @@
         <v>39800</v>
       </c>
       <c r="K147" t="n">
-        <v>42.30769230769231</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L147" t="n">
         <v>125120</v>
@@ -7776,7 +7798,7 @@
         <v>39900</v>
       </c>
       <c r="K148" t="n">
-        <v>36</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L148" t="n">
         <v>125190</v>
@@ -7827,7 +7849,7 @@
         <v>40000</v>
       </c>
       <c r="K149" t="n">
-        <v>31.91489361702128</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L149" t="n">
         <v>125250</v>
@@ -7878,7 +7900,7 @@
         <v>40100</v>
       </c>
       <c r="K150" t="n">
-        <v>27.65957446808511</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L150" t="n">
         <v>125300</v>
@@ -7929,7 +7951,7 @@
         <v>40100</v>
       </c>
       <c r="K151" t="n">
-        <v>27.65957446808511</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>125360</v>
@@ -7980,7 +8002,7 @@
         <v>40200</v>
       </c>
       <c r="K152" t="n">
-        <v>23.40425531914894</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L152" t="n">
         <v>125350</v>
@@ -8031,7 +8053,7 @@
         <v>40500</v>
       </c>
       <c r="K153" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>125370</v>
@@ -8082,7 +8104,7 @@
         <v>40500</v>
       </c>
       <c r="K154" t="n">
-        <v>36.17021276595745</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L154" t="n">
         <v>125370</v>
@@ -8133,7 +8155,7 @@
         <v>40500</v>
       </c>
       <c r="K155" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L155" t="n">
         <v>125360</v>
@@ -8184,7 +8206,7 @@
         <v>40700</v>
       </c>
       <c r="K156" t="n">
-        <v>12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L156" t="n">
         <v>125370</v>
@@ -8235,7 +8257,7 @@
         <v>41100</v>
       </c>
       <c r="K157" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L157" t="n">
         <v>125400</v>
@@ -8286,7 +8308,7 @@
         <v>41600</v>
       </c>
       <c r="K158" t="n">
-        <v>44.44444444444444</v>
+        <v>50</v>
       </c>
       <c r="L158" t="n">
         <v>125490</v>
@@ -8388,7 +8410,7 @@
         <v>42100</v>
       </c>
       <c r="K160" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L160" t="n">
         <v>125570</v>
@@ -8439,7 +8461,7 @@
         <v>42700</v>
       </c>
       <c r="K161" t="n">
-        <v>36.36363636363637</v>
+        <v>44</v>
       </c>
       <c r="L161" t="n">
         <v>125670</v>
@@ -8490,7 +8512,7 @@
         <v>42900</v>
       </c>
       <c r="K162" t="n">
-        <v>30</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L162" t="n">
         <v>125800</v>
@@ -8541,7 +8563,7 @@
         <v>43000</v>
       </c>
       <c r="K163" t="n">
-        <v>26.82926829268293</v>
+        <v>36</v>
       </c>
       <c r="L163" t="n">
         <v>125890</v>
@@ -8592,7 +8614,7 @@
         <v>43100</v>
       </c>
       <c r="K164" t="n">
-        <v>25</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L164" t="n">
         <v>125990</v>
@@ -8643,7 +8665,7 @@
         <v>43100</v>
       </c>
       <c r="K165" t="n">
-        <v>23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L165" t="n">
         <v>126090</v>
@@ -8745,7 +8767,7 @@
         <v>43400</v>
       </c>
       <c r="K167" t="n">
-        <v>33.33333333333333</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L167" t="n">
         <v>126290</v>
@@ -8796,7 +8818,7 @@
         <v>43800</v>
       </c>
       <c r="K168" t="n">
-        <v>23.07692307692308</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L168" t="n">
         <v>126290</v>
@@ -8847,7 +8869,7 @@
         <v>44800</v>
       </c>
       <c r="K169" t="n">
-        <v>37.5</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L169" t="n">
         <v>126430</v>
@@ -8898,7 +8920,7 @@
         <v>45500</v>
       </c>
       <c r="K170" t="n">
-        <v>48.14814814814815</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L170" t="n">
         <v>126650</v>
@@ -8949,7 +8971,7 @@
         <v>47600</v>
       </c>
       <c r="K171" t="n">
-        <v>62.66666666666667</v>
+        <v>74.46808510638297</v>
       </c>
       <c r="L171" t="n">
         <v>127020</v>
@@ -9000,7 +9022,7 @@
         <v>51200</v>
       </c>
       <c r="K172" t="n">
-        <v>76.36363636363637</v>
+        <v>87.80487804878049</v>
       </c>
       <c r="L172" t="n">
         <v>127730</v>
@@ -9051,7 +9073,7 @@
         <v>52100</v>
       </c>
       <c r="K173" t="n">
-        <v>77.58620689655173</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L173" t="n">
         <v>128540</v>
@@ -9102,7 +9124,7 @@
         <v>52200</v>
       </c>
       <c r="K174" t="n">
-        <v>76.06837606837607</v>
+        <v>86.81318681318682</v>
       </c>
       <c r="L174" t="n">
         <v>129330</v>
@@ -9153,7 +9175,7 @@
         <v>54500</v>
       </c>
       <c r="K175" t="n">
-        <v>47.14285714285714</v>
+        <v>50.4424778761062</v>
       </c>
       <c r="L175" t="n">
         <v>129890</v>
@@ -9204,7 +9226,7 @@
         <v>55000</v>
       </c>
       <c r="K176" t="n">
-        <v>51.04895104895105</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L176" t="n">
         <v>130510</v>
@@ -9255,7 +9277,7 @@
         <v>56100</v>
       </c>
       <c r="K177" t="n">
-        <v>53.33333333333334</v>
+        <v>60.97560975609756</v>
       </c>
       <c r="L177" t="n">
         <v>131220</v>
@@ -9306,7 +9328,7 @@
         <v>56500</v>
       </c>
       <c r="K178" t="n">
-        <v>47.65100671140939</v>
+        <v>52.13675213675214</v>
       </c>
       <c r="L178" t="n">
         <v>131930</v>
@@ -9357,7 +9379,7 @@
         <v>56900</v>
       </c>
       <c r="K179" t="n">
-        <v>53.02013422818792</v>
+        <v>50.87719298245614</v>
       </c>
       <c r="L179" t="n">
         <v>132580</v>
@@ -9408,7 +9430,7 @@
         <v>57100</v>
       </c>
       <c r="K180" t="n">
-        <v>54.66666666666666</v>
+        <v>41.05263157894737</v>
       </c>
       <c r="L180" t="n">
         <v>133180</v>
@@ -9459,7 +9481,7 @@
         <v>57500</v>
       </c>
       <c r="K181" t="n">
-        <v>54.05405405405406</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L181" t="n">
         <v>133610</v>
@@ -9510,7 +9532,7 @@
         <v>58400</v>
       </c>
       <c r="K182" t="n">
-        <v>44.51612903225806</v>
+        <v>-17.46031746031746</v>
       </c>
       <c r="L182" t="n">
         <v>133590</v>
@@ -9561,7 +9583,7 @@
         <v>58900</v>
       </c>
       <c r="K183" t="n">
-        <v>40.88050314465409</v>
+        <v>-22.38805970149254</v>
       </c>
       <c r="L183" t="n">
         <v>133430</v>
@@ -9612,7 +9634,7 @@
         <v>59000</v>
       </c>
       <c r="K184" t="n">
-        <v>40.88050314465409</v>
+        <v>20</v>
       </c>
       <c r="L184" t="n">
         <v>133290</v>
@@ -9663,7 +9685,7 @@
         <v>61000</v>
       </c>
       <c r="K185" t="n">
-        <v>25.13966480446928</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L185" t="n">
         <v>133180</v>
@@ -9714,7 +9736,7 @@
         <v>62600</v>
       </c>
       <c r="K186" t="n">
-        <v>31.95876288659793</v>
+        <v>-16.92307692307692</v>
       </c>
       <c r="L186" t="n">
         <v>133180</v>
@@ -9765,7 +9787,7 @@
         <v>62800</v>
       </c>
       <c r="K187" t="n">
-        <v>31.95876288659793</v>
+        <v>-7.936507936507936</v>
       </c>
       <c r="L187" t="n">
         <v>133090</v>
@@ -9816,7 +9838,7 @@
         <v>63500</v>
       </c>
       <c r="K188" t="n">
-        <v>37.05583756345177</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L188" t="n">
         <v>133110</v>
@@ -9867,7 +9889,7 @@
         <v>64000</v>
       </c>
       <c r="K189" t="n">
-        <v>30.20833333333333</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L189" t="n">
         <v>133040</v>
@@ -9918,7 +9940,7 @@
         <v>64100</v>
       </c>
       <c r="K190" t="n">
-        <v>27.95698924731182</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L190" t="n">
         <v>132960</v>
@@ -9969,7 +9991,7 @@
         <v>64200</v>
       </c>
       <c r="K191" t="n">
-        <v>19.27710843373494</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L191" t="n">
         <v>132850</v>
@@ -10020,7 +10042,7 @@
         <v>64800</v>
       </c>
       <c r="K192" t="n">
-        <v>-7.352941176470589</v>
+        <v>-5.084745762711865</v>
       </c>
       <c r="L192" t="n">
         <v>132770</v>
@@ -10071,7 +10093,7 @@
         <v>65600</v>
       </c>
       <c r="K193" t="n">
-        <v>-20</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L193" t="n">
         <v>132660</v>
@@ -10122,7 +10144,7 @@
         <v>66500</v>
       </c>
       <c r="K194" t="n">
-        <v>-11.88811188811189</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="L194" t="n">
         <v>132630</v>
@@ -10173,7 +10195,7 @@
         <v>66700</v>
       </c>
       <c r="K195" t="n">
-        <v>3.278688524590164</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L195" t="n">
         <v>132780</v>
@@ -10224,7 +10246,7 @@
         <v>67300</v>
       </c>
       <c r="K196" t="n">
-        <v>4.065040650406504</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L196" t="n">
         <v>132830</v>
@@ -10275,7 +10297,7 @@
         <v>67600</v>
       </c>
       <c r="K197" t="n">
-        <v>-7.82608695652174</v>
+        <v>-17.07317073170732</v>
       </c>
       <c r="L197" t="n">
         <v>132830</v>
@@ -10326,7 +10348,7 @@
         <v>68600</v>
       </c>
       <c r="K198" t="n">
-        <v>-12.39669421487603</v>
+        <v>-26.08695652173913</v>
       </c>
       <c r="L198" t="n">
         <v>132660</v>
@@ -10377,7 +10399,7 @@
         <v>69000</v>
       </c>
       <c r="K199" t="n">
-        <v>-12.39669421487603</v>
+        <v>-18.36734693877551</v>
       </c>
       <c r="L199" t="n">
         <v>132580</v>
@@ -10428,7 +10450,7 @@
         <v>69100</v>
       </c>
       <c r="K200" t="n">
-        <v>-15</v>
+        <v>-22.44897959183674</v>
       </c>
       <c r="L200" t="n">
         <v>132480</v>
@@ -10479,7 +10501,7 @@
         <v>69300</v>
       </c>
       <c r="K201" t="n">
-        <v>-20.33898305084746</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L201" t="n">
         <v>132350</v>
@@ -10530,7 +10552,7 @@
         <v>69600</v>
       </c>
       <c r="K202" t="n">
-        <v>-16.07142857142857</v>
+        <v>-5</v>
       </c>
       <c r="L202" t="n">
         <v>132250</v>
@@ -10581,7 +10603,7 @@
         <v>70100</v>
       </c>
       <c r="K203" t="n">
-        <v>-7.142857142857142</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L203" t="n">
         <v>132280</v>
@@ -10632,7 +10654,7 @@
         <v>70400</v>
       </c>
       <c r="K204" t="n">
-        <v>-10.52631578947368</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L204" t="n">
         <v>132190</v>
@@ -10683,7 +10705,7 @@
         <v>70800</v>
       </c>
       <c r="K205" t="n">
-        <v>12.24489795918367</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L205" t="n">
         <v>132160</v>
@@ -10734,7 +10756,7 @@
         <v>71100</v>
       </c>
       <c r="K206" t="n">
-        <v>-1.176470588235294</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L206" t="n">
         <v>132100</v>
@@ -10785,7 +10807,7 @@
         <v>71600</v>
       </c>
       <c r="K207" t="n">
-        <v>2.272727272727273</v>
+        <v>40</v>
       </c>
       <c r="L207" t="n">
         <v>132120</v>
@@ -10836,7 +10858,7 @@
         <v>72100</v>
       </c>
       <c r="K208" t="n">
-        <v>-11.62790697674419</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L208" t="n">
         <v>132190</v>
@@ -10887,7 +10909,7 @@
         <v>72100</v>
       </c>
       <c r="K209" t="n">
-        <v>-6.172839506172839</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L209" t="n">
         <v>132220</v>
@@ -10938,7 +10960,7 @@
         <v>72100</v>
       </c>
       <c r="K210" t="n">
-        <v>-7.5</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L210" t="n">
         <v>132260</v>
@@ -10989,7 +11011,7 @@
         <v>72100</v>
       </c>
       <c r="K211" t="n">
-        <v>-8.860759493670885</v>
+        <v>36</v>
       </c>
       <c r="L211" t="n">
         <v>132320</v>
@@ -11040,7 +11062,7 @@
         <v>72100</v>
       </c>
       <c r="K212" t="n">
-        <v>-1.36986301369863</v>
+        <v>20</v>
       </c>
       <c r="L212" t="n">
         <v>132410</v>
@@ -11091,7 +11113,7 @@
         <v>72700</v>
       </c>
       <c r="K213" t="n">
-        <v>1.408450704225352</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L213" t="n">
         <v>132390</v>
@@ -11142,7 +11164,7 @@
         <v>72900</v>
       </c>
       <c r="K214" t="n">
-        <v>-9.375</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L214" t="n">
         <v>132420</v>
@@ -11193,7 +11215,7 @@
         <v>73100</v>
       </c>
       <c r="K215" t="n">
-        <v>-3.125</v>
+        <v>-10</v>
       </c>
       <c r="L215" t="n">
         <v>132430</v>
@@ -11244,7 +11266,7 @@
         <v>73100</v>
       </c>
       <c r="K216" t="n">
-        <v>-13.79310344827586</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L216" t="n">
         <v>132410</v>
@@ -11295,7 +11317,7 @@
         <v>73100</v>
       </c>
       <c r="K217" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L217" t="n">
         <v>132340</v>
@@ -11346,7 +11368,7 @@
         <v>73100</v>
       </c>
       <c r="K218" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L218" t="n">
         <v>132320</v>
@@ -11397,7 +11419,7 @@
         <v>73700</v>
       </c>
       <c r="K219" t="n">
-        <v>-10.63829787234043</v>
+        <v>-50</v>
       </c>
       <c r="L219" t="n">
         <v>132240</v>
@@ -11448,7 +11470,7 @@
         <v>74100</v>
       </c>
       <c r="K220" t="n">
-        <v>-16</v>
+        <v>-60</v>
       </c>
       <c r="L220" t="n">
         <v>132120</v>
@@ -11499,7 +11521,7 @@
         <v>74500</v>
       </c>
       <c r="K221" t="n">
-        <v>-3.846153846153846</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L221" t="n">
         <v>132040</v>
@@ -11550,7 +11572,7 @@
         <v>74600</v>
       </c>
       <c r="K222" t="n">
-        <v>4</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L222" t="n">
         <v>131970</v>
@@ -11601,7 +11623,7 @@
         <v>74600</v>
       </c>
       <c r="K223" t="n">
-        <v>-6.666666666666667</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L223" t="n">
         <v>131960</v>
@@ -11652,7 +11674,7 @@
         <v>74700</v>
       </c>
       <c r="K224" t="n">
-        <v>2.325581395348837</v>
+        <v>-25</v>
       </c>
       <c r="L224" t="n">
         <v>131940</v>
@@ -11703,7 +11725,7 @@
         <v>74700</v>
       </c>
       <c r="K225" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L225" t="n">
         <v>131900</v>
@@ -11754,7 +11776,7 @@
         <v>74700</v>
       </c>
       <c r="K226" t="n">
-        <v>-16.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L226" t="n">
         <v>131860</v>
@@ -11805,7 +11827,7 @@
         <v>74800</v>
       </c>
       <c r="K227" t="n">
-        <v>-31.25</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L227" t="n">
         <v>131830</v>
@@ -11856,7 +11878,7 @@
         <v>74900</v>
       </c>
       <c r="K228" t="n">
-        <v>-21.42857142857143</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L228" t="n">
         <v>131790</v>
@@ -11907,7 +11929,7 @@
         <v>75200</v>
       </c>
       <c r="K229" t="n">
-        <v>-29.03225806451613</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L229" t="n">
         <v>131780</v>
@@ -11958,7 +11980,7 @@
         <v>75300</v>
       </c>
       <c r="K230" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L230" t="n">
         <v>131820</v>
@@ -12009,7 +12031,7 @@
         <v>75300</v>
       </c>
       <c r="K231" t="n">
-        <v>-25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L231" t="n">
         <v>131820</v>
@@ -12060,7 +12082,7 @@
         <v>75300</v>
       </c>
       <c r="K232" t="n">
-        <v>-25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L232" t="n">
         <v>131810</v>
@@ -12111,7 +12133,7 @@
         <v>75300</v>
       </c>
       <c r="K233" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>131800</v>
@@ -12162,7 +12184,7 @@
         <v>75500</v>
       </c>
       <c r="K234" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L234" t="n">
         <v>131760</v>
@@ -12213,7 +12235,7 @@
         <v>75900</v>
       </c>
       <c r="K235" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>131760</v>
@@ -12264,7 +12286,7 @@
         <v>76000</v>
       </c>
       <c r="K236" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>131770</v>
@@ -12315,7 +12337,7 @@
         <v>76100</v>
       </c>
       <c r="K237" t="n">
-        <v>-6.666666666666667</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L237" t="n">
         <v>131780</v>
@@ -12366,7 +12388,7 @@
         <v>76100</v>
       </c>
       <c r="K238" t="n">
-        <v>-6.666666666666667</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L238" t="n">
         <v>131800</v>
@@ -12417,7 +12439,7 @@
         <v>76200</v>
       </c>
       <c r="K239" t="n">
-        <v>12</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L239" t="n">
         <v>131840</v>
@@ -12468,7 +12490,7 @@
         <v>76400</v>
       </c>
       <c r="K240" t="n">
-        <v>21.73913043478261</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L240" t="n">
         <v>131850</v>
@@ -12519,7 +12541,7 @@
         <v>76600</v>
       </c>
       <c r="K241" t="n">
-        <v>14.28571428571428</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L241" t="n">
         <v>131880</v>
@@ -12570,7 +12592,7 @@
         <v>76800</v>
       </c>
       <c r="K242" t="n">
-        <v>18.18181818181818</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L242" t="n">
         <v>131930</v>
@@ -12621,7 +12643,7 @@
         <v>76800</v>
       </c>
       <c r="K243" t="n">
-        <v>18.18181818181818</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L243" t="n">
         <v>131980</v>
@@ -12672,7 +12694,7 @@
         <v>77100</v>
       </c>
       <c r="K244" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L244" t="n">
         <v>132080</v>
@@ -12723,7 +12745,7 @@
         <v>77200</v>
       </c>
       <c r="K245" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L245" t="n">
         <v>132130</v>
@@ -12774,7 +12796,7 @@
         <v>77700</v>
       </c>
       <c r="K246" t="n">
-        <v>0</v>
+        <v>-12.5</v>
       </c>
       <c r="L246" t="n">
         <v>132120</v>
@@ -12825,7 +12847,7 @@
         <v>77700</v>
       </c>
       <c r="K247" t="n">
-        <v>-3.448275862068965</v>
+        <v>-12.5</v>
       </c>
       <c r="L247" t="n">
         <v>132100</v>
@@ -12876,7 +12898,7 @@
         <v>77700</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L248" t="n">
         <v>132080</v>
@@ -12927,7 +12949,7 @@
         <v>77900</v>
       </c>
       <c r="K249" t="n">
-        <v>3.703703703703703</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L249" t="n">
         <v>132050</v>
@@ -12978,7 +13000,7 @@
         <v>78200</v>
       </c>
       <c r="K250" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>132070</v>
@@ -13029,7 +13051,7 @@
         <v>78200</v>
       </c>
       <c r="K251" t="n">
-        <v>10.3448275862069</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L251" t="n">
         <v>132070</v>
@@ -13080,7 +13102,7 @@
         <v>78300</v>
       </c>
       <c r="K252" t="n">
-        <v>13.33333333333333</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L252" t="n">
         <v>132060</v>
@@ -13131,7 +13153,7 @@
         <v>78300</v>
       </c>
       <c r="K253" t="n">
-        <v>13.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L253" t="n">
         <v>132050</v>
@@ -13182,7 +13204,7 @@
         <v>78400</v>
       </c>
       <c r="K254" t="n">
-        <v>24.13793103448276</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L254" t="n">
         <v>132020</v>
@@ -13233,7 +13255,7 @@
         <v>78400</v>
       </c>
       <c r="K255" t="n">
-        <v>12</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L255" t="n">
         <v>132000</v>
@@ -13284,7 +13306,7 @@
         <v>78400</v>
       </c>
       <c r="K256" t="n">
-        <v>8.333333333333332</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L256" t="n">
         <v>132030</v>
@@ -13335,7 +13357,7 @@
         <v>78400</v>
       </c>
       <c r="K257" t="n">
-        <v>4.347826086956522</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L257" t="n">
         <v>132060</v>
@@ -13386,7 +13408,7 @@
         <v>78500</v>
       </c>
       <c r="K258" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L258" t="n">
         <v>132080</v>
@@ -13437,7 +13459,7 @@
         <v>78500</v>
       </c>
       <c r="K259" t="n">
-        <v>4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L259" t="n">
         <v>132120</v>
@@ -13488,7 +13510,7 @@
         <v>78500</v>
       </c>
       <c r="K260" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L260" t="n">
         <v>132130</v>
@@ -13539,7 +13561,7 @@
         <v>78500</v>
       </c>
       <c r="K261" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>132140</v>
@@ -13590,7 +13612,7 @@
         <v>78500</v>
       </c>
       <c r="K262" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L262" t="n">
         <v>132140</v>
@@ -13641,7 +13663,7 @@
         <v>78500</v>
       </c>
       <c r="K263" t="n">
-        <v>-5.88235294117647</v>
+        <v>-100</v>
       </c>
       <c r="L263" t="n">
         <v>132140</v>
@@ -13692,7 +13714,7 @@
         <v>78500</v>
       </c>
       <c r="K264" t="n">
-        <v>-28.57142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L264" t="n">
         <v>132130</v>
@@ -13743,7 +13765,7 @@
         <v>78600</v>
       </c>
       <c r="K265" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>132130</v>
@@ -13794,7 +13816,7 @@
         <v>78700</v>
       </c>
       <c r="K266" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L266" t="n">
         <v>132120</v>
@@ -13845,7 +13867,7 @@
         <v>78900</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L267" t="n">
         <v>132090</v>
@@ -13896,7 +13918,7 @@
         <v>79000</v>
       </c>
       <c r="K268" t="n">
-        <v>-7.692307692307693</v>
+        <v>-60</v>
       </c>
       <c r="L268" t="n">
         <v>132060</v>
@@ -13951,7 +13973,7 @@
         <v>79100</v>
       </c>
       <c r="K269" t="n">
-        <v>16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L269" t="n">
         <v>132040</v>
@@ -14010,7 +14032,7 @@
         <v>79100</v>
       </c>
       <c r="K270" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L270" t="n">
         <v>132020</v>
@@ -14067,7 +14089,7 @@
         <v>79400</v>
       </c>
       <c r="K271" t="n">
-        <v>-33.33333333333333</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L271" t="n">
         <v>131970</v>
@@ -14128,7 +14150,7 @@
         <v>79600</v>
       </c>
       <c r="K272" t="n">
-        <v>-53.84615384615385</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L272" t="n">
         <v>131900</v>
@@ -14189,7 +14211,7 @@
         <v>79600</v>
       </c>
       <c r="K273" t="n">
-        <v>-53.84615384615385</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L273" t="n">
         <v>131830</v>
@@ -14250,7 +14272,7 @@
         <v>79600</v>
       </c>
       <c r="K274" t="n">
-        <v>-66.66666666666666</v>
+        <v>-80</v>
       </c>
       <c r="L274" t="n">
         <v>131760</v>
@@ -14309,7 +14331,7 @@
         <v>79700</v>
       </c>
       <c r="K275" t="n">
-        <v>-69.23076923076923</v>
+        <v>-80</v>
       </c>
       <c r="L275" t="n">
         <v>131670</v>
@@ -14370,7 +14392,7 @@
         <v>80000</v>
       </c>
       <c r="K276" t="n">
-        <v>-75</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L276" t="n">
         <v>131560</v>
@@ -14429,7 +14451,7 @@
         <v>80500</v>
       </c>
       <c r="K277" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L277" t="n">
         <v>131520</v>
@@ -14490,7 +14512,7 @@
         <v>80700</v>
       </c>
       <c r="K278" t="n">
-        <v>-36.36363636363637</v>
+        <v>-37.5</v>
       </c>
       <c r="L278" t="n">
         <v>131470</v>
@@ -14551,7 +14573,7 @@
         <v>80800</v>
       </c>
       <c r="K279" t="n">
-        <v>-39.1304347826087</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L279" t="n">
         <v>131400</v>
@@ -14612,7 +14634,7 @@
         <v>80800</v>
       </c>
       <c r="K280" t="n">
-        <v>-39.1304347826087</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L280" t="n">
         <v>131330</v>
@@ -14673,7 +14695,7 @@
         <v>80900</v>
       </c>
       <c r="K281" t="n">
-        <v>-33.33333333333333</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L281" t="n">
         <v>131300</v>
@@ -14734,7 +14756,7 @@
         <v>81000</v>
       </c>
       <c r="K282" t="n">
-        <v>-36</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L282" t="n">
         <v>131280</v>
@@ -14795,7 +14817,7 @@
         <v>81200</v>
       </c>
       <c r="K283" t="n">
-        <v>-25.92592592592592</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>131280</v>
@@ -14854,7 +14876,7 @@
         <v>81300</v>
       </c>
       <c r="K284" t="n">
-        <v>-21.42857142857143</v>
+        <v>12.5</v>
       </c>
       <c r="L284" t="n">
         <v>131290</v>
@@ -14911,7 +14933,7 @@
         <v>81700</v>
       </c>
       <c r="K285" t="n">
-        <v>-35.48387096774194</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L285" t="n">
         <v>131270</v>
@@ -14968,7 +14990,7 @@
         <v>82000</v>
       </c>
       <c r="K286" t="n">
-        <v>-21.21212121212121</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L286" t="n">
         <v>131310</v>
@@ -15025,7 +15047,7 @@
         <v>82100</v>
       </c>
       <c r="K287" t="n">
-        <v>-12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L287" t="n">
         <v>131310</v>
@@ -15082,7 +15104,7 @@
         <v>82400</v>
       </c>
       <c r="K288" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>131300</v>
@@ -15139,7 +15161,7 @@
         <v>82400</v>
       </c>
       <c r="K289" t="n">
-        <v>-21.21212121212121</v>
+        <v>0</v>
       </c>
       <c r="L289" t="n">
         <v>131300</v>
@@ -15190,7 +15212,7 @@
         <v>82500</v>
       </c>
       <c r="K290" t="n">
-        <v>-23.52941176470588</v>
+        <v>-12.5</v>
       </c>
       <c r="L290" t="n">
         <v>131290</v>
@@ -15241,7 +15263,7 @@
         <v>83100</v>
       </c>
       <c r="K291" t="n">
-        <v>-29.72972972972973</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L291" t="n">
         <v>131210</v>
@@ -15292,7 +15314,7 @@
         <v>83500</v>
       </c>
       <c r="K292" t="n">
-        <v>-33.33333333333333</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L292" t="n">
         <v>131100</v>
@@ -15343,7 +15365,7 @@
         <v>83600</v>
       </c>
       <c r="K293" t="n">
-        <v>-30</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L293" t="n">
         <v>130980</v>
@@ -15394,7 +15416,7 @@
         <v>83800</v>
       </c>
       <c r="K294" t="n">
-        <v>-23.80952380952381</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L294" t="n">
         <v>130870</v>
@@ -15445,7 +15467,7 @@
         <v>83900</v>
       </c>
       <c r="K295" t="n">
-        <v>-19.04761904761905</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L295" t="n">
         <v>130810</v>
@@ -15496,7 +15518,7 @@
         <v>84200</v>
       </c>
       <c r="K296" t="n">
-        <v>-19.04761904761905</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L296" t="n">
         <v>130690</v>
@@ -15547,7 +15569,7 @@
         <v>84200</v>
       </c>
       <c r="K297" t="n">
-        <v>-35.13513513513514</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L297" t="n">
         <v>130560</v>
@@ -15598,7 +15620,7 @@
         <v>84300</v>
       </c>
       <c r="K298" t="n">
-        <v>-33.33333333333333</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L298" t="n">
         <v>130450</v>
@@ -15649,7 +15671,7 @@
         <v>84300</v>
       </c>
       <c r="K299" t="n">
-        <v>-31.42857142857143</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L299" t="n">
         <v>130340</v>
@@ -15700,7 +15722,7 @@
         <v>84300</v>
       </c>
       <c r="K300" t="n">
-        <v>-31.42857142857143</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L300" t="n">
         <v>130240</v>
@@ -15751,7 +15773,7 @@
         <v>84700</v>
       </c>
       <c r="K301" t="n">
-        <v>-42.10526315789473</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L301" t="n">
         <v>130160</v>
@@ -15802,7 +15824,7 @@
         <v>84800</v>
       </c>
       <c r="K302" t="n">
-        <v>-36.84210526315789</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L302" t="n">
         <v>130130</v>
@@ -15853,7 +15875,7 @@
         <v>85100</v>
       </c>
       <c r="K303" t="n">
-        <v>-48.71794871794872</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L303" t="n">
         <v>130060</v>
@@ -15904,7 +15926,7 @@
         <v>85700</v>
       </c>
       <c r="K304" t="n">
-        <v>-31.81818181818182</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L304" t="n">
         <v>130030</v>
@@ -15955,7 +15977,7 @@
         <v>85700</v>
       </c>
       <c r="K305" t="n">
-        <v>-25</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L305" t="n">
         <v>129990</v>
@@ -16006,7 +16028,7 @@
         <v>85800</v>
       </c>
       <c r="K306" t="n">
-        <v>-31.57894736842105</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>129990</v>
@@ -16057,7 +16079,7 @@
         <v>86300</v>
       </c>
       <c r="K307" t="n">
-        <v>-19.04761904761905</v>
+        <v>30</v>
       </c>
       <c r="L307" t="n">
         <v>130040</v>
@@ -16108,7 +16130,7 @@
         <v>86400</v>
       </c>
       <c r="K308" t="n">
-        <v>-15</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L308" t="n">
         <v>130090</v>
@@ -16159,7 +16181,7 @@
         <v>86500</v>
       </c>
       <c r="K309" t="n">
-        <v>-17.07317073170732</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L309" t="n">
         <v>130130</v>
@@ -16210,7 +16232,7 @@
         <v>86600</v>
       </c>
       <c r="K310" t="n">
-        <v>-12.19512195121951</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L310" t="n">
         <v>130180</v>
@@ -16261,7 +16283,7 @@
         <v>86600</v>
       </c>
       <c r="K311" t="n">
-        <v>2.857142857142857</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L311" t="n">
         <v>130270</v>
@@ -16312,7 +16334,7 @@
         <v>86600</v>
       </c>
       <c r="K312" t="n">
-        <v>16.12903225806452</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L312" t="n">
         <v>130350</v>
@@ -16363,7 +16385,7 @@
         <v>86600</v>
       </c>
       <c r="K313" t="n">
-        <v>13.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L313" t="n">
         <v>130460</v>
@@ -16414,7 +16436,7 @@
         <v>86600</v>
       </c>
       <c r="K314" t="n">
-        <v>7.142857142857142</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L314" t="n">
         <v>130510</v>
@@ -16465,7 +16487,7 @@
         <v>87000</v>
       </c>
       <c r="K315" t="n">
-        <v>-9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>130520</v>
@@ -16516,7 +16538,7 @@
         <v>87300</v>
       </c>
       <c r="K316" t="n">
-        <v>-9.67741935483871</v>
+        <v>-80</v>
       </c>
       <c r="L316" t="n">
         <v>130490</v>
@@ -16567,7 +16589,7 @@
         <v>87300</v>
       </c>
       <c r="K317" t="n">
-        <v>-9.67741935483871</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L317" t="n">
         <v>130410</v>
@@ -16618,7 +16640,7 @@
         <v>87400</v>
       </c>
       <c r="K318" t="n">
-        <v>-3.225806451612903</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L318" t="n">
         <v>130350</v>
@@ -16669,7 +16691,7 @@
         <v>87700</v>
       </c>
       <c r="K319" t="n">
-        <v>-11.76470588235294</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L319" t="n">
         <v>130270</v>
@@ -16720,7 +16742,7 @@
         <v>87900</v>
       </c>
       <c r="K320" t="n">
-        <v>-16.66666666666666</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L320" t="n">
         <v>130160</v>
@@ -16771,7 +16793,7 @@
         <v>88000</v>
       </c>
       <c r="K321" t="n">
-        <v>-9.090909090909092</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L321" t="n">
         <v>130040</v>
@@ -16822,7 +16844,7 @@
         <v>88200</v>
       </c>
       <c r="K322" t="n">
-        <v>-5.88235294117647</v>
+        <v>-62.5</v>
       </c>
       <c r="L322" t="n">
         <v>129940</v>
@@ -16873,7 +16895,7 @@
         <v>88300</v>
       </c>
       <c r="K323" t="n">
-        <v>0</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L323" t="n">
         <v>129830</v>
@@ -16924,7 +16946,7 @@
         <v>88400</v>
       </c>
       <c r="K324" t="n">
-        <v>-25.92592592592592</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L324" t="n">
         <v>129710</v>
@@ -16975,7 +16997,7 @@
         <v>88700</v>
       </c>
       <c r="K325" t="n">
-        <v>-33.33333333333333</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L325" t="n">
         <v>129600</v>
@@ -17026,7 +17048,7 @@
         <v>88900</v>
       </c>
       <c r="K326" t="n">
-        <v>-29.03225806451613</v>
+        <v>-37.5</v>
       </c>
       <c r="L326" t="n">
         <v>129540</v>
@@ -17077,7 +17099,7 @@
         <v>89100</v>
       </c>
       <c r="K327" t="n">
-        <v>-57.14285714285714</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L327" t="n">
         <v>129460</v>
@@ -17128,7 +17150,7 @@
         <v>89100</v>
       </c>
       <c r="K328" t="n">
-        <v>-55.55555555555556</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L328" t="n">
         <v>129370</v>
@@ -17179,7 +17201,7 @@
         <v>89100</v>
       </c>
       <c r="K329" t="n">
-        <v>-53.84615384615385</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L329" t="n">
         <v>129310</v>
@@ -17230,7 +17252,7 @@
         <v>89100</v>
       </c>
       <c r="K330" t="n">
-        <v>-60</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L330" t="n">
         <v>129270</v>
@@ -17281,7 +17303,7 @@
         <v>89500</v>
       </c>
       <c r="K331" t="n">
-        <v>-65.51724137931035</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L331" t="n">
         <v>129200</v>
@@ -17332,7 +17354,7 @@
         <v>89800</v>
       </c>
       <c r="K332" t="n">
-        <v>-68.75</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L332" t="n">
         <v>129080</v>
@@ -17383,7 +17405,7 @@
         <v>90000</v>
       </c>
       <c r="K333" t="n">
-        <v>-58.82352941176471</v>
+        <v>-50</v>
       </c>
       <c r="L333" t="n">
         <v>128990</v>
@@ -17434,7 +17456,7 @@
         <v>90300</v>
       </c>
       <c r="K334" t="n">
-        <v>-45.94594594594595</v>
+        <v>-12.5</v>
       </c>
       <c r="L334" t="n">
         <v>128940</v>
@@ -17485,7 +17507,7 @@
         <v>90500</v>
       </c>
       <c r="K335" t="n">
-        <v>-31.42857142857143</v>
+        <v>-12.5</v>
       </c>
       <c r="L335" t="n">
         <v>128940</v>
@@ -17536,7 +17558,7 @@
         <v>90900</v>
       </c>
       <c r="K336" t="n">
-        <v>-11.11111111111111</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L336" t="n">
         <v>128960</v>
@@ -17587,7 +17609,7 @@
         <v>91100</v>
       </c>
       <c r="K337" t="n">
-        <v>-15.78947368421053</v>
+        <v>10</v>
       </c>
       <c r="L337" t="n">
         <v>128980</v>
@@ -17638,7 +17660,7 @@
         <v>91200</v>
       </c>
       <c r="K338" t="n">
-        <v>-15.78947368421053</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L338" t="n">
         <v>129010</v>
@@ -17689,7 +17711,7 @@
         <v>91300</v>
       </c>
       <c r="K339" t="n">
-        <v>-11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L339" t="n">
         <v>129030</v>
@@ -17740,7 +17762,7 @@
         <v>91300</v>
       </c>
       <c r="K340" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L340" t="n">
         <v>129050</v>
@@ -17791,7 +17813,7 @@
         <v>91600</v>
       </c>
       <c r="K341" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L341" t="n">
         <v>129080</v>
@@ -17842,7 +17864,7 @@
         <v>91700</v>
       </c>
       <c r="K342" t="n">
-        <v>-20</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L342" t="n">
         <v>129130</v>
@@ -17893,7 +17915,7 @@
         <v>91700</v>
       </c>
       <c r="K343" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>129160</v>
@@ -17944,7 +17966,7 @@
         <v>91800</v>
       </c>
       <c r="K344" t="n">
-        <v>-17.64705882352941</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L344" t="n">
         <v>129150</v>
@@ -17995,7 +18017,7 @@
         <v>92500</v>
       </c>
       <c r="K345" t="n">
-        <v>10.52631578947368</v>
+        <v>0</v>
       </c>
       <c r="L345" t="n">
         <v>129190</v>
@@ -18046,7 +18068,7 @@
         <v>93300</v>
       </c>
       <c r="K346" t="n">
-        <v>22.72727272727273</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L346" t="n">
         <v>129270</v>
@@ -18097,7 +18119,7 @@
         <v>93600</v>
       </c>
       <c r="K347" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L347" t="n">
         <v>129400</v>
@@ -18148,7 +18170,7 @@
         <v>93900</v>
       </c>
       <c r="K348" t="n">
-        <v>25</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L348" t="n">
         <v>129490</v>
@@ -18199,7 +18221,7 @@
         <v>94700</v>
       </c>
       <c r="K349" t="n">
-        <v>7.142857142857142</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L349" t="n">
         <v>129510</v>
@@ -18250,7 +18272,7 @@
         <v>94700</v>
       </c>
       <c r="K350" t="n">
-        <v>7.142857142857142</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L350" t="n">
         <v>129530</v>
@@ -18301,7 +18323,7 @@
         <v>95100</v>
       </c>
       <c r="K351" t="n">
-        <v>21.42857142857143</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L351" t="n">
         <v>129620</v>
@@ -18352,7 +18374,7 @@
         <v>95400</v>
       </c>
       <c r="K352" t="n">
-        <v>21.42857142857143</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L352" t="n">
         <v>129690</v>
@@ -18403,7 +18425,7 @@
         <v>96200</v>
       </c>
       <c r="K353" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L353" t="n">
         <v>129680</v>
@@ -18454,7 +18476,7 @@
         <v>96800</v>
       </c>
       <c r="K354" t="n">
-        <v>7.692307692307693</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L354" t="n">
         <v>129740</v>
@@ -18505,7 +18527,7 @@
         <v>97000</v>
       </c>
       <c r="K355" t="n">
-        <v>7.692307692307693</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L355" t="n">
         <v>129750</v>
@@ -18556,7 +18578,7 @@
         <v>97000</v>
       </c>
       <c r="K356" t="n">
-        <v>1.639344262295082</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L356" t="n">
         <v>129680</v>
@@ -18607,7 +18629,7 @@
         <v>97900</v>
       </c>
       <c r="K357" t="n">
-        <v>17.64705882352941</v>
+        <v>5</v>
       </c>
       <c r="L357" t="n">
         <v>129670</v>
@@ -18658,7 +18680,7 @@
         <v>98000</v>
       </c>
       <c r="K358" t="n">
-        <v>14.70588235294118</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L358" t="n">
         <v>129680</v>
@@ -18709,7 +18731,7 @@
         <v>98100</v>
       </c>
       <c r="K359" t="n">
-        <v>17.64705882352941</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L359" t="n">
         <v>129780</v>
@@ -18760,7 +18782,7 @@
         <v>98100</v>
       </c>
       <c r="K360" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L360" t="n">
         <v>129880</v>
@@ -18811,7 +18833,7 @@
         <v>98400</v>
       </c>
       <c r="K361" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L361" t="n">
         <v>129910</v>
@@ -18862,7 +18884,7 @@
         <v>98500</v>
       </c>
       <c r="K362" t="n">
-        <v>17.64705882352941</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L362" t="n">
         <v>129960</v>
@@ -18913,7 +18935,7 @@
         <v>98700</v>
       </c>
       <c r="K363" t="n">
-        <v>20</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L363" t="n">
         <v>130110</v>
@@ -18964,7 +18986,7 @@
         <v>98800</v>
       </c>
       <c r="K364" t="n">
-        <v>22.85714285714286</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L364" t="n">
         <v>130210</v>
@@ -19015,7 +19037,7 @@
         <v>99000</v>
       </c>
       <c r="K365" t="n">
-        <v>16.92307692307692</v>
+        <v>50</v>
       </c>
       <c r="L365" t="n">
         <v>130310</v>
@@ -19066,7 +19088,7 @@
         <v>99100</v>
       </c>
       <c r="K366" t="n">
-        <v>6.896551724137931</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L366" t="n">
         <v>130420</v>
@@ -19117,7 +19139,7 @@
         <v>99100</v>
       </c>
       <c r="K367" t="n">
-        <v>1.818181818181818</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L367" t="n">
         <v>130440</v>
@@ -19168,7 +19190,7 @@
         <v>99300</v>
       </c>
       <c r="K368" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L368" t="n">
         <v>130450</v>
@@ -19219,7 +19241,7 @@
         <v>99400</v>
       </c>
       <c r="K369" t="n">
-        <v>23.40425531914894</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L369" t="n">
         <v>130460</v>
@@ -19270,7 +19292,7 @@
         <v>100000</v>
       </c>
       <c r="K370" t="n">
-        <v>9.433962264150944</v>
+        <v>-12.5</v>
       </c>
       <c r="L370" t="n">
         <v>130410</v>
@@ -19372,7 +19394,7 @@
         <v>100300</v>
       </c>
       <c r="K372" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L372" t="n">
         <v>130430</v>
@@ -19423,7 +19445,7 @@
         <v>100400</v>
       </c>
       <c r="K373" t="n">
-        <v>33.33333333333333</v>
+        <v>-12.5</v>
       </c>
       <c r="L373" t="n">
         <v>130420</v>
@@ -19474,7 +19496,7 @@
         <v>100700</v>
       </c>
       <c r="K374" t="n">
-        <v>28.2051282051282</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L374" t="n">
         <v>130430</v>
@@ -19525,7 +19547,7 @@
         <v>100800</v>
       </c>
       <c r="K375" t="n">
-        <v>26.31578947368421</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L375" t="n">
         <v>130430</v>
@@ -19576,7 +19598,7 @@
         <v>101100</v>
       </c>
       <c r="K376" t="n">
-        <v>17.07317073170732</v>
+        <v>-20</v>
       </c>
       <c r="L376" t="n">
         <v>130390</v>
@@ -19627,7 +19649,7 @@
         <v>101100</v>
       </c>
       <c r="K377" t="n">
-        <v>-6.25</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L377" t="n">
         <v>130350</v>
@@ -19678,7 +19700,7 @@
         <v>101400</v>
       </c>
       <c r="K378" t="n">
-        <v>-11.76470588235294</v>
+        <v>-30</v>
       </c>
       <c r="L378" t="n">
         <v>130300</v>
@@ -19729,7 +19751,7 @@
         <v>101800</v>
       </c>
       <c r="K379" t="n">
-        <v>-2.702702702702703</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L379" t="n">
         <v>130280</v>
@@ -19780,7 +19802,7 @@
         <v>102400</v>
       </c>
       <c r="K380" t="n">
-        <v>-16.27906976744186</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L380" t="n">
         <v>130260</v>
@@ -19831,7 +19853,7 @@
         <v>102400</v>
       </c>
       <c r="K381" t="n">
-        <v>-10</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L381" t="n">
         <v>130220</v>
@@ -19882,7 +19904,7 @@
         <v>102900</v>
       </c>
       <c r="K382" t="n">
-        <v>4.545454545454546</v>
+        <v>4</v>
       </c>
       <c r="L382" t="n">
         <v>130220</v>
@@ -19933,7 +19955,7 @@
         <v>103100</v>
       </c>
       <c r="K383" t="n">
-        <v>-4.545454545454546</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L383" t="n">
         <v>130210</v>
@@ -19984,7 +20006,7 @@
         <v>103500</v>
       </c>
       <c r="K384" t="n">
-        <v>2.127659574468085</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L384" t="n">
         <v>130210</v>
@@ -20035,7 +20057,7 @@
         <v>103900</v>
       </c>
       <c r="K385" t="n">
-        <v>6.122448979591836</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L385" t="n">
         <v>130240</v>
@@ -20086,7 +20108,7 @@
         <v>104000</v>
       </c>
       <c r="K386" t="n">
-        <v>2.040816326530612</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L386" t="n">
         <v>130290</v>
@@ -20137,7 +20159,7 @@
         <v>104000</v>
       </c>
       <c r="K387" t="n">
-        <v>2.040816326530612</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L387" t="n">
         <v>130340</v>
@@ -20188,7 +20210,7 @@
         <v>104000</v>
       </c>
       <c r="K388" t="n">
-        <v>6.382978723404255</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L388" t="n">
         <v>130420</v>
@@ -20239,7 +20261,7 @@
         <v>104300</v>
       </c>
       <c r="K389" t="n">
-        <v>-2.040816326530612</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L389" t="n">
         <v>130430</v>
@@ -20290,7 +20312,7 @@
         <v>105000</v>
       </c>
       <c r="K390" t="n">
-        <v>24</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L390" t="n">
         <v>130570</v>
@@ -20341,7 +20363,7 @@
         <v>105100</v>
       </c>
       <c r="K391" t="n">
-        <v>22.44897959183674</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L391" t="n">
         <v>130720</v>
@@ -20392,7 +20414,7 @@
         <v>105300</v>
       </c>
       <c r="K392" t="n">
-        <v>24</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L392" t="n">
         <v>130840</v>
@@ -20443,7 +20465,7 @@
         <v>105600</v>
       </c>
       <c r="K393" t="n">
-        <v>30.76923076923077</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L393" t="n">
         <v>131010</v>
@@ -20494,7 +20516,7 @@
         <v>105800</v>
       </c>
       <c r="K394" t="n">
-        <v>29.41176470588236</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L394" t="n">
         <v>131160</v>
@@ -20545,7 +20567,7 @@
         <v>106100</v>
       </c>
       <c r="K395" t="n">
-        <v>20.75471698113208</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L395" t="n">
         <v>131240</v>
@@ -20596,7 +20618,7 @@
         <v>106200</v>
       </c>
       <c r="K396" t="n">
-        <v>25.49019607843137</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L396" t="n">
         <v>131320</v>
@@ -20647,7 +20669,7 @@
         <v>106400</v>
       </c>
       <c r="K397" t="n">
-        <v>20.75471698113208</v>
+        <v>25</v>
       </c>
       <c r="L397" t="n">
         <v>131380</v>
@@ -20698,7 +20720,7 @@
         <v>106800</v>
       </c>
       <c r="K398" t="n">
-        <v>18.51851851851852</v>
+        <v>20</v>
       </c>
       <c r="L398" t="n">
         <v>131400</v>
@@ -20749,7 +20771,7 @@
         <v>107000</v>
       </c>
       <c r="K399" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L399" t="n">
         <v>131430</v>
@@ -20800,7 +20822,7 @@
         <v>107400</v>
       </c>
       <c r="K400" t="n">
-        <v>28</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L400" t="n">
         <v>131430</v>
@@ -20851,7 +20873,7 @@
         <v>107800</v>
       </c>
       <c r="K401" t="n">
-        <v>33.33333333333333</v>
+        <v>4</v>
       </c>
       <c r="L401" t="n">
         <v>131460</v>
@@ -20902,7 +20924,7 @@
         <v>107900</v>
       </c>
       <c r="K402" t="n">
-        <v>28</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L402" t="n">
         <v>131480</v>
@@ -20953,7 +20975,7 @@
         <v>107900</v>
       </c>
       <c r="K403" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L403" t="n">
         <v>131470</v>
@@ -21004,7 +21026,7 @@
         <v>108100</v>
       </c>
       <c r="K404" t="n">
-        <v>30.43478260869566</v>
+        <v>10</v>
       </c>
       <c r="L404" t="n">
         <v>131460</v>
@@ -21055,7 +21077,7 @@
         <v>108100</v>
       </c>
       <c r="K405" t="n">
-        <v>23.80952380952381</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L405" t="n">
         <v>131480</v>
@@ -21106,7 +21128,7 @@
         <v>108200</v>
       </c>
       <c r="K406" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L406" t="n">
         <v>131520</v>
@@ -21157,7 +21179,7 @@
         <v>108500</v>
       </c>
       <c r="K407" t="n">
-        <v>20</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L407" t="n">
         <v>131550</v>
@@ -21208,7 +21230,7 @@
         <v>108900</v>
       </c>
       <c r="K408" t="n">
-        <v>26.53061224489796</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L408" t="n">
         <v>131660</v>
@@ -21259,7 +21281,7 @@
         <v>109100</v>
       </c>
       <c r="K409" t="n">
-        <v>37.5</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L409" t="n">
         <v>131810</v>
@@ -21310,7 +21332,7 @@
         <v>109700</v>
       </c>
       <c r="K410" t="n">
-        <v>36.17021276595745</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L410" t="n">
         <v>131980</v>
@@ -21361,7 +21383,7 @@
         <v>110200</v>
       </c>
       <c r="K411" t="n">
-        <v>21.56862745098039</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L411" t="n">
         <v>132060</v>
@@ -21412,7 +21434,7 @@
         <v>110300</v>
       </c>
       <c r="K412" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L412" t="n">
         <v>132120</v>
@@ -21463,7 +21485,7 @@
         <v>110800</v>
       </c>
       <c r="K413" t="n">
-        <v>19.23076923076923</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L413" t="n">
         <v>132230</v>
@@ -21514,7 +21536,7 @@
         <v>110900</v>
       </c>
       <c r="K414" t="n">
-        <v>17.64705882352941</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L414" t="n">
         <v>132330</v>
@@ -21565,7 +21587,7 @@
         <v>110900</v>
       </c>
       <c r="K415" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L415" t="n">
         <v>132430</v>
@@ -21616,7 +21638,7 @@
         <v>111900</v>
       </c>
       <c r="K416" t="n">
-        <v>5.263157894736842</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L416" t="n">
         <v>132420</v>
@@ -21667,7 +21689,7 @@
         <v>112500</v>
       </c>
       <c r="K417" t="n">
-        <v>18.0327868852459</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L417" t="n">
         <v>132500</v>
@@ -21718,7 +21740,7 @@
         <v>113100</v>
       </c>
       <c r="K418" t="n">
-        <v>14.28571428571428</v>
+        <v>-10</v>
       </c>
       <c r="L418" t="n">
         <v>132480</v>
@@ -21769,7 +21791,7 @@
         <v>113500</v>
       </c>
       <c r="K419" t="n">
-        <v>23.07692307692308</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L419" t="n">
         <v>132480</v>
@@ -21820,7 +21842,7 @@
         <v>113800</v>
       </c>
       <c r="K420" t="n">
-        <v>12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L420" t="n">
         <v>132390</v>
@@ -21871,7 +21893,7 @@
         <v>114000</v>
       </c>
       <c r="K421" t="n">
-        <v>9.67741935483871</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L421" t="n">
         <v>132370</v>
@@ -21922,7 +21944,7 @@
         <v>114100</v>
       </c>
       <c r="K422" t="n">
-        <v>9.67741935483871</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L422" t="n">
         <v>132370</v>
@@ -21973,7 +21995,7 @@
         <v>114300</v>
       </c>
       <c r="K423" t="n">
-        <v>12.5</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L423" t="n">
         <v>132340</v>
@@ -22024,7 +22046,7 @@
         <v>114400</v>
       </c>
       <c r="K424" t="n">
-        <v>11.11111111111111</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L424" t="n">
         <v>132310</v>
@@ -22075,7 +22097,7 @@
         <v>114500</v>
       </c>
       <c r="K425" t="n">
-        <v>12.5</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L425" t="n">
         <v>132290</v>
@@ -22126,7 +22148,7 @@
         <v>114600</v>
       </c>
       <c r="K426" t="n">
-        <v>9.375</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L426" t="n">
         <v>132360</v>
@@ -22177,7 +22199,7 @@
         <v>115100</v>
       </c>
       <c r="K427" t="n">
-        <v>21.21212121212121</v>
+        <v>60</v>
       </c>
       <c r="L427" t="n">
         <v>132420</v>
@@ -22228,7 +22250,7 @@
         <v>115900</v>
       </c>
       <c r="K428" t="n">
-        <v>2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L428" t="n">
         <v>132460</v>
@@ -22279,7 +22301,7 @@
         <v>116300</v>
       </c>
       <c r="K429" t="n">
-        <v>5.555555555555555</v>
+        <v>28</v>
       </c>
       <c r="L429" t="n">
         <v>132500</v>
@@ -22330,7 +22352,7 @@
         <v>116700</v>
       </c>
       <c r="K430" t="n">
-        <v>-8.571428571428571</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L430" t="n">
         <v>132530</v>
@@ -22381,7 +22403,7 @@
         <v>117700</v>
       </c>
       <c r="K431" t="n">
-        <v>-14.66666666666667</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L431" t="n">
         <v>132440</v>
@@ -22432,7 +22454,7 @@
         <v>117900</v>
       </c>
       <c r="K432" t="n">
-        <v>-10.52631578947368</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L432" t="n">
         <v>132360</v>
@@ -22483,7 +22505,7 @@
         <v>117900</v>
       </c>
       <c r="K433" t="n">
-        <v>-18.30985915492958</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L433" t="n">
         <v>132260</v>
@@ -22534,7 +22556,7 @@
         <v>118200</v>
       </c>
       <c r="K434" t="n">
-        <v>-23.28767123287671</v>
+        <v>-40.54054054054054</v>
       </c>
       <c r="L434" t="n">
         <v>132120</v>
@@ -22585,7 +22607,7 @@
         <v>118600</v>
       </c>
       <c r="K435" t="n">
-        <v>-27.27272727272727</v>
+        <v>-45</v>
       </c>
       <c r="L435" t="n">
         <v>131930</v>
@@ -22636,7 +22658,7 @@
         <v>118900</v>
       </c>
       <c r="K436" t="n">
-        <v>-20</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L436" t="n">
         <v>131720</v>
@@ -22687,7 +22709,7 @@
         <v>119100</v>
       </c>
       <c r="K437" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L437" t="n">
         <v>131480</v>
@@ -22738,7 +22760,7 @@
         <v>119600</v>
       </c>
       <c r="K438" t="n">
-        <v>-10.76923076923077</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L438" t="n">
         <v>131370</v>
@@ -22789,7 +22811,7 @@
         <v>119700</v>
       </c>
       <c r="K439" t="n">
-        <v>-16.12903225806452</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L439" t="n">
         <v>131230</v>
@@ -22840,7 +22862,7 @@
         <v>119700</v>
       </c>
       <c r="K440" t="n">
-        <v>-11.86440677966102</v>
+        <v>0</v>
       </c>
       <c r="L440" t="n">
         <v>131130</v>
@@ -22891,7 +22913,7 @@
         <v>120000</v>
       </c>
       <c r="K441" t="n">
-        <v>-10</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L441" t="n">
         <v>131160</v>
@@ -22942,7 +22964,7 @@
         <v>120600</v>
       </c>
       <c r="K442" t="n">
-        <v>-1.538461538461539</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L442" t="n">
         <v>131230</v>
@@ -22993,7 +23015,7 @@
         <v>120600</v>
       </c>
       <c r="K443" t="n">
-        <v>-4.761904761904762</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L443" t="n">
         <v>131300</v>
@@ -23044,7 +23066,7 @@
         <v>121400</v>
       </c>
       <c r="K444" t="n">
-        <v>-17.14285714285714</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L444" t="n">
         <v>131320</v>
@@ -23095,7 +23117,7 @@
         <v>121400</v>
       </c>
       <c r="K445" t="n">
-        <v>-18.84057971014493</v>
+        <v>36</v>
       </c>
       <c r="L445" t="n">
         <v>131380</v>
@@ -23146,7 +23168,7 @@
         <v>121700</v>
       </c>
       <c r="K446" t="n">
-        <v>-21.12676056338028</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L446" t="n">
         <v>131440</v>
@@ -23197,7 +23219,7 @@
         <v>122300</v>
       </c>
       <c r="K447" t="n">
-        <v>-36.11111111111111</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L447" t="n">
         <v>131420</v>
@@ -23248,7 +23270,7 @@
         <v>122500</v>
       </c>
       <c r="K448" t="n">
-        <v>-30.3030303030303</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L448" t="n">
         <v>131330</v>
@@ -23299,7 +23321,7 @@
         <v>122800</v>
       </c>
       <c r="K449" t="n">
-        <v>-32.30769230769231</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L449" t="n">
         <v>131260</v>
@@ -23350,7 +23372,7 @@
         <v>122900</v>
       </c>
       <c r="K450" t="n">
-        <v>-29.03225806451613</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L450" t="n">
         <v>131180</v>
@@ -23401,7 +23423,7 @@
         <v>123100</v>
       </c>
       <c r="K451" t="n">
-        <v>-11.11111111111111</v>
+        <v>-60</v>
       </c>
       <c r="L451" t="n">
         <v>131090</v>
@@ -23452,7 +23474,7 @@
         <v>123400</v>
       </c>
       <c r="K452" t="n">
-        <v>-20</v>
+        <v>-64.28571428571429</v>
       </c>
       <c r="L452" t="n">
         <v>130910</v>
@@ -23503,7 +23525,7 @@
         <v>123500</v>
       </c>
       <c r="K453" t="n">
-        <v>-17.85714285714286</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L453" t="n">
         <v>130740</v>
@@ -23554,7 +23576,7 @@
         <v>123500</v>
       </c>
       <c r="K454" t="n">
-        <v>-13.20754716981132</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L454" t="n">
         <v>130650</v>
@@ -23605,7 +23627,7 @@
         <v>123600</v>
       </c>
       <c r="K455" t="n">
-        <v>-8</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L455" t="n">
         <v>130550</v>
@@ -23656,7 +23678,7 @@
         <v>123600</v>
       </c>
       <c r="K456" t="n">
-        <v>-2.127659574468085</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L456" t="n">
         <v>130480</v>
@@ -23707,7 +23729,7 @@
         <v>123700</v>
       </c>
       <c r="K457" t="n">
-        <v>-8.695652173913043</v>
+        <v>0</v>
       </c>
       <c r="L457" t="n">
         <v>130460</v>
@@ -23758,7 +23780,7 @@
         <v>123700</v>
       </c>
       <c r="K458" t="n">
-        <v>-21.95121951219512</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L458" t="n">
         <v>130460</v>
@@ -23809,7 +23831,7 @@
         <v>124400</v>
       </c>
       <c r="K459" t="n">
-        <v>-6.382978723404255</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L459" t="n">
         <v>130500</v>
@@ -23860,7 +23882,7 @@
         <v>125300</v>
       </c>
       <c r="K460" t="n">
-        <v>10.71428571428571</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L460" t="n">
         <v>130640</v>
@@ -23911,7 +23933,7 @@
         <v>126200</v>
       </c>
       <c r="K461" t="n">
-        <v>-9.67741935483871</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L461" t="n">
         <v>130670</v>
@@ -23962,7 +23984,7 @@
         <v>126300</v>
       </c>
       <c r="K462" t="n">
-        <v>-19.29824561403509</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L462" t="n">
         <v>130740</v>
@@ -24013,7 +24035,7 @@
         <v>126400</v>
       </c>
       <c r="K463" t="n">
-        <v>-17.24137931034483</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L463" t="n">
         <v>130810</v>
@@ -24064,7 +24086,7 @@
         <v>126500</v>
       </c>
       <c r="K464" t="n">
-        <v>-5.88235294117647</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L464" t="n">
         <v>130870</v>
@@ -24115,7 +24137,7 @@
         <v>126500</v>
       </c>
       <c r="K465" t="n">
-        <v>-5.88235294117647</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L465" t="n">
         <v>130940</v>
@@ -24166,7 +24188,7 @@
         <v>126600</v>
       </c>
       <c r="K466" t="n">
-        <v>2.040816326530612</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L466" t="n">
         <v>131020</v>
@@ -24217,7 +24239,7 @@
         <v>126700</v>
       </c>
       <c r="K467" t="n">
-        <v>13.63636363636363</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L467" t="n">
         <v>131100</v>
@@ -24268,7 +24290,7 @@
         <v>127500</v>
       </c>
       <c r="K468" t="n">
-        <v>32</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L468" t="n">
         <v>131260</v>
@@ -24319,7 +24341,7 @@
         <v>128200</v>
       </c>
       <c r="K469" t="n">
-        <v>11.11111111111111</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L469" t="n">
         <v>131280</v>
@@ -24370,7 +24392,7 @@
         <v>128400</v>
       </c>
       <c r="K470" t="n">
-        <v>16.36363636363636</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L470" t="n">
         <v>131230</v>
@@ -24421,7 +24443,7 @@
         <v>128500</v>
       </c>
       <c r="K471" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L471" t="n">
         <v>131260</v>
@@ -24472,7 +24494,7 @@
         <v>128800</v>
       </c>
       <c r="K472" t="n">
-        <v>22.22222222222222</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L472" t="n">
         <v>131310</v>
@@ -24523,7 +24545,7 @@
         <v>129100</v>
       </c>
       <c r="K473" t="n">
-        <v>25</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L473" t="n">
         <v>131380</v>
@@ -24574,7 +24596,7 @@
         <v>129100</v>
       </c>
       <c r="K474" t="n">
-        <v>25</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L474" t="n">
         <v>131460</v>
@@ -24625,7 +24647,7 @@
         <v>129400</v>
       </c>
       <c r="K475" t="n">
-        <v>20.68965517241379</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L475" t="n">
         <v>131510</v>
@@ -24676,7 +24698,7 @@
         <v>129900</v>
       </c>
       <c r="K476" t="n">
-        <v>26.98412698412698</v>
+        <v>31.25</v>
       </c>
       <c r="L476" t="n">
         <v>131600</v>
@@ -24727,7 +24749,7 @@
         <v>130200</v>
       </c>
       <c r="K477" t="n">
-        <v>23.07692307692308</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L477" t="n">
         <v>131670</v>
@@ -24778,7 +24800,7 @@
         <v>130800</v>
       </c>
       <c r="K478" t="n">
-        <v>29.57746478873239</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L478" t="n">
         <v>131720</v>
@@ -24829,7 +24851,7 @@
         <v>130900</v>
       </c>
       <c r="K479" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L479" t="n">
         <v>131830</v>
@@ -24880,7 +24902,7 @@
         <v>131100</v>
       </c>
       <c r="K480" t="n">
-        <v>10.3448275862069</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L480" t="n">
         <v>131940</v>
@@ -24931,7 +24953,7 @@
         <v>131200</v>
       </c>
       <c r="K481" t="n">
-        <v>28</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L481" t="n">
         <v>132050</v>
@@ -24982,7 +25004,7 @@
         <v>131300</v>
       </c>
       <c r="K482" t="n">
-        <v>28</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L482" t="n">
         <v>132140</v>
@@ -25033,7 +25055,7 @@
         <v>131600</v>
       </c>
       <c r="K483" t="n">
-        <v>30.76923076923077</v>
+        <v>36</v>
       </c>
       <c r="L483" t="n">
         <v>132230</v>
@@ -25084,7 +25106,7 @@
         <v>132400</v>
       </c>
       <c r="K484" t="n">
-        <v>42.3728813559322</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L484" t="n">
         <v>132400</v>
@@ -25135,7 +25157,7 @@
         <v>132500</v>
       </c>
       <c r="K485" t="n">
-        <v>40</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L485" t="n">
         <v>132590</v>
@@ -25186,7 +25208,7 @@
         <v>132800</v>
       </c>
       <c r="K486" t="n">
-        <v>32.25806451612903</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L486" t="n">
         <v>132700</v>
@@ -25237,7 +25259,7 @@
         <v>133200</v>
       </c>
       <c r="K487" t="n">
-        <v>26.15384615384616</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L487" t="n">
         <v>132800</v>
@@ -25288,7 +25310,7 @@
         <v>134200</v>
       </c>
       <c r="K488" t="n">
-        <v>-1.492537313432836</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L488" t="n">
         <v>132740</v>
@@ -25339,7 +25361,7 @@
         <v>135100</v>
       </c>
       <c r="K489" t="n">
-        <v>21.73913043478261</v>
+        <v>5</v>
       </c>
       <c r="L489" t="n">
         <v>132780</v>
@@ -25390,7 +25412,7 @@
         <v>135600</v>
       </c>
       <c r="K490" t="n">
-        <v>25</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L490" t="n">
         <v>132850</v>
@@ -25441,7 +25463,7 @@
         <v>136100</v>
       </c>
       <c r="K491" t="n">
-        <v>18.42105263157895</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="L491" t="n">
         <v>132880</v>
@@ -25492,7 +25514,7 @@
         <v>136500</v>
       </c>
       <c r="K492" t="n">
-        <v>9.090909090909092</v>
+        <v>-10.20408163265306</v>
       </c>
       <c r="L492" t="n">
         <v>132860</v>
@@ -25543,7 +25565,7 @@
         <v>137000</v>
       </c>
       <c r="K493" t="n">
-        <v>11.39240506329114</v>
+        <v>-17.39130434782609</v>
       </c>
       <c r="L493" t="n">
         <v>132860</v>
@@ -25594,7 +25616,7 @@
         <v>137200</v>
       </c>
       <c r="K494" t="n">
-        <v>8.641975308641975</v>
+        <v>-19.14893617021277</v>
       </c>
       <c r="L494" t="n">
         <v>132760</v>
@@ -25645,7 +25667,7 @@
         <v>137300</v>
       </c>
       <c r="K495" t="n">
-        <v>11.39240506329114</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L495" t="n">
         <v>132660</v>
@@ -25696,7 +25718,7 @@
         <v>137400</v>
       </c>
       <c r="K496" t="n">
-        <v>4</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L496" t="n">
         <v>132580</v>
@@ -25747,7 +25769,7 @@
         <v>137600</v>
       </c>
       <c r="K497" t="n">
-        <v>5.405405405405405</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L497" t="n">
         <v>132520</v>
@@ -25798,7 +25820,7 @@
         <v>137600</v>
       </c>
       <c r="K498" t="n">
-        <v>-2.941176470588235</v>
+        <v>-20</v>
       </c>
       <c r="L498" t="n">
         <v>132560</v>
@@ -25849,7 +25871,7 @@
         <v>137600</v>
       </c>
       <c r="K499" t="n">
-        <v>-1.492537313432836</v>
+        <v>-50</v>
       </c>
       <c r="L499" t="n">
         <v>132510</v>
@@ -25900,7 +25922,7 @@
         <v>138000</v>
       </c>
       <c r="K500" t="n">
-        <v>1.449275362318841</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L500" t="n">
         <v>132450</v>
@@ -25951,7 +25973,7 @@
         <v>138000</v>
       </c>
       <c r="K501" t="n">
-        <v>2.941176470588235</v>
+        <v>20</v>
       </c>
       <c r="L501" t="n">
         <v>132440</v>
@@ -26002,7 +26024,7 @@
         <v>138200</v>
       </c>
       <c r="K502" t="n">
-        <v>-1.449275362318841</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L502" t="n">
         <v>132450</v>
@@ -26053,7 +26075,7 @@
         <v>138300</v>
       </c>
       <c r="K503" t="n">
-        <v>-4.477611940298507</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L503" t="n">
         <v>132420</v>
@@ -26104,7 +26126,7 @@
         <v>138400</v>
       </c>
       <c r="K504" t="n">
-        <v>-16.66666666666666</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L504" t="n">
         <v>132420</v>
@@ -26155,7 +26177,7 @@
         <v>138600</v>
       </c>
       <c r="K505" t="n">
-        <v>-11.47540983606557</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L505" t="n">
         <v>132450</v>
@@ -26206,7 +26228,7 @@
         <v>138600</v>
       </c>
       <c r="K506" t="n">
-        <v>-6.896551724137931</v>
+        <v>60</v>
       </c>
       <c r="L506" t="n">
         <v>132490</v>
@@ -26257,7 +26279,7 @@
         <v>138600</v>
       </c>
       <c r="K507" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L507" t="n">
         <v>132550</v>
@@ -26308,7 +26330,7 @@
         <v>138600</v>
       </c>
       <c r="K508" t="n">
-        <v>22.72727272727273</v>
+        <v>60</v>
       </c>
       <c r="L508" t="n">
         <v>132610</v>
@@ -26359,7 +26381,7 @@
         <v>139000</v>
       </c>
       <c r="K509" t="n">
-        <v>12.82051282051282</v>
+        <v>60</v>
       </c>
       <c r="L509" t="n">
         <v>132710</v>
@@ -26410,7 +26432,7 @@
         <v>139000</v>
       </c>
       <c r="K510" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L510" t="n">
         <v>132770</v>
@@ -26461,7 +26483,7 @@
         <v>139100</v>
       </c>
       <c r="K511" t="n">
-        <v>13.33333333333333</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L511" t="n">
         <v>132820</v>
@@ -26512,7 +26534,7 @@
         <v>139900</v>
       </c>
       <c r="K512" t="n">
-        <v>47.05882352941176</v>
+        <v>87.5</v>
       </c>
       <c r="L512" t="n">
         <v>132970</v>
@@ -26563,7 +26585,7 @@
         <v>140600</v>
       </c>
       <c r="K513" t="n">
-        <v>50</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L513" t="n">
         <v>133180</v>
@@ -26614,7 +26636,7 @@
         <v>141100</v>
       </c>
       <c r="K514" t="n">
-        <v>38.46153846153847</v>
+        <v>52</v>
       </c>
       <c r="L514" t="n">
         <v>133330</v>
@@ -26665,7 +26687,7 @@
         <v>141200</v>
       </c>
       <c r="K515" t="n">
-        <v>38.46153846153847</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L515" t="n">
         <v>133450</v>
@@ -26716,7 +26738,7 @@
         <v>141900</v>
       </c>
       <c r="K516" t="n">
-        <v>20</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L516" t="n">
         <v>133500</v>
@@ -26767,7 +26789,7 @@
         <v>142000</v>
       </c>
       <c r="K517" t="n">
-        <v>22.72727272727273</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L517" t="n">
         <v>133540</v>
@@ -26818,7 +26840,7 @@
         <v>142500</v>
       </c>
       <c r="K518" t="n">
-        <v>30.61224489795918</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L518" t="n">
         <v>133630</v>
@@ -26869,7 +26891,7 @@
         <v>142700</v>
       </c>
       <c r="K519" t="n">
-        <v>25.49019607843137</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L519" t="n">
         <v>133660</v>
@@ -26920,7 +26942,7 @@
         <v>142700</v>
       </c>
       <c r="K520" t="n">
-        <v>19.14893617021277</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L520" t="n">
         <v>133690</v>
@@ -26971,7 +26993,7 @@
         <v>143100</v>
       </c>
       <c r="K521" t="n">
-        <v>9.803921568627452</v>
+        <v>-25</v>
       </c>
       <c r="L521" t="n">
         <v>133690</v>
@@ -27022,7 +27044,7 @@
         <v>143100</v>
       </c>
       <c r="K522" t="n">
-        <v>14.28571428571428</v>
+        <v>-60</v>
       </c>
       <c r="L522" t="n">
         <v>133610</v>
@@ -27073,7 +27095,7 @@
         <v>143300</v>
       </c>
       <c r="K523" t="n">
-        <v>16</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L523" t="n">
         <v>133480</v>
@@ -27124,7 +27146,7 @@
         <v>143300</v>
       </c>
       <c r="K524" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L524" t="n">
         <v>133400</v>
@@ -27175,7 +27197,7 @@
         <v>143700</v>
       </c>
       <c r="K525" t="n">
-        <v>17.64705882352941</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L525" t="n">
         <v>133370</v>
@@ -27226,7 +27248,7 @@
         <v>144200</v>
       </c>
       <c r="K526" t="n">
-        <v>25</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L526" t="n">
         <v>133460</v>
@@ -27277,7 +27299,7 @@
         <v>144800</v>
       </c>
       <c r="K527" t="n">
-        <v>12.90322580645161</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L527" t="n">
         <v>133500</v>
@@ -27328,7 +27350,7 @@
         <v>144800</v>
       </c>
       <c r="K528" t="n">
-        <v>12.90322580645161</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L528" t="n">
         <v>133490</v>
@@ -27379,7 +27401,7 @@
         <v>145000</v>
       </c>
       <c r="K529" t="n">
-        <v>10</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L529" t="n">
         <v>133520</v>
@@ -27430,7 +27452,7 @@
         <v>145000</v>
       </c>
       <c r="K530" t="n">
-        <v>10</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L530" t="n">
         <v>133550</v>
@@ -27481,7 +27503,7 @@
         <v>145300</v>
       </c>
       <c r="K531" t="n">
-        <v>6.451612903225806</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L531" t="n">
         <v>133590</v>
@@ -27532,7 +27554,7 @@
         <v>145600</v>
       </c>
       <c r="K532" t="n">
-        <v>-1.754385964912281</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L532" t="n">
         <v>133660</v>
@@ -27583,7 +27605,7 @@
         <v>145600</v>
       </c>
       <c r="K533" t="n">
-        <v>-16</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L533" t="n">
         <v>133710</v>
@@ -27634,7 +27656,7 @@
         <v>145600</v>
       </c>
       <c r="K534" t="n">
-        <v>-6.666666666666667</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L534" t="n">
         <v>133760</v>
@@ -27685,7 +27707,7 @@
         <v>145700</v>
       </c>
       <c r="K535" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L535" t="n">
         <v>133760</v>
@@ -27736,7 +27758,7 @@
         <v>145700</v>
       </c>
       <c r="K536" t="n">
-        <v>10.52631578947368</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L536" t="n">
         <v>133710</v>
@@ -27787,7 +27809,7 @@
         <v>145800</v>
       </c>
       <c r="K537" t="n">
-        <v>10.52631578947368</v>
+        <v>0</v>
       </c>
       <c r="L537" t="n">
         <v>133710</v>
@@ -27838,7 +27860,7 @@
         <v>145900</v>
       </c>
       <c r="K538" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L538" t="n">
         <v>133700</v>
@@ -27889,7 +27911,7 @@
         <v>146300</v>
       </c>
       <c r="K539" t="n">
-        <v>-11.11111111111111</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L539" t="n">
         <v>133630</v>
@@ -27940,7 +27962,7 @@
         <v>147100</v>
       </c>
       <c r="K540" t="n">
-        <v>9.090909090909092</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L540" t="n">
         <v>133640</v>
@@ -27991,7 +28013,7 @@
         <v>147600</v>
       </c>
       <c r="K541" t="n">
-        <v>6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L541" t="n">
         <v>133630</v>
@@ -28042,7 +28064,7 @@
         <v>147600</v>
       </c>
       <c r="K542" t="n">
-        <v>6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L542" t="n">
         <v>133590</v>
@@ -28093,7 +28115,7 @@
         <v>147700</v>
       </c>
       <c r="K543" t="n">
-        <v>0</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L543" t="n">
         <v>133540</v>
@@ -28144,7 +28166,7 @@
         <v>147900</v>
       </c>
       <c r="K544" t="n">
-        <v>4.347826086956522</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L544" t="n">
         <v>133510</v>
@@ -28246,7 +28268,7 @@
         <v>148400</v>
       </c>
       <c r="K546" t="n">
-        <v>-19.04761904761905</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L546" t="n">
         <v>133480</v>
@@ -28297,7 +28319,7 @@
         <v>148400</v>
       </c>
       <c r="K547" t="n">
-        <v>-5.555555555555555</v>
+        <v>-4</v>
       </c>
       <c r="L547" t="n">
         <v>133460</v>
@@ -28348,7 +28370,7 @@
         <v>148500</v>
       </c>
       <c r="K548" t="n">
-        <v>-8.108108108108109</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L548" t="n">
         <v>133440</v>
@@ -28399,7 +28421,7 @@
         <v>148500</v>
       </c>
       <c r="K549" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L549" t="n">
         <v>133460</v>
@@ -28450,7 +28472,7 @@
         <v>148600</v>
       </c>
       <c r="K550" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L550" t="n">
         <v>133390</v>
@@ -28501,7 +28523,7 @@
         <v>148800</v>
       </c>
       <c r="K551" t="n">
-        <v>-2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L551" t="n">
         <v>133390</v>
@@ -28552,7 +28574,7 @@
         <v>148800</v>
       </c>
       <c r="K552" t="n">
-        <v>-12.5</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L552" t="n">
         <v>133390</v>
@@ -28603,7 +28625,7 @@
         <v>148800</v>
       </c>
       <c r="K553" t="n">
-        <v>-12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L553" t="n">
         <v>133400</v>
@@ -28654,7 +28676,7 @@
         <v>149200</v>
       </c>
       <c r="K554" t="n">
-        <v>-22.22222222222222</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L554" t="n">
         <v>133350</v>
@@ -28705,7 +28727,7 @@
         <v>149200</v>
       </c>
       <c r="K555" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L555" t="n">
         <v>133280</v>
@@ -28756,7 +28778,7 @@
         <v>149400</v>
       </c>
       <c r="K556" t="n">
-        <v>-24.32432432432433</v>
+        <v>-60</v>
       </c>
       <c r="L556" t="n">
         <v>133220</v>
@@ -28807,7 +28829,7 @@
         <v>149400</v>
       </c>
       <c r="K557" t="n">
-        <v>-22.22222222222222</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L557" t="n">
         <v>133160</v>
@@ -28858,7 +28880,7 @@
         <v>149400</v>
       </c>
       <c r="K558" t="n">
-        <v>-20</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L558" t="n">
         <v>133110</v>
@@ -28909,7 +28931,7 @@
         <v>149500</v>
       </c>
       <c r="K559" t="n">
-        <v>-12.5</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L559" t="n">
         <v>133050</v>
@@ -28960,7 +28982,7 @@
         <v>150000</v>
       </c>
       <c r="K560" t="n">
-        <v>-58.62068965517241</v>
+        <v>-100</v>
       </c>
       <c r="L560" t="n">
         <v>132950</v>
@@ -29011,7 +29033,7 @@
         <v>150300</v>
       </c>
       <c r="K561" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L561" t="n">
         <v>132860</v>
@@ -29062,7 +29084,7 @@
         <v>150300</v>
       </c>
       <c r="K562" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L562" t="n">
         <v>132770</v>
@@ -29113,7 +29135,7 @@
         <v>150400</v>
       </c>
       <c r="K563" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L563" t="n">
         <v>132670</v>
@@ -29164,7 +29186,7 @@
         <v>150900</v>
       </c>
       <c r="K564" t="n">
-        <v>-53.33333333333334</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L564" t="n">
         <v>132560</v>
@@ -29215,7 +29237,7 @@
         <v>151200</v>
       </c>
       <c r="K565" t="n">
-        <v>-48.38709677419355</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L565" t="n">
         <v>132480</v>
@@ -29266,7 +29288,7 @@
         <v>151500</v>
       </c>
       <c r="K566" t="n">
-        <v>-48.38709677419355</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L566" t="n">
         <v>132390</v>
@@ -29317,7 +29339,7 @@
         <v>151600</v>
       </c>
       <c r="K567" t="n">
-        <v>-43.75</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L567" t="n">
         <v>132310</v>
@@ -29368,7 +29390,7 @@
         <v>152200</v>
       </c>
       <c r="K568" t="n">
-        <v>-51.35135135135135</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L568" t="n">
         <v>132170</v>
@@ -29419,7 +29441,7 @@
         <v>152300</v>
       </c>
       <c r="K569" t="n">
-        <v>-47.36842105263158</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L569" t="n">
         <v>132050</v>
@@ -29470,7 +29492,7 @@
         <v>152500</v>
       </c>
       <c r="K570" t="n">
-        <v>-48.71794871794872</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L570" t="n">
         <v>131960</v>
@@ -29521,7 +29543,7 @@
         <v>152700</v>
       </c>
       <c r="K571" t="n">
-        <v>-48.71794871794872</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L571" t="n">
         <v>131860</v>
@@ -29572,7 +29594,7 @@
         <v>153000</v>
       </c>
       <c r="K572" t="n">
-        <v>-52.38095238095239</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L572" t="n">
         <v>131730</v>
@@ -29623,7 +29645,7 @@
         <v>153100</v>
       </c>
       <c r="K573" t="n">
-        <v>-48.83720930232558</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L573" t="n">
         <v>131620</v>
@@ -29674,7 +29696,7 @@
         <v>153300</v>
       </c>
       <c r="K574" t="n">
-        <v>-46.34146341463415</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L574" t="n">
         <v>131540</v>
@@ -29725,7 +29747,7 @@
         <v>153500</v>
       </c>
       <c r="K575" t="n">
-        <v>-39.53488372093023</v>
+        <v>-30</v>
       </c>
       <c r="L575" t="n">
         <v>131450</v>
@@ -29776,7 +29798,7 @@
         <v>153800</v>
       </c>
       <c r="K576" t="n">
-        <v>-27.27272727272727</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L576" t="n">
         <v>131420</v>
@@ -29827,7 +29849,7 @@
         <v>153900</v>
       </c>
       <c r="K577" t="n">
-        <v>-28.88888888888889</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L577" t="n">
         <v>131370</v>
@@ -29878,7 +29900,7 @@
         <v>154000</v>
       </c>
       <c r="K578" t="n">
-        <v>-26.08695652173913</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L578" t="n">
         <v>131390</v>
@@ -29929,7 +29951,7 @@
         <v>154400</v>
       </c>
       <c r="K579" t="n">
-        <v>-30.61224489795918</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L579" t="n">
         <v>131360</v>
@@ -29980,7 +30002,7 @@
         <v>154800</v>
       </c>
       <c r="K580" t="n">
-        <v>-12.5</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L580" t="n">
         <v>131390</v>
@@ -30031,7 +30053,7 @@
         <v>154900</v>
       </c>
       <c r="K581" t="n">
-        <v>-21.73913043478261</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L581" t="n">
         <v>131390</v>
@@ -30082,7 +30104,7 @@
         <v>155000</v>
       </c>
       <c r="K582" t="n">
-        <v>-19.14893617021277</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L582" t="n">
         <v>131430</v>
@@ -30133,7 +30155,7 @@
         <v>155000</v>
       </c>
       <c r="K583" t="n">
-        <v>-17.39130434782609</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L583" t="n">
         <v>131460</v>
@@ -30184,7 +30206,7 @@
         <v>155000</v>
       </c>
       <c r="K584" t="n">
-        <v>-7.317073170731707</v>
+        <v>20</v>
       </c>
       <c r="L584" t="n">
         <v>131510</v>
@@ -30235,7 +30257,7 @@
         <v>155400</v>
       </c>
       <c r="K585" t="n">
-        <v>-23.80952380952381</v>
+        <v>-25</v>
       </c>
       <c r="L585" t="n">
         <v>131500</v>
@@ -30286,7 +30308,7 @@
         <v>155400</v>
       </c>
       <c r="K586" t="n">
-        <v>-17.94871794871795</v>
+        <v>-20</v>
       </c>
       <c r="L586" t="n">
         <v>131460</v>
@@ -30337,7 +30359,7 @@
         <v>155500</v>
       </c>
       <c r="K587" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L587" t="n">
         <v>131420</v>
@@ -30388,7 +30410,7 @@
         <v>155600</v>
       </c>
       <c r="K588" t="n">
-        <v>-11.76470588235294</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L588" t="n">
         <v>131360</v>
@@ -30439,7 +30461,7 @@
         <v>156000</v>
       </c>
       <c r="K589" t="n">
-        <v>-2.702702702702703</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L589" t="n">
         <v>131380</v>
@@ -30490,7 +30512,7 @@
         <v>156200</v>
       </c>
       <c r="K590" t="n">
-        <v>-2.702702702702703</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L590" t="n">
         <v>131340</v>
@@ -30541,7 +30563,7 @@
         <v>156200</v>
       </c>
       <c r="K591" t="n">
-        <v>-8.571428571428571</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L591" t="n">
         <v>131310</v>
@@ -30592,7 +30614,7 @@
         <v>156600</v>
       </c>
       <c r="K592" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L592" t="n">
         <v>131310</v>
@@ -30643,7 +30665,7 @@
         <v>156600</v>
       </c>
       <c r="K593" t="n">
-        <v>8.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="L593" t="n">
         <v>131310</v>
@@ -30694,7 +30716,7 @@
         <v>156700</v>
       </c>
       <c r="K594" t="n">
-        <v>11.76470588235294</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L594" t="n">
         <v>131300</v>
@@ -30745,7 +30767,7 @@
         <v>156800</v>
       </c>
       <c r="K595" t="n">
-        <v>3.03030303030303</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L595" t="n">
         <v>131320</v>
@@ -30796,7 +30818,7 @@
         <v>157000</v>
       </c>
       <c r="K596" t="n">
-        <v>-12.5</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L596" t="n">
         <v>131320</v>
@@ -30847,7 +30869,7 @@
         <v>157200</v>
       </c>
       <c r="K597" t="n">
-        <v>-15.15151515151515</v>
+        <v>0</v>
       </c>
       <c r="L597" t="n">
         <v>131310</v>
@@ -30898,7 +30920,7 @@
         <v>157300</v>
       </c>
       <c r="K598" t="n">
-        <v>-21.21212121212121</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L598" t="n">
         <v>131300</v>
@@ -30949,7 +30971,7 @@
         <v>157300</v>
       </c>
       <c r="K599" t="n">
-        <v>-10.3448275862069</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L599" t="n">
         <v>131250</v>
@@ -31000,7 +31022,7 @@
         <v>157700</v>
       </c>
       <c r="K600" t="n">
-        <v>-37.93103448275862</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L600" t="n">
         <v>131180</v>
@@ -31051,7 +31073,7 @@
         <v>158200</v>
       </c>
       <c r="K601" t="n">
-        <v>-15.15151515151515</v>
+        <v>-37.5</v>
       </c>
       <c r="L601" t="n">
         <v>131160</v>
@@ -31102,7 +31124,7 @@
         <v>158500</v>
       </c>
       <c r="K602" t="n">
-        <v>-25.71428571428571</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L602" t="n">
         <v>131070</v>
@@ -31153,7 +31175,7 @@
         <v>158600</v>
       </c>
       <c r="K603" t="n">
-        <v>-22.22222222222222</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L603" t="n">
         <v>130990</v>
@@ -31204,7 +31226,7 @@
         <v>159100</v>
       </c>
       <c r="K604" t="n">
-        <v>-31.70731707317073</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L604" t="n">
         <v>130870</v>
@@ -31255,7 +31277,7 @@
         <v>159400</v>
       </c>
       <c r="K605" t="n">
-        <v>-30</v>
+        <v>-50</v>
       </c>
       <c r="L605" t="n">
         <v>130730</v>
@@ -31306,7 +31328,7 @@
         <v>160200</v>
       </c>
       <c r="K606" t="n">
-        <v>-8.333333333333332</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L606" t="n">
         <v>130690</v>
@@ -31357,7 +31379,7 @@
         <v>160700</v>
       </c>
       <c r="K607" t="n">
-        <v>-15.38461538461539</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L607" t="n">
         <v>130620</v>
@@ -31408,7 +31430,7 @@
         <v>160800</v>
       </c>
       <c r="K608" t="n">
-        <v>-15.38461538461539</v>
+        <v>-20</v>
       </c>
       <c r="L608" t="n">
         <v>130550</v>
@@ -31459,7 +31481,7 @@
         <v>160800</v>
       </c>
       <c r="K609" t="n">
-        <v>-25</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L609" t="n">
         <v>130480</v>
@@ -31510,7 +31532,7 @@
         <v>160900</v>
       </c>
       <c r="K610" t="n">
-        <v>-19.14893617021277</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L610" t="n">
         <v>130460</v>
@@ -31561,7 +31583,7 @@
         <v>161200</v>
       </c>
       <c r="K611" t="n">
-        <v>-12</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L611" t="n">
         <v>130420</v>
@@ -31612,7 +31634,7 @@
         <v>161400</v>
       </c>
       <c r="K612" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L612" t="n">
         <v>130430</v>
@@ -31663,7 +31685,7 @@
         <v>161600</v>
       </c>
       <c r="K613" t="n">
-        <v>-12</v>
+        <v>28</v>
       </c>
       <c r="L613" t="n">
         <v>130450</v>
@@ -31714,7 +31736,7 @@
         <v>161600</v>
       </c>
       <c r="K614" t="n">
-        <v>-10.20408163265306</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L614" t="n">
         <v>130520</v>
@@ -31765,7 +31787,7 @@
         <v>162000</v>
       </c>
       <c r="K615" t="n">
-        <v>-15.38461538461539</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L615" t="n">
         <v>130580</v>
@@ -31816,7 +31838,7 @@
         <v>162400</v>
       </c>
       <c r="K616" t="n">
-        <v>-3.703703703703703</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L616" t="n">
         <v>130600</v>
@@ -31867,7 +31889,7 @@
         <v>162400</v>
       </c>
       <c r="K617" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L617" t="n">
         <v>130670</v>
@@ -31918,7 +31940,7 @@
         <v>162800</v>
       </c>
       <c r="K618" t="n">
-        <v>-5.454545454545454</v>
+        <v>20</v>
       </c>
       <c r="L618" t="n">
         <v>130710</v>
@@ -31969,7 +31991,7 @@
         <v>163100</v>
       </c>
       <c r="K619" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L619" t="n">
         <v>130780</v>
@@ -32020,7 +32042,7 @@
         <v>163100</v>
       </c>
       <c r="K620" t="n">
-        <v>7.407407407407407</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L620" t="n">
         <v>130840</v>
@@ -32071,7 +32093,7 @@
         <v>163400</v>
       </c>
       <c r="K621" t="n">
-        <v>3.846153846153846</v>
+        <v>20</v>
       </c>
       <c r="L621" t="n">
         <v>130900</v>
@@ -32122,7 +32144,7 @@
         <v>163400</v>
       </c>
       <c r="K622" t="n">
-        <v>10.20408163265306</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L622" t="n">
         <v>130940</v>
@@ -32173,7 +32195,7 @@
         <v>163500</v>
       </c>
       <c r="K623" t="n">
-        <v>10.20408163265306</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L623" t="n">
         <v>130970</v>
@@ -32224,7 +32246,7 @@
         <v>163700</v>
       </c>
       <c r="K624" t="n">
-        <v>17.39130434782609</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L624" t="n">
         <v>130980</v>
@@ -32275,7 +32297,7 @@
         <v>163700</v>
       </c>
       <c r="K625" t="n">
-        <v>25.58139534883721</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L625" t="n">
         <v>131030</v>
@@ -32326,7 +32348,7 @@
         <v>163800</v>
       </c>
       <c r="K626" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L626" t="n">
         <v>131050</v>
@@ -32377,7 +32399,7 @@
         <v>163800</v>
       </c>
       <c r="K627" t="n">
-        <v>29.03225806451613</v>
+        <v>60</v>
       </c>
       <c r="L627" t="n">
         <v>131070</v>
@@ -32428,7 +32450,7 @@
         <v>164100</v>
       </c>
       <c r="K628" t="n">
-        <v>39.39393939393939</v>
+        <v>60</v>
       </c>
       <c r="L628" t="n">
         <v>131160</v>
@@ -32479,7 +32501,7 @@
         <v>164100</v>
       </c>
       <c r="K629" t="n">
-        <v>39.39393939393939</v>
+        <v>60</v>
       </c>
       <c r="L629" t="n">
         <v>131220</v>
@@ -32530,7 +32552,7 @@
         <v>164100</v>
       </c>
       <c r="K630" t="n">
-        <v>37.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L630" t="n">
         <v>131280</v>
@@ -32581,7 +32603,7 @@
         <v>164300</v>
       </c>
       <c r="K631" t="n">
-        <v>35.48387096774194</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L631" t="n">
         <v>131330</v>
@@ -32632,7 +32654,7 @@
         <v>164500</v>
       </c>
       <c r="K632" t="n">
-        <v>35.48387096774194</v>
+        <v>60</v>
       </c>
       <c r="L632" t="n">
         <v>131400</v>
@@ -32683,7 +32705,7 @@
         <v>164500</v>
       </c>
       <c r="K633" t="n">
-        <v>31.03448275862069</v>
+        <v>100</v>
       </c>
       <c r="L633" t="n">
         <v>131460</v>
@@ -32734,7 +32756,7 @@
         <v>164800</v>
       </c>
       <c r="K634" t="n">
-        <v>18.75</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L634" t="n">
         <v>131510</v>
@@ -32785,7 +32807,7 @@
         <v>165000</v>
       </c>
       <c r="K635" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L635" t="n">
         <v>131580</v>
@@ -32836,7 +32858,7 @@
         <v>165300</v>
       </c>
       <c r="K636" t="n">
-        <v>17.24137931034483</v>
+        <v>20</v>
       </c>
       <c r="L636" t="n">
         <v>131610</v>
@@ -32887,7 +32909,7 @@
         <v>165300</v>
       </c>
       <c r="K637" t="n">
-        <v>17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L637" t="n">
         <v>131640</v>
@@ -32938,7 +32960,7 @@
         <v>165500</v>
       </c>
       <c r="K638" t="n">
-        <v>25.92592592592592</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L638" t="n">
         <v>131620</v>
@@ -32989,7 +33011,7 @@
         <v>165800</v>
       </c>
       <c r="K639" t="n">
-        <v>25.92592592592592</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L639" t="n">
         <v>131630</v>
@@ -33040,7 +33062,7 @@
         <v>166100</v>
       </c>
       <c r="K640" t="n">
-        <v>33.33333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L640" t="n">
         <v>131670</v>
@@ -33091,7 +33113,7 @@
         <v>166300</v>
       </c>
       <c r="K641" t="n">
-        <v>31.03448275862069</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L641" t="n">
         <v>131710</v>
@@ -33142,7 +33164,7 @@
         <v>166400</v>
       </c>
       <c r="K642" t="n">
-        <v>33.33333333333333</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L642" t="n">
         <v>131740</v>
@@ -33193,7 +33215,7 @@
         <v>166400</v>
       </c>
       <c r="K643" t="n">
-        <v>31.03448275862069</v>
+        <v>37.5</v>
       </c>
       <c r="L643" t="n">
         <v>131770</v>
@@ -33244,7 +33266,7 @@
         <v>166700</v>
       </c>
       <c r="K644" t="n">
-        <v>46.66666666666666</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L644" t="n">
         <v>131860</v>
@@ -33295,7 +33317,7 @@
         <v>166900</v>
       </c>
       <c r="K645" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="L645" t="n">
         <v>131910</v>
@@ -33346,7 +33368,7 @@
         <v>166900</v>
       </c>
       <c r="K646" t="n">
-        <v>35.48387096774194</v>
+        <v>50</v>
       </c>
       <c r="L646" t="n">
         <v>131990</v>
@@ -33397,7 +33419,7 @@
         <v>167000</v>
       </c>
       <c r="K647" t="n">
-        <v>31.25</v>
+        <v>60</v>
       </c>
       <c r="L647" t="n">
         <v>132060</v>
@@ -33448,7 +33470,7 @@
         <v>167000</v>
       </c>
       <c r="K648" t="n">
-        <v>24.13793103448276</v>
+        <v>50</v>
       </c>
       <c r="L648" t="n">
         <v>132150</v>
@@ -33499,7 +33521,7 @@
         <v>167300</v>
       </c>
       <c r="K649" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L649" t="n">
         <v>132180</v>
@@ -33550,7 +33572,7 @@
         <v>167800</v>
       </c>
       <c r="K650" t="n">
-        <v>-2.702702702702703</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L650" t="n">
         <v>132130</v>
@@ -33601,7 +33623,7 @@
         <v>168200</v>
       </c>
       <c r="K651" t="n">
-        <v>2.564102564102564</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L651" t="n">
         <v>132100</v>
@@ -33652,7 +33674,7 @@
         <v>168700</v>
       </c>
       <c r="K652" t="n">
-        <v>-14.28571428571428</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L652" t="n">
         <v>132010</v>
@@ -33703,7 +33725,7 @@
         <v>168900</v>
       </c>
       <c r="K653" t="n">
-        <v>-18.18181818181818</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L653" t="n">
         <v>131900</v>
@@ -33754,7 +33776,7 @@
         <v>169400</v>
       </c>
       <c r="K654" t="n">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="L654" t="n">
         <v>131810</v>
@@ -33805,7 +33827,7 @@
         <v>169900</v>
       </c>
       <c r="K655" t="n">
-        <v>6.122448979591836</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L655" t="n">
         <v>131790</v>
@@ -33856,7 +33878,7 @@
         <v>169900</v>
       </c>
       <c r="K656" t="n">
-        <v>13.04347826086956</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L656" t="n">
         <v>131770</v>
@@ -33907,7 +33929,7 @@
         <v>170700</v>
       </c>
       <c r="K657" t="n">
-        <v>-3.703703703703703</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L657" t="n">
         <v>131680</v>
@@ -33958,7 +33980,7 @@
         <v>170700</v>
       </c>
       <c r="K658" t="n">
-        <v>0</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L658" t="n">
         <v>131590</v>
@@ -34009,7 +34031,7 @@
         <v>170800</v>
       </c>
       <c r="K659" t="n">
-        <v>-8</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L659" t="n">
         <v>131520</v>
@@ -34060,7 +34082,7 @@
         <v>171100</v>
       </c>
       <c r="K660" t="n">
-        <v>-20</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L660" t="n">
         <v>131470</v>
@@ -34111,7 +34133,7 @@
         <v>171100</v>
       </c>
       <c r="K661" t="n">
-        <v>-25</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L661" t="n">
         <v>131380</v>
@@ -34162,7 +34184,7 @@
         <v>171400</v>
       </c>
       <c r="K662" t="n">
-        <v>-32</v>
+        <v>-20</v>
       </c>
       <c r="L662" t="n">
         <v>131310</v>
@@ -34213,7 +34235,7 @@
         <v>172100</v>
       </c>
       <c r="K663" t="n">
-        <v>-15.78947368421053</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L663" t="n">
         <v>131330</v>
@@ -34264,7 +34286,7 @@
         <v>172300</v>
       </c>
       <c r="K664" t="n">
-        <v>-25</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L664" t="n">
         <v>131280</v>
@@ -34315,7 +34337,7 @@
         <v>172300</v>
       </c>
       <c r="K665" t="n">
-        <v>-22.22222222222222</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L665" t="n">
         <v>131180</v>
@@ -34366,7 +34388,7 @@
         <v>172400</v>
       </c>
       <c r="K666" t="n">
-        <v>-23.63636363636364</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L666" t="n">
         <v>131070</v>
@@ -34417,7 +34439,7 @@
         <v>172500</v>
       </c>
       <c r="K667" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L667" t="n">
         <v>131050</v>
@@ -34468,7 +34490,7 @@
         <v>172600</v>
       </c>
       <c r="K668" t="n">
-        <v>-21.42857142857143</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L668" t="n">
         <v>131020</v>
@@ -34519,7 +34541,7 @@
         <v>172700</v>
       </c>
       <c r="K669" t="n">
-        <v>-14.81481481481481</v>
+        <v>12.5</v>
       </c>
       <c r="L669" t="n">
         <v>131010</v>
@@ -34570,7 +34592,7 @@
         <v>173100</v>
       </c>
       <c r="K670" t="n">
-        <v>1.886792452830189</v>
+        <v>30</v>
       </c>
       <c r="L670" t="n">
         <v>131070</v>
@@ -34621,7 +34643,7 @@
         <v>173100</v>
       </c>
       <c r="K671" t="n">
-        <v>-6.122448979591836</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L671" t="n">
         <v>131130</v>
@@ -34672,7 +34694,7 @@
         <v>173400</v>
       </c>
       <c r="K672" t="n">
-        <v>10.63829787234043</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L672" t="n">
         <v>131250</v>
@@ -34723,7 +34745,7 @@
         <v>173700</v>
       </c>
       <c r="K673" t="n">
-        <v>8.333333333333332</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L673" t="n">
         <v>131270</v>
@@ -34774,7 +34796,7 @@
         <v>173700</v>
       </c>
       <c r="K674" t="n">
-        <v>-2.325581395348837</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L674" t="n">
         <v>131310</v>
@@ -34825,7 +34847,7 @@
         <v>173700</v>
       </c>
       <c r="K675" t="n">
-        <v>-15.78947368421053</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L675" t="n">
         <v>131350</v>
@@ -34876,7 +34898,7 @@
         <v>173700</v>
       </c>
       <c r="K676" t="n">
-        <v>-15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L676" t="n">
         <v>131400</v>
@@ -34927,7 +34949,7 @@
         <v>173800</v>
       </c>
       <c r="K677" t="n">
-        <v>3.225806451612903</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L677" t="n">
         <v>131430</v>
@@ -34978,7 +35000,7 @@
         <v>174000</v>
       </c>
       <c r="K678" t="n">
-        <v>-3.03030303030303</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L678" t="n">
         <v>131450</v>
@@ -35029,7 +35051,7 @@
         <v>174100</v>
       </c>
       <c r="K679" t="n">
-        <v>3.03030303030303</v>
+        <v>-20</v>
       </c>
       <c r="L679" t="n">
         <v>131470</v>
@@ -35080,7 +35102,7 @@
         <v>174200</v>
       </c>
       <c r="K680" t="n">
-        <v>16.12903225806452</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L680" t="n">
         <v>131460</v>
@@ -35131,7 +35153,7 @@
         <v>174300</v>
       </c>
       <c r="K681" t="n">
-        <v>12.5</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L681" t="n">
         <v>131440</v>
@@ -35182,7 +35204,7 @@
         <v>174500</v>
       </c>
       <c r="K682" t="n">
-        <v>16.12903225806452</v>
+        <v>-50</v>
       </c>
       <c r="L682" t="n">
         <v>131370</v>
@@ -35233,7 +35255,7 @@
         <v>174600</v>
       </c>
       <c r="K683" t="n">
-        <v>-4</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L683" t="n">
         <v>131340</v>
@@ -35284,7 +35306,7 @@
         <v>174600</v>
       </c>
       <c r="K684" t="n">
-        <v>4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L684" t="n">
         <v>131310</v>
@@ -35335,7 +35357,7 @@
         <v>174600</v>
       </c>
       <c r="K685" t="n">
-        <v>4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L685" t="n">
         <v>131280</v>
@@ -35386,7 +35408,7 @@
         <v>174700</v>
       </c>
       <c r="K686" t="n">
-        <v>4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L686" t="n">
         <v>131240</v>
@@ -35437,7 +35459,7 @@
         <v>174700</v>
       </c>
       <c r="K687" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L687" t="n">
         <v>131210</v>
@@ -35488,7 +35510,7 @@
         <v>174800</v>
       </c>
       <c r="K688" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L688" t="n">
         <v>131210</v>
@@ -35539,7 +35561,7 @@
         <v>174900</v>
       </c>
       <c r="K689" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L689" t="n">
         <v>131190</v>
@@ -35590,7 +35612,7 @@
         <v>175000</v>
       </c>
       <c r="K690" t="n">
-        <v>-26.31578947368421</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L690" t="n">
         <v>131150</v>
@@ -35641,7 +35663,7 @@
         <v>175000</v>
       </c>
       <c r="K691" t="n">
-        <v>-26.31578947368421</v>
+        <v>-20</v>
       </c>
       <c r="L691" t="n">
         <v>131120</v>
@@ -35692,7 +35714,7 @@
         <v>175400</v>
       </c>
       <c r="K692" t="n">
-        <v>-60</v>
+        <v>-75</v>
       </c>
       <c r="L692" t="n">
         <v>131070</v>
@@ -35743,7 +35765,7 @@
         <v>175600</v>
       </c>
       <c r="K693" t="n">
-        <v>-36.84210526315789</v>
+        <v>-40</v>
       </c>
       <c r="L693" t="n">
         <v>131030</v>
@@ -35794,7 +35816,7 @@
         <v>175700</v>
       </c>
       <c r="K694" t="n">
-        <v>-40</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L694" t="n">
         <v>130980</v>
@@ -35845,7 +35867,7 @@
         <v>175800</v>
       </c>
       <c r="K695" t="n">
-        <v>-33.33333333333333</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L695" t="n">
         <v>130940</v>
@@ -35896,7 +35918,7 @@
         <v>175900</v>
       </c>
       <c r="K696" t="n">
-        <v>-36.36363636363637</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L696" t="n">
         <v>130900</v>
@@ -35947,7 +35969,7 @@
         <v>176000</v>
       </c>
       <c r="K697" t="n">
-        <v>-36.36363636363637</v>
+        <v>-50</v>
       </c>
       <c r="L697" t="n">
         <v>130850</v>
@@ -35998,7 +36020,7 @@
         <v>176000</v>
       </c>
       <c r="K698" t="n">
-        <v>-30</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L698" t="n">
         <v>130790</v>
@@ -36049,7 +36071,7 @@
         <v>176200</v>
       </c>
       <c r="K699" t="n">
-        <v>-23.80952380952381</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L699" t="n">
         <v>130760</v>
@@ -36100,7 +36122,7 @@
         <v>176600</v>
       </c>
       <c r="K700" t="n">
-        <v>-8.333333333333332</v>
+        <v>12.5</v>
       </c>
       <c r="L700" t="n">
         <v>130780</v>
@@ -36151,7 +36173,7 @@
         <v>176800</v>
       </c>
       <c r="K701" t="n">
-        <v>-12</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L701" t="n">
         <v>130780</v>
@@ -36202,7 +36224,7 @@
         <v>176800</v>
       </c>
       <c r="K702" t="n">
-        <v>-4.347826086956522</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L702" t="n">
         <v>130820</v>
@@ -36253,7 +36275,7 @@
         <v>177000</v>
       </c>
       <c r="K703" t="n">
-        <v>0</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L703" t="n">
         <v>130860</v>
@@ -36304,7 +36326,7 @@
         <v>177000</v>
       </c>
       <c r="K704" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L704" t="n">
         <v>130910</v>
@@ -36355,7 +36377,7 @@
         <v>177100</v>
       </c>
       <c r="K705" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="L705" t="n">
         <v>130960</v>
@@ -36406,7 +36428,7 @@
         <v>177700</v>
       </c>
       <c r="K706" t="n">
-        <v>-13.33333333333333</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L706" t="n">
         <v>130960</v>
@@ -36457,7 +36479,7 @@
         <v>178100</v>
       </c>
       <c r="K707" t="n">
-        <v>-23.52941176470588</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L707" t="n">
         <v>130930</v>
@@ -36508,7 +36530,7 @@
         <v>178100</v>
       </c>
       <c r="K708" t="n">
-        <v>-27.27272727272727</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L708" t="n">
         <v>130900</v>
@@ -36559,7 +36581,7 @@
         <v>178300</v>
       </c>
       <c r="K709" t="n">
-        <v>-29.41176470588236</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L709" t="n">
         <v>130830</v>
@@ -36610,7 +36632,7 @@
         <v>178500</v>
       </c>
       <c r="K710" t="n">
-        <v>-20</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L710" t="n">
         <v>130740</v>
@@ -36661,7 +36683,7 @@
         <v>178700</v>
       </c>
       <c r="K711" t="n">
-        <v>-24.32432432432433</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L711" t="n">
         <v>130650</v>
@@ -36712,7 +36734,7 @@
         <v>178700</v>
       </c>
       <c r="K712" t="n">
-        <v>-15.15151515151515</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L712" t="n">
         <v>130560</v>
@@ -36763,7 +36785,7 @@
         <v>178800</v>
       </c>
       <c r="K713" t="n">
-        <v>-25</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L713" t="n">
         <v>130440</v>
@@ -36814,7 +36836,7 @@
         <v>178900</v>
       </c>
       <c r="K714" t="n">
-        <v>-18.75</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L714" t="n">
         <v>130330</v>
@@ -36865,7 +36887,7 @@
         <v>179200</v>
       </c>
       <c r="K715" t="n">
-        <v>-29.41176470588236</v>
+        <v>-60</v>
       </c>
       <c r="L715" t="n">
         <v>130180</v>
@@ -36916,7 +36938,7 @@
         <v>179200</v>
       </c>
       <c r="K716" t="n">
-        <v>-27.27272727272727</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L716" t="n">
         <v>130090</v>
@@ -36967,7 +36989,7 @@
         <v>179500</v>
       </c>
       <c r="K717" t="n">
-        <v>-31.42857142857143</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L717" t="n">
         <v>130010</v>
@@ -37018,7 +37040,7 @@
         <v>179600</v>
       </c>
       <c r="K718" t="n">
-        <v>-33.33333333333333</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L718" t="n">
         <v>129920</v>
@@ -37069,7 +37091,7 @@
         <v>179700</v>
       </c>
       <c r="K719" t="n">
-        <v>-37.14285714285715</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L719" t="n">
         <v>129860</v>
@@ -37120,7 +37142,7 @@
         <v>180100</v>
       </c>
       <c r="K720" t="n">
-        <v>-60</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L720" t="n">
         <v>129740</v>
@@ -37171,7 +37193,7 @@
         <v>180200</v>
       </c>
       <c r="K721" t="n">
-        <v>-58.82352941176471</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L721" t="n">
         <v>129630</v>
@@ -37222,7 +37244,7 @@
         <v>181000</v>
       </c>
       <c r="K722" t="n">
-        <v>-28.57142857142857</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L722" t="n">
         <v>129600</v>
@@ -37273,7 +37295,7 @@
         <v>181400</v>
       </c>
       <c r="K723" t="n">
-        <v>-40.90909090909091</v>
+        <v>-28</v>
       </c>
       <c r="L723" t="n">
         <v>129540</v>
@@ -37324,7 +37346,7 @@
         <v>181900</v>
       </c>
       <c r="K724" t="n">
-        <v>-46.93877551020408</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L724" t="n">
         <v>129420</v>
@@ -37375,7 +37397,7 @@
         <v>182300</v>
       </c>
       <c r="K725" t="n">
-        <v>-53.84615384615385</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L725" t="n">
         <v>129290</v>
@@ -37426,7 +37448,7 @@
         <v>182300</v>
       </c>
       <c r="K726" t="n">
-        <v>-47.82608695652174</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L726" t="n">
         <v>129160</v>
@@ -37477,7 +37499,7 @@
         <v>182400</v>
       </c>
       <c r="K727" t="n">
-        <v>-39.53488372093023</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L727" t="n">
         <v>129070</v>
@@ -37528,7 +37550,7 @@
         <v>182800</v>
       </c>
       <c r="K728" t="n">
-        <v>-44.68085106382978</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L728" t="n">
         <v>128950</v>
@@ -37579,7 +37601,7 @@
         <v>184500</v>
       </c>
       <c r="K729" t="n">
-        <v>-58.06451612903226</v>
+        <v>-59.09090909090909</v>
       </c>
       <c r="L729" t="n">
         <v>128650</v>
@@ -37630,7 +37652,7 @@
         <v>185200</v>
       </c>
       <c r="K730" t="n">
-        <v>-46.26865671641791</v>
+        <v>-36</v>
       </c>
       <c r="L730" t="n">
         <v>128460</v>
@@ -37681,7 +37703,7 @@
         <v>185900</v>
       </c>
       <c r="K731" t="n">
-        <v>-30.55555555555556</v>
+        <v>-38.77551020408163</v>
       </c>
       <c r="L731" t="n">
         <v>128350</v>
@@ -37732,7 +37754,7 @@
         <v>186800</v>
       </c>
       <c r="K732" t="n">
-        <v>-38.2716049382716</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L732" t="n">
         <v>128070</v>
@@ -37783,7 +37805,7 @@
         <v>187000</v>
       </c>
       <c r="K733" t="n">
-        <v>-34.14634146341464</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L733" t="n">
         <v>127850</v>
@@ -37834,7 +37856,7 @@
         <v>187600</v>
       </c>
       <c r="K734" t="n">
-        <v>-26.4367816091954</v>
+        <v>-13.20754716981132</v>
       </c>
       <c r="L734" t="n">
         <v>127740</v>
@@ -37885,7 +37907,7 @@
         <v>187700</v>
       </c>
       <c r="K735" t="n">
-        <v>-24.70588235294118</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="L735" t="n">
         <v>127660</v>
@@ -37936,7 +37958,7 @@
         <v>188000</v>
       </c>
       <c r="K736" t="n">
-        <v>-27.27272727272727</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L736" t="n">
         <v>127550</v>
@@ -37987,7 +38009,7 @@
         <v>188000</v>
       </c>
       <c r="K737" t="n">
-        <v>-24.70588235294118</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L737" t="n">
         <v>127430</v>
@@ -38038,7 +38060,7 @@
         <v>188000</v>
       </c>
       <c r="K738" t="n">
-        <v>-23.80952380952381</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L738" t="n">
         <v>127350</v>
@@ -38089,7 +38111,7 @@
         <v>188500</v>
       </c>
       <c r="K739" t="n">
-        <v>-18.18181818181818</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L739" t="n">
         <v>127490</v>
@@ -38140,7 +38162,7 @@
         <v>188800</v>
       </c>
       <c r="K740" t="n">
-        <v>-17.24137931034483</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L740" t="n">
         <v>127530</v>
@@ -38191,7 +38213,7 @@
         <v>188900</v>
       </c>
       <c r="K741" t="n">
-        <v>-17.24137931034483</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L741" t="n">
         <v>127490</v>
@@ -38242,7 +38264,7 @@
         <v>188900</v>
       </c>
       <c r="K742" t="n">
-        <v>-29.11392405063291</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L742" t="n">
         <v>127540</v>
@@ -38293,7 +38315,7 @@
         <v>189300</v>
       </c>
       <c r="K743" t="n">
-        <v>-18.9873417721519</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L743" t="n">
         <v>127610</v>
@@ -38344,7 +38366,7 @@
         <v>189500</v>
       </c>
       <c r="K744" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L744" t="n">
         <v>127600</v>
@@ -38395,7 +38417,7 @@
         <v>189800</v>
       </c>
       <c r="K745" t="n">
-        <v>-14.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="L745" t="n">
         <v>127570</v>
@@ -38446,7 +38468,7 @@
         <v>189900</v>
       </c>
       <c r="K746" t="n">
-        <v>-15.78947368421053</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L746" t="n">
         <v>127560</v>
@@ -38497,7 +38519,7 @@
         <v>190000</v>
       </c>
       <c r="K747" t="n">
-        <v>-18.42105263157895</v>
+        <v>-10</v>
       </c>
       <c r="L747" t="n">
         <v>127540</v>
@@ -38548,7 +38570,7 @@
         <v>190400</v>
       </c>
       <c r="K748" t="n">
-        <v>-18.42105263157895</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L748" t="n">
         <v>127480</v>
@@ -38599,7 +38621,7 @@
         <v>190800</v>
       </c>
       <c r="K749" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L749" t="n">
         <v>127410</v>
@@ -38650,7 +38672,7 @@
         <v>190800</v>
       </c>
       <c r="K750" t="n">
-        <v>0</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L750" t="n">
         <v>127370</v>
@@ -38701,7 +38723,7 @@
         <v>191100</v>
       </c>
       <c r="K751" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L751" t="n">
         <v>127370</v>
@@ -38752,7 +38774,7 @@
         <v>191400</v>
       </c>
       <c r="K752" t="n">
-        <v>4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L752" t="n">
         <v>127340</v>
@@ -38803,7 +38825,7 @@
         <v>191800</v>
       </c>
       <c r="K753" t="n">
-        <v>8.333333333333332</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L753" t="n">
         <v>127310</v>
@@ -38854,7 +38876,7 @@
         <v>192300</v>
       </c>
       <c r="K754" t="n">
-        <v>6.382978723404255</v>
+        <v>28</v>
       </c>
       <c r="L754" t="n">
         <v>127350</v>
@@ -38905,7 +38927,7 @@
         <v>192300</v>
       </c>
       <c r="K755" t="n">
-        <v>8.695652173913043</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L755" t="n">
         <v>127420</v>
@@ -38956,7 +38978,7 @@
         <v>192300</v>
       </c>
       <c r="K756" t="n">
-        <v>16.27906976744186</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L756" t="n">
         <v>127500</v>
@@ -39007,7 +39029,7 @@
         <v>192600</v>
       </c>
       <c r="K757" t="n">
-        <v>8.695652173913043</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L757" t="n">
         <v>127560</v>
@@ -39058,7 +39080,7 @@
         <v>192700</v>
       </c>
       <c r="K758" t="n">
-        <v>6.382978723404255</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L758" t="n">
         <v>127650</v>
@@ -39109,7 +39131,7 @@
         <v>192800</v>
       </c>
       <c r="K759" t="n">
-        <v>-6.976744186046512</v>
+        <v>20</v>
       </c>
       <c r="L759" t="n">
         <v>127690</v>
@@ -39160,7 +39182,7 @@
         <v>192900</v>
       </c>
       <c r="K760" t="n">
-        <v>-2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L760" t="n">
         <v>127720</v>
@@ -39211,7 +39233,7 @@
         <v>192900</v>
       </c>
       <c r="K761" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L761" t="n">
         <v>127720</v>
@@ -39262,7 +39284,7 @@
         <v>193300</v>
       </c>
       <c r="K762" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L762" t="n">
         <v>127790</v>
@@ -39313,7 +39335,7 @@
         <v>193700</v>
       </c>
       <c r="K763" t="n">
-        <v>-9.090909090909092</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L763" t="n">
         <v>127780</v>
@@ -39364,7 +39386,7 @@
         <v>193800</v>
       </c>
       <c r="K764" t="n">
-        <v>-6.976744186046512</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L764" t="n">
         <v>127710</v>
@@ -39415,7 +39437,7 @@
         <v>193800</v>
       </c>
       <c r="K765" t="n">
-        <v>0</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L765" t="n">
         <v>127640</v>
@@ -39466,7 +39488,7 @@
         <v>193800</v>
       </c>
       <c r="K766" t="n">
-        <v>2.564102564102564</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L766" t="n">
         <v>127570</v>
@@ -39517,7 +39539,7 @@
         <v>193800</v>
       </c>
       <c r="K767" t="n">
-        <v>5.263157894736842</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L767" t="n">
         <v>127530</v>
@@ -39568,7 +39590,7 @@
         <v>193800</v>
       </c>
       <c r="K768" t="n">
-        <v>17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L768" t="n">
         <v>127500</v>
@@ -39619,7 +39641,7 @@
         <v>193800</v>
       </c>
       <c r="K769" t="n">
-        <v>6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L769" t="n">
         <v>127480</v>
@@ -39670,7 +39692,7 @@
         <v>193800</v>
       </c>
       <c r="K770" t="n">
-        <v>6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L770" t="n">
         <v>127470</v>
@@ -39721,7 +39743,7 @@
         <v>194100</v>
       </c>
       <c r="K771" t="n">
-        <v>-13.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L771" t="n">
         <v>127430</v>
@@ -39772,7 +39794,7 @@
         <v>194900</v>
       </c>
       <c r="K772" t="n">
-        <v>-25.71428571428571</v>
+        <v>-100</v>
       </c>
       <c r="L772" t="n">
         <v>127270</v>
@@ -39823,7 +39845,7 @@
         <v>195500</v>
       </c>
       <c r="K773" t="n">
-        <v>-18.91891891891892</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L773" t="n">
         <v>127210</v>
@@ -39874,7 +39896,7 @@
         <v>195600</v>
       </c>
       <c r="K774" t="n">
-        <v>-39.39393939393939</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L774" t="n">
         <v>127150</v>
@@ -39925,7 +39947,7 @@
         <v>195600</v>
       </c>
       <c r="K775" t="n">
-        <v>-39.39393939393939</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L775" t="n">
         <v>127090</v>
@@ -39976,7 +39998,7 @@
         <v>196900</v>
       </c>
       <c r="K776" t="n">
-        <v>-56.52173913043478</v>
+        <v>-61.29032258064516</v>
       </c>
       <c r="L776" t="n">
         <v>126900</v>
@@ -40027,7 +40049,7 @@
         <v>197300</v>
       </c>
       <c r="K777" t="n">
-        <v>-57.44680851063831</v>
+        <v>-65.71428571428571</v>
       </c>
       <c r="L777" t="n">
         <v>126670</v>
@@ -40078,7 +40100,7 @@
         <v>198100</v>
       </c>
       <c r="K778" t="n">
-        <v>-33.33333333333333</v>
+        <v>-34.88372093023256</v>
       </c>
       <c r="L778" t="n">
         <v>126520</v>
@@ -40129,7 +40151,7 @@
         <v>198100</v>
       </c>
       <c r="K779" t="n">
-        <v>-32.0754716981132</v>
+        <v>-34.88372093023256</v>
       </c>
       <c r="L779" t="n">
         <v>126370</v>
@@ -40180,7 +40202,7 @@
         <v>198100</v>
       </c>
       <c r="K780" t="n">
-        <v>-30.76923076923077</v>
+        <v>-30</v>
       </c>
       <c r="L780" t="n">
         <v>126220</v>
@@ -40231,7 +40253,7 @@
         <v>199800</v>
       </c>
       <c r="K781" t="n">
-        <v>-47.82608695652174</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L781" t="n">
         <v>125930</v>
@@ -40282,7 +40304,7 @@
         <v>200900</v>
       </c>
       <c r="K782" t="n">
-        <v>-34.21052631578947</v>
+        <v>-29.62962962962963</v>
       </c>
       <c r="L782" t="n">
         <v>125830</v>
@@ -40333,7 +40355,7 @@
         <v>201100</v>
       </c>
       <c r="K783" t="n">
-        <v>-32.43243243243244</v>
+        <v>-30.90909090909091</v>
       </c>
       <c r="L783" t="n">
         <v>125650</v>
@@ -40384,7 +40406,7 @@
         <v>201900</v>
       </c>
       <c r="K784" t="n">
-        <v>-18.51851851851852</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L784" t="n">
         <v>125560</v>
@@ -40435,7 +40457,7 @@
         <v>201900</v>
       </c>
       <c r="K785" t="n">
-        <v>-18.51851851851852</v>
+        <v>8</v>
       </c>
       <c r="L785" t="n">
         <v>125470</v>
@@ -40486,7 +40508,7 @@
         <v>202300</v>
       </c>
       <c r="K786" t="n">
-        <v>-12.94117647058824</v>
+        <v>24</v>
       </c>
       <c r="L786" t="n">
         <v>125550</v>
@@ -40537,7 +40559,7 @@
         <v>202300</v>
       </c>
       <c r="K787" t="n">
-        <v>-12.94117647058824</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L787" t="n">
         <v>125670</v>
@@ -40588,7 +40610,7 @@
         <v>202500</v>
       </c>
       <c r="K788" t="n">
-        <v>-14.94252873563219</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L788" t="n">
         <v>125690</v>
@@ -40639,7 +40661,7 @@
         <v>202800</v>
       </c>
       <c r="K789" t="n">
-        <v>-11.11111111111111</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="L789" t="n">
         <v>125740</v>
@@ -40690,7 +40712,7 @@
         <v>203200</v>
       </c>
       <c r="K790" t="n">
-        <v>-6.382978723404255</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L790" t="n">
         <v>125830</v>
@@ -40741,7 +40763,7 @@
         <v>203500</v>
       </c>
       <c r="K791" t="n">
-        <v>0</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L791" t="n">
         <v>126120</v>
@@ -40792,7 +40814,7 @@
         <v>203800</v>
       </c>
       <c r="K792" t="n">
-        <v>12.35955056179775</v>
+        <v>85.18518518518519</v>
       </c>
       <c r="L792" t="n">
         <v>126330</v>
@@ -40843,7 +40865,7 @@
         <v>203900</v>
       </c>
       <c r="K793" t="n">
-        <v>4.761904761904762</v>
+        <v>70</v>
       </c>
       <c r="L793" t="n">
         <v>126550</v>
@@ -40894,7 +40916,7 @@
         <v>204100</v>
       </c>
       <c r="K794" t="n">
-        <v>3.529411764705882</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L794" t="n">
         <v>126670</v>
@@ -40945,7 +40967,7 @@
         <v>204200</v>
       </c>
       <c r="K795" t="n">
-        <v>4.651162790697675</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L795" t="n">
         <v>126800</v>
@@ -40996,7 +41018,7 @@
         <v>204200</v>
       </c>
       <c r="K796" t="n">
-        <v>23.28767123287671</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L796" t="n">
         <v>126890</v>
@@ -41047,7 +41069,7 @@
         <v>204500</v>
       </c>
       <c r="K797" t="n">
-        <v>33.33333333333333</v>
+        <v>70</v>
       </c>
       <c r="L797" t="n">
         <v>127010</v>
@@ -41098,7 +41120,7 @@
         <v>204800</v>
       </c>
       <c r="K798" t="n">
-        <v>28.35820895522388</v>
+        <v>70</v>
       </c>
       <c r="L798" t="n">
         <v>127180</v>
@@ -41149,7 +41171,7 @@
         <v>204800</v>
       </c>
       <c r="K799" t="n">
-        <v>28.35820895522388</v>
+        <v>62.5</v>
       </c>
       <c r="L799" t="n">
         <v>127320</v>
@@ -41200,7 +41222,7 @@
         <v>204800</v>
       </c>
       <c r="K800" t="n">
-        <v>28.35820895522388</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L800" t="n">
         <v>127420</v>
@@ -41251,7 +41273,7 @@
         <v>205000</v>
       </c>
       <c r="K801" t="n">
-        <v>65.38461538461539</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L801" t="n">
         <v>127470</v>
@@ -41302,7 +41324,7 @@
         <v>205100</v>
       </c>
       <c r="K802" t="n">
-        <v>52.38095238095239</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L802" t="n">
         <v>127480</v>
@@ -41353,7 +41375,7 @@
         <v>205400</v>
       </c>
       <c r="K803" t="n">
-        <v>62.7906976744186</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L803" t="n">
         <v>127530</v>
@@ -41404,7 +41426,7 @@
         <v>205700</v>
       </c>
       <c r="K804" t="n">
-        <v>42.10526315789473</v>
+        <v>20</v>
       </c>
       <c r="L804" t="n">
         <v>127570</v>
@@ -41455,7 +41477,7 @@
         <v>206000</v>
       </c>
       <c r="K805" t="n">
-        <v>46.34146341463415</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L805" t="n">
         <v>127630</v>
@@ -41506,7 +41528,7 @@
         <v>206100</v>
       </c>
       <c r="K806" t="n">
-        <v>36.84210526315789</v>
+        <v>12.5</v>
       </c>
       <c r="L806" t="n">
         <v>127680</v>
@@ -41557,7 +41579,7 @@
         <v>206300</v>
       </c>
       <c r="K807" t="n">
-        <v>30</v>
+        <v>-20</v>
       </c>
       <c r="L807" t="n">
         <v>127680</v>
@@ -41608,7 +41630,7 @@
         <v>206600</v>
       </c>
       <c r="K808" t="n">
-        <v>41.46341463414634</v>
+        <v>0</v>
       </c>
       <c r="L808" t="n">
         <v>127680</v>
@@ -41659,7 +41681,7 @@
         <v>206900</v>
       </c>
       <c r="K809" t="n">
-        <v>26.82926829268293</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L809" t="n">
         <v>127650</v>
@@ -41710,7 +41732,7 @@
         <v>206900</v>
       </c>
       <c r="K810" t="n">
-        <v>18.91891891891892</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L810" t="n">
         <v>127620</v>
@@ -41761,7 +41783,7 @@
         <v>207300</v>
       </c>
       <c r="K811" t="n">
-        <v>21.05263157894737</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L811" t="n">
         <v>127650</v>
@@ -41812,7 +41834,7 @@
         <v>207400</v>
       </c>
       <c r="K812" t="n">
-        <v>16.66666666666666</v>
+        <v>10</v>
       </c>
       <c r="L812" t="n">
         <v>127700</v>
@@ -41863,7 +41885,7 @@
         <v>207500</v>
       </c>
       <c r="K813" t="n">
-        <v>16.66666666666666</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L813" t="n">
         <v>127710</v>
@@ -41914,7 +41936,7 @@
         <v>207600</v>
       </c>
       <c r="K814" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L814" t="n">
         <v>127740</v>
@@ -41965,7 +41987,7 @@
         <v>207800</v>
       </c>
       <c r="K815" t="n">
-        <v>11.11111111111111</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L815" t="n">
         <v>127720</v>
@@ -42016,7 +42038,7 @@
         <v>208100</v>
       </c>
       <c r="K816" t="n">
-        <v>17.94871794871795</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L816" t="n">
         <v>127740</v>
@@ -42067,7 +42089,7 @@
         <v>208100</v>
       </c>
       <c r="K817" t="n">
-        <v>11.11111111111111</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L817" t="n">
         <v>127780</v>
@@ -42118,7 +42140,7 @@
         <v>208400</v>
       </c>
       <c r="K818" t="n">
-        <v>-5.555555555555555</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L818" t="n">
         <v>127760</v>
@@ -42169,7 +42191,7 @@
         <v>208500</v>
       </c>
       <c r="K819" t="n">
-        <v>-2.702702702702703</v>
+        <v>12.5</v>
       </c>
       <c r="L819" t="n">
         <v>127780</v>
@@ -42220,7 +42242,7 @@
         <v>208800</v>
       </c>
       <c r="K820" t="n">
-        <v>5</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L820" t="n">
         <v>127830</v>
@@ -42271,7 +42293,7 @@
         <v>208800</v>
       </c>
       <c r="K821" t="n">
-        <v>10.52631578947368</v>
+        <v>0</v>
       </c>
       <c r="L821" t="n">
         <v>127840</v>
@@ -42322,7 +42344,7 @@
         <v>209400</v>
       </c>
       <c r="K822" t="n">
-        <v>25.58139534883721</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L822" t="n">
         <v>127900</v>
@@ -42373,7 +42395,7 @@
         <v>209500</v>
       </c>
       <c r="K823" t="n">
-        <v>21.95121951219512</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L823" t="n">
         <v>127980</v>
@@ -42424,7 +42446,7 @@
         <v>209600</v>
       </c>
       <c r="K824" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L824" t="n">
         <v>128080</v>
@@ -42475,7 +42497,7 @@
         <v>209700</v>
       </c>
       <c r="K825" t="n">
-        <v>24.32432432432433</v>
+        <v>50</v>
       </c>
       <c r="L825" t="n">
         <v>128190</v>
@@ -42526,7 +42548,7 @@
         <v>209800</v>
       </c>
       <c r="K826" t="n">
-        <v>29.72972972972973</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L826" t="n">
         <v>128280</v>
@@ -42577,7 +42599,7 @@
         <v>210000</v>
       </c>
       <c r="K827" t="n">
-        <v>40.54054054054054</v>
+        <v>87.5</v>
       </c>
       <c r="L827" t="n">
         <v>128390</v>
@@ -42628,7 +42650,7 @@
         <v>210500</v>
       </c>
       <c r="K828" t="n">
-        <v>17.94871794871795</v>
+        <v>40</v>
       </c>
       <c r="L828" t="n">
         <v>128480</v>
@@ -42679,7 +42701,7 @@
         <v>210700</v>
       </c>
       <c r="K829" t="n">
-        <v>21.05263157894737</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L829" t="n">
         <v>128540</v>
@@ -42730,7 +42752,7 @@
         <v>210800</v>
       </c>
       <c r="K830" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L830" t="n">
         <v>128580</v>
@@ -42781,7 +42803,7 @@
         <v>210900</v>
       </c>
       <c r="K831" t="n">
-        <v>16.66666666666666</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L831" t="n">
         <v>128630</v>
@@ -42832,7 +42854,7 @@
         <v>211100</v>
       </c>
       <c r="K832" t="n">
-        <v>18.91891891891892</v>
+        <v>0</v>
       </c>
       <c r="L832" t="n">
         <v>128640</v>
@@ -42883,7 +42905,7 @@
         <v>211200</v>
       </c>
       <c r="K833" t="n">
-        <v>24.32432432432433</v>
+        <v>0</v>
       </c>
       <c r="L833" t="n">
         <v>128650</v>
@@ -42934,7 +42956,7 @@
         <v>211400</v>
       </c>
       <c r="K834" t="n">
-        <v>21.05263157894737</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L834" t="n">
         <v>128630</v>
@@ -42985,7 +43007,7 @@
         <v>212000</v>
       </c>
       <c r="K835" t="n">
-        <v>38.09523809523809</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L835" t="n">
         <v>128680</v>
@@ -43036,7 +43058,7 @@
         <v>212500</v>
       </c>
       <c r="K836" t="n">
-        <v>18.18181818181818</v>
+        <v>-12</v>
       </c>
       <c r="L836" t="n">
         <v>128670</v>
@@ -43087,7 +43109,7 @@
         <v>212500</v>
       </c>
       <c r="K837" t="n">
-        <v>18.18181818181818</v>
+        <v>10</v>
       </c>
       <c r="L837" t="n">
         <v>128640</v>
@@ -43138,7 +43160,7 @@
         <v>212700</v>
       </c>
       <c r="K838" t="n">
-        <v>30.23255813953488</v>
+        <v>30</v>
       </c>
       <c r="L838" t="n">
         <v>128680</v>
@@ -43189,7 +43211,7 @@
         <v>212700</v>
       </c>
       <c r="K839" t="n">
-        <v>28.57142857142857</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L839" t="n">
         <v>128740</v>
@@ -43240,7 +43262,7 @@
         <v>212700</v>
       </c>
       <c r="K840" t="n">
-        <v>23.07692307692308</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L840" t="n">
         <v>128790</v>
@@ -43291,7 +43313,7 @@
         <v>212800</v>
       </c>
       <c r="K841" t="n">
-        <v>20</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L841" t="n">
         <v>128820</v>
@@ -43342,7 +43364,7 @@
         <v>212900</v>
       </c>
       <c r="K842" t="n">
-        <v>2.857142857142857</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L842" t="n">
         <v>128820</v>
@@ -43393,7 +43415,7 @@
         <v>212900</v>
       </c>
       <c r="K843" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L843" t="n">
         <v>128810</v>
@@ -43444,7 +43466,7 @@
         <v>213000</v>
       </c>
       <c r="K844" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L844" t="n">
         <v>128830</v>
@@ -43495,7 +43517,7 @@
         <v>213500</v>
       </c>
       <c r="K845" t="n">
-        <v>15.78947368421053</v>
+        <v>60</v>
       </c>
       <c r="L845" t="n">
         <v>128840</v>
@@ -43546,7 +43568,7 @@
         <v>213600</v>
       </c>
       <c r="K846" t="n">
-        <v>15.78947368421053</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L846" t="n">
         <v>128910</v>
@@ -43597,7 +43619,7 @@
         <v>213600</v>
       </c>
       <c r="K847" t="n">
-        <v>11.11111111111111</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L847" t="n">
         <v>128980</v>
@@ -43648,7 +43670,7 @@
         <v>213700</v>
       </c>
       <c r="K848" t="n">
-        <v>31.25</v>
+        <v>60</v>
       </c>
       <c r="L848" t="n">
         <v>129040</v>
@@ -43699,7 +43721,7 @@
         <v>213800</v>
       </c>
       <c r="K849" t="n">
-        <v>35.48387096774194</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L849" t="n">
         <v>129090</v>
@@ -43750,7 +43772,7 @@
         <v>213900</v>
       </c>
       <c r="K850" t="n">
-        <v>29.03225806451613</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L850" t="n">
         <v>129130</v>
@@ -43801,7 +43823,7 @@
         <v>213900</v>
       </c>
       <c r="K851" t="n">
-        <v>26.66666666666667</v>
+        <v>60</v>
       </c>
       <c r="L851" t="n">
         <v>129180</v>
@@ -43852,7 +43874,7 @@
         <v>214000</v>
       </c>
       <c r="K852" t="n">
-        <v>24.13793103448276</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L852" t="n">
         <v>129250</v>
@@ -43903,7 +43925,7 @@
         <v>214100</v>
       </c>
       <c r="K853" t="n">
-        <v>17.24137931034483</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L853" t="n">
         <v>129310</v>
@@ -43954,7 +43976,7 @@
         <v>214100</v>
       </c>
       <c r="K854" t="n">
-        <v>25.92592592592592</v>
+        <v>0</v>
       </c>
       <c r="L854" t="n">
         <v>129360</v>
@@ -44005,7 +44027,7 @@
         <v>214200</v>
       </c>
       <c r="K855" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L855" t="n">
         <v>129370</v>
@@ -44056,7 +44078,7 @@
         <v>214500</v>
       </c>
       <c r="K856" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L856" t="n">
         <v>129400</v>
@@ -44107,7 +44129,7 @@
         <v>214500</v>
       </c>
       <c r="K857" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L857" t="n">
         <v>129430</v>
@@ -44158,7 +44180,7 @@
         <v>214600</v>
       </c>
       <c r="K858" t="n">
-        <v>47.36842105263158</v>
+        <v>50</v>
       </c>
       <c r="L858" t="n">
         <v>129460</v>
@@ -44209,7 +44231,7 @@
         <v>214600</v>
       </c>
       <c r="K859" t="n">
-        <v>47.36842105263158</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L859" t="n">
         <v>129500</v>
@@ -44260,7 +44282,7 @@
         <v>214700</v>
       </c>
       <c r="K860" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L860" t="n">
         <v>129540</v>
@@ -44311,7 +44333,7 @@
         <v>214700</v>
       </c>
       <c r="K861" t="n">
-        <v>47.36842105263158</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L861" t="n">
         <v>129580</v>
@@ -44362,7 +44384,7 @@
         <v>214900</v>
       </c>
       <c r="K862" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L862" t="n">
         <v>129630</v>
@@ -44413,7 +44435,7 @@
         <v>215000</v>
       </c>
       <c r="K863" t="n">
-        <v>52.38095238095239</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L863" t="n">
         <v>129680</v>
@@ -44515,7 +44537,7 @@
         <v>215000</v>
       </c>
       <c r="K865" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L865" t="n">
         <v>129770</v>
@@ -44566,7 +44588,7 @@
         <v>215400</v>
       </c>
       <c r="K866" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L866" t="n">
         <v>129740</v>
@@ -44617,7 +44639,7 @@
         <v>215600</v>
       </c>
       <c r="K867" t="n">
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="L867" t="n">
         <v>129730</v>
@@ -44668,7 +44690,7 @@
         <v>215900</v>
       </c>
       <c r="K868" t="n">
-        <v>-9.090909090909092</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L868" t="n">
         <v>129680</v>
@@ -44719,7 +44741,7 @@
         <v>216200</v>
       </c>
       <c r="K869" t="n">
-        <v>8.333333333333332</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L869" t="n">
         <v>129660</v>
@@ -44770,7 +44792,7 @@
         <v>216500</v>
       </c>
       <c r="K870" t="n">
-        <v>0</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L870" t="n">
         <v>129620</v>
@@ -44821,7 +44843,7 @@
         <v>216800</v>
       </c>
       <c r="K871" t="n">
-        <v>-10.3448275862069</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L871" t="n">
         <v>129550</v>
@@ -44872,7 +44894,7 @@
         <v>217900</v>
       </c>
       <c r="K872" t="n">
-        <v>-38.46153846153847</v>
+        <v>-65.51724137931035</v>
       </c>
       <c r="L872" t="n">
         <v>129350</v>
@@ -44923,7 +44945,7 @@
         <v>218500</v>
       </c>
       <c r="K873" t="n">
-        <v>-18.18181818181818</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L873" t="n">
         <v>129220</v>
@@ -44974,7 +44996,7 @@
         <v>219000</v>
       </c>
       <c r="K874" t="n">
-        <v>-26.53061224489796</v>
+        <v>-45</v>
       </c>
       <c r="L874" t="n">
         <v>129040</v>
@@ -45025,7 +45047,7 @@
         <v>219700</v>
       </c>
       <c r="K875" t="n">
-        <v>-12.72727272727273</v>
+        <v>-16.27906976744186</v>
       </c>
       <c r="L875" t="n">
         <v>128930</v>
@@ -45076,7 +45098,7 @@
         <v>219900</v>
       </c>
       <c r="K876" t="n">
-        <v>-22.22222222222222</v>
+        <v>-25.58139534883721</v>
       </c>
       <c r="L876" t="n">
         <v>128840</v>
@@ -45127,7 +45149,7 @@
         <v>220000</v>
       </c>
       <c r="K877" t="n">
-        <v>-23.63636363636364</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L877" t="n">
         <v>128720</v>
@@ -45178,7 +45200,7 @@
         <v>220100</v>
       </c>
       <c r="K878" t="n">
-        <v>-23.63636363636364</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L878" t="n">
         <v>128640</v>
@@ -45229,7 +45251,7 @@
         <v>220100</v>
       </c>
       <c r="K879" t="n">
-        <v>-23.63636363636364</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L879" t="n">
         <v>128530</v>
@@ -45280,7 +45302,7 @@
         <v>220300</v>
       </c>
       <c r="K880" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L880" t="n">
         <v>128430</v>
@@ -45331,7 +45353,7 @@
         <v>220800</v>
       </c>
       <c r="K881" t="n">
-        <v>-31.14754098360656</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L881" t="n">
         <v>128310</v>
@@ -45382,7 +45404,7 @@
         <v>221000</v>
       </c>
       <c r="K882" t="n">
-        <v>-31.14754098360656</v>
+        <v>-20</v>
       </c>
       <c r="L882" t="n">
         <v>128320</v>
@@ -45433,7 +45455,7 @@
         <v>221100</v>
       </c>
       <c r="K883" t="n">
-        <v>-27.86885245901639</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L883" t="n">
         <v>128280</v>
@@ -45484,7 +45506,7 @@
         <v>221200</v>
       </c>
       <c r="K884" t="n">
-        <v>-29.03225806451613</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L884" t="n">
         <v>128280</v>
@@ -45535,7 +45557,7 @@
         <v>221200</v>
       </c>
       <c r="K885" t="n">
-        <v>-29.03225806451613</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L885" t="n">
         <v>128210</v>
@@ -45586,7 +45608,7 @@
         <v>221200</v>
       </c>
       <c r="K886" t="n">
-        <v>-24.13793103448276</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L886" t="n">
         <v>128160</v>
@@ -45637,7 +45659,7 @@
         <v>221900</v>
       </c>
       <c r="K887" t="n">
-        <v>-14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L887" t="n">
         <v>128190</v>
@@ -45688,7 +45710,7 @@
         <v>222300</v>
       </c>
       <c r="K888" t="n">
-        <v>-15.625</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L888" t="n">
         <v>128170</v>
@@ -45739,7 +45761,7 @@
         <v>222300</v>
       </c>
       <c r="K889" t="n">
-        <v>-21.31147540983606</v>
+        <v>0</v>
       </c>
       <c r="L889" t="n">
         <v>128150</v>
@@ -45790,7 +45812,7 @@
         <v>222500</v>
       </c>
       <c r="K890" t="n">
-        <v>-20</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L890" t="n">
         <v>128130</v>
@@ -45841,7 +45863,7 @@
         <v>222700</v>
       </c>
       <c r="K891" t="n">
-        <v>-11.86440677966102</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L891" t="n">
         <v>128180</v>
@@ -45892,7 +45914,7 @@
         <v>222900</v>
       </c>
       <c r="K892" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L892" t="n">
         <v>128190</v>
@@ -45943,7 +45965,7 @@
         <v>223100</v>
       </c>
       <c r="K893" t="n">
-        <v>-4.347826086956522</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L893" t="n">
         <v>128210</v>
@@ -45994,7 +46016,7 @@
         <v>223300</v>
       </c>
       <c r="K894" t="n">
-        <v>2.325581395348837</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L894" t="n">
         <v>128220</v>
@@ -46045,7 +46067,7 @@
         <v>223400</v>
       </c>
       <c r="K895" t="n">
-        <v>-13.51351351351351</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L895" t="n">
         <v>128240</v>
@@ -46096,7 +46118,7 @@
         <v>223400</v>
       </c>
       <c r="K896" t="n">
-        <v>-8.571428571428571</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L896" t="n">
         <v>128260</v>
@@ -46147,7 +46169,7 @@
         <v>223400</v>
       </c>
       <c r="K897" t="n">
-        <v>-5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L897" t="n">
         <v>128210</v>
@@ -46198,7 +46220,7 @@
         <v>223500</v>
       </c>
       <c r="K898" t="n">
-        <v>-11.76470588235294</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L898" t="n">
         <v>128190</v>
@@ -46249,7 +46271,7 @@
         <v>223600</v>
       </c>
       <c r="K899" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L899" t="n">
         <v>128160</v>
@@ -46300,7 +46322,7 @@
         <v>223600</v>
       </c>
       <c r="K900" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L900" t="n">
         <v>128150</v>
@@ -46351,7 +46373,7 @@
         <v>224000</v>
       </c>
       <c r="K901" t="n">
-        <v>-6.25</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L901" t="n">
         <v>128080</v>
@@ -46402,7 +46424,7 @@
         <v>224400</v>
       </c>
       <c r="K902" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L902" t="n">
         <v>128070</v>
@@ -46453,7 +46475,7 @@
         <v>224500</v>
       </c>
       <c r="K903" t="n">
-        <v>-5.88235294117647</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L903" t="n">
         <v>128030</v>
@@ -46504,7 +46526,7 @@
         <v>224700</v>
       </c>
       <c r="K904" t="n">
-        <v>-8.571428571428571</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L904" t="n">
         <v>127990</v>
@@ -46555,7 +46577,7 @@
         <v>224900</v>
       </c>
       <c r="K905" t="n">
-        <v>-2.702702702702703</v>
+        <v>-20</v>
       </c>
       <c r="L905" t="n">
         <v>127960</v>
@@ -46606,7 +46628,7 @@
         <v>224900</v>
       </c>
       <c r="K906" t="n">
-        <v>-2.702702702702703</v>
+        <v>-20</v>
       </c>
       <c r="L906" t="n">
         <v>127930</v>
@@ -46657,7 +46679,7 @@
         <v>224900</v>
       </c>
       <c r="K907" t="n">
-        <v>-26.66666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L907" t="n">
         <v>127900</v>
@@ -46708,7 +46730,7 @@
         <v>224900</v>
       </c>
       <c r="K908" t="n">
-        <v>-15.38461538461539</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L908" t="n">
         <v>127880</v>
@@ -46759,7 +46781,7 @@
         <v>225000</v>
       </c>
       <c r="K909" t="n">
-        <v>-18.51851851851852</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L909" t="n">
         <v>127860</v>
@@ -46810,7 +46832,7 @@
         <v>225000</v>
       </c>
       <c r="K910" t="n">
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="L910" t="n">
         <v>127840</v>
@@ -46861,7 +46883,7 @@
         <v>225100</v>
       </c>
       <c r="K911" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L911" t="n">
         <v>127850</v>
@@ -46912,7 +46934,7 @@
         <v>225400</v>
       </c>
       <c r="K912" t="n">
-        <v>-28</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L912" t="n">
         <v>127790</v>
@@ -46963,7 +46985,7 @@
         <v>225800</v>
       </c>
       <c r="K913" t="n">
-        <v>-48.14814814814815</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L913" t="n">
         <v>127700</v>
@@ -47014,7 +47036,7 @@
         <v>226400</v>
       </c>
       <c r="K914" t="n">
-        <v>-16.12903225806452</v>
+        <v>-20</v>
       </c>
       <c r="L914" t="n">
         <v>127690</v>
@@ -47116,7 +47138,7 @@
         <v>226800</v>
       </c>
       <c r="K916" t="n">
-        <v>-29.41176470588236</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L916" t="n">
         <v>127590</v>
@@ -47167,7 +47189,7 @@
         <v>227000</v>
       </c>
       <c r="K917" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L917" t="n">
         <v>127500</v>
@@ -47218,7 +47240,7 @@
         <v>227200</v>
       </c>
       <c r="K918" t="n">
-        <v>-35.13513513513514</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L918" t="n">
         <v>127390</v>
@@ -47269,7 +47291,7 @@
         <v>227400</v>
       </c>
       <c r="K919" t="n">
-        <v>-36.84210526315789</v>
+        <v>-50</v>
       </c>
       <c r="L919" t="n">
         <v>127270</v>
@@ -47320,7 +47342,7 @@
         <v>227600</v>
       </c>
       <c r="K920" t="n">
-        <v>-40</v>
+        <v>-52</v>
       </c>
       <c r="L920" t="n">
         <v>127130</v>
@@ -47371,7 +47393,7 @@
         <v>227900</v>
       </c>
       <c r="K921" t="n">
-        <v>-23.07692307692308</v>
+        <v>-28</v>
       </c>
       <c r="L921" t="n">
         <v>127030</v>
@@ -47422,7 +47444,7 @@
         <v>228600</v>
       </c>
       <c r="K922" t="n">
-        <v>-47.61904761904761</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L922" t="n">
         <v>126890</v>
@@ -47473,7 +47495,7 @@
         <v>228600</v>
       </c>
       <c r="K923" t="n">
-        <v>-46.34146341463415</v>
+        <v>-72.72727272727273</v>
       </c>
       <c r="L923" t="n">
         <v>126790</v>
@@ -47524,7 +47546,7 @@
         <v>228800</v>
       </c>
       <c r="K924" t="n">
-        <v>-36.58536585365854</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L924" t="n">
         <v>126650</v>
@@ -47575,7 +47597,7 @@
         <v>228800</v>
       </c>
       <c r="K925" t="n">
-        <v>-43.58974358974359</v>
+        <v>-50</v>
       </c>
       <c r="L925" t="n">
         <v>126510</v>
@@ -47626,7 +47648,7 @@
         <v>228800</v>
       </c>
       <c r="K926" t="n">
-        <v>-43.58974358974359</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L926" t="n">
         <v>126410</v>
@@ -47677,7 +47699,7 @@
         <v>228800</v>
       </c>
       <c r="K927" t="n">
-        <v>-43.58974358974359</v>
+        <v>-37.5</v>
       </c>
       <c r="L927" t="n">
         <v>126330</v>
@@ -47728,7 +47750,7 @@
         <v>228800</v>
       </c>
       <c r="K928" t="n">
-        <v>-43.58974358974359</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L928" t="n">
         <v>126270</v>
@@ -47779,7 +47801,7 @@
         <v>228900</v>
       </c>
       <c r="K929" t="n">
-        <v>-38.46153846153847</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L929" t="n">
         <v>126240</v>
@@ -47830,7 +47852,7 @@
         <v>229000</v>
       </c>
       <c r="K930" t="n">
-        <v>-35</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L930" t="n">
         <v>126240</v>
@@ -47881,7 +47903,7 @@
         <v>229400</v>
       </c>
       <c r="K931" t="n">
-        <v>-39.53488372093023</v>
+        <v>0</v>
       </c>
       <c r="L931" t="n">
         <v>126170</v>
@@ -47932,7 +47954,7 @@
         <v>229500</v>
       </c>
       <c r="K932" t="n">
-        <v>-36.58536585365854</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L932" t="n">
         <v>126160</v>
@@ -47983,7 +48005,7 @@
         <v>230000</v>
       </c>
       <c r="K933" t="n">
-        <v>-14.28571428571428</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L933" t="n">
         <v>126200</v>
@@ -48034,7 +48056,7 @@
         <v>230000</v>
       </c>
       <c r="K934" t="n">
-        <v>-33.33333333333333</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L934" t="n">
         <v>126220</v>
@@ -48085,7 +48107,7 @@
         <v>230000</v>
       </c>
       <c r="K935" t="n">
-        <v>-33.33333333333333</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L935" t="n">
         <v>126240</v>
@@ -48136,7 +48158,7 @@
         <v>230500</v>
       </c>
       <c r="K936" t="n">
-        <v>-35.13513513513514</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L936" t="n">
         <v>126210</v>
@@ -48187,7 +48209,7 @@
         <v>230900</v>
       </c>
       <c r="K937" t="n">
-        <v>-17.94871794871795</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L937" t="n">
         <v>126220</v>
@@ -48238,7 +48260,7 @@
         <v>231300</v>
       </c>
       <c r="K938" t="n">
-        <v>-21.95121951219512</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L938" t="n">
         <v>126190</v>
@@ -48289,7 +48311,7 @@
         <v>231600</v>
       </c>
       <c r="K939" t="n">
-        <v>-9.523809523809524</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L939" t="n">
         <v>126180</v>
@@ -48340,7 +48362,7 @@
         <v>231700</v>
       </c>
       <c r="K940" t="n">
-        <v>-7.317073170731707</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L940" t="n">
         <v>126150</v>
@@ -48391,7 +48413,7 @@
         <v>231700</v>
       </c>
       <c r="K941" t="n">
-        <v>-15.78947368421053</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L941" t="n">
         <v>126160</v>
@@ -48442,7 +48464,7 @@
         <v>232000</v>
       </c>
       <c r="K942" t="n">
-        <v>11.76470588235294</v>
+        <v>0</v>
       </c>
       <c r="L942" t="n">
         <v>126210</v>
@@ -48493,7 +48515,7 @@
         <v>232100</v>
       </c>
       <c r="K943" t="n">
-        <v>14.28571428571428</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L943" t="n">
         <v>126220</v>
@@ -48544,7 +48566,7 @@
         <v>232300</v>
       </c>
       <c r="K944" t="n">
-        <v>14.28571428571428</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L944" t="n">
         <v>126250</v>
@@ -48595,7 +48617,7 @@
         <v>232400</v>
       </c>
       <c r="K945" t="n">
-        <v>16.66666666666666</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L945" t="n">
         <v>126290</v>
@@ -48646,7 +48668,7 @@
         <v>232400</v>
       </c>
       <c r="K946" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L946" t="n">
         <v>126380</v>
@@ -48697,7 +48719,7 @@
         <v>232400</v>
       </c>
       <c r="K947" t="n">
-        <v>16.66666666666666</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L947" t="n">
         <v>126430</v>
@@ -48748,7 +48770,7 @@
         <v>232400</v>
       </c>
       <c r="K948" t="n">
-        <v>16.66666666666666</v>
+        <v>75</v>
       </c>
       <c r="L948" t="n">
         <v>126520</v>
@@ -48799,7 +48821,7 @@
         <v>232400</v>
       </c>
       <c r="K949" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L949" t="n">
         <v>126580</v>
@@ -48850,7 +48872,7 @@
         <v>232600</v>
       </c>
       <c r="K950" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L950" t="n">
         <v>126670</v>
@@ -48901,7 +48923,7 @@
         <v>232600</v>
       </c>
       <c r="K951" t="n">
-        <v>31.25</v>
+        <v>100</v>
       </c>
       <c r="L951" t="n">
         <v>126760</v>
@@ -48952,7 +48974,7 @@
         <v>232700</v>
       </c>
       <c r="K952" t="n">
-        <v>31.25</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L952" t="n">
         <v>126810</v>
@@ -49003,7 +49025,7 @@
         <v>232700</v>
       </c>
       <c r="K953" t="n">
-        <v>18.51851851851852</v>
+        <v>50</v>
       </c>
       <c r="L953" t="n">
         <v>126850</v>
@@ -49054,7 +49076,7 @@
         <v>232800</v>
       </c>
       <c r="K954" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L954" t="n">
         <v>126860</v>
@@ -49105,7 +49127,7 @@
         <v>232900</v>
       </c>
       <c r="K955" t="n">
-        <v>17.24137931034483</v>
+        <v>20</v>
       </c>
       <c r="L955" t="n">
         <v>126870</v>
@@ -49156,7 +49178,7 @@
         <v>232900</v>
       </c>
       <c r="K956" t="n">
-        <v>41.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="L956" t="n">
         <v>126880</v>
@@ -49207,7 +49229,7 @@
         <v>232900</v>
       </c>
       <c r="K957" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L957" t="n">
         <v>126890</v>
@@ -49258,7 +49280,7 @@
         <v>233000</v>
       </c>
       <c r="K958" t="n">
-        <v>52.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="L958" t="n">
         <v>126890</v>
@@ -49309,7 +49331,7 @@
         <v>233100</v>
       </c>
       <c r="K959" t="n">
-        <v>33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L959" t="n">
         <v>126880</v>
@@ -49360,7 +49382,7 @@
         <v>233200</v>
       </c>
       <c r="K960" t="n">
-        <v>46.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L960" t="n">
         <v>126860</v>
@@ -49411,7 +49433,7 @@
         <v>233400</v>
       </c>
       <c r="K961" t="n">
-        <v>29.41176470588236</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L961" t="n">
         <v>126820</v>
@@ -49462,7 +49484,7 @@
         <v>233500</v>
       </c>
       <c r="K962" t="n">
-        <v>6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L962" t="n">
         <v>126780</v>
@@ -49513,7 +49535,7 @@
         <v>234000</v>
       </c>
       <c r="K963" t="n">
-        <v>26.31578947368421</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L963" t="n">
         <v>126790</v>
@@ -49564,7 +49586,7 @@
         <v>234100</v>
       </c>
       <c r="K964" t="n">
-        <v>22.22222222222222</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L964" t="n">
         <v>126820</v>
@@ -49615,7 +49637,7 @@
         <v>234200</v>
       </c>
       <c r="K965" t="n">
-        <v>22.22222222222222</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L965" t="n">
         <v>126850</v>
@@ -49666,7 +49688,7 @@
         <v>234600</v>
       </c>
       <c r="K966" t="n">
-        <v>36.36363636363637</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L966" t="n">
         <v>126920</v>
@@ -49717,7 +49739,7 @@
         <v>234900</v>
       </c>
       <c r="K967" t="n">
-        <v>44</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L967" t="n">
         <v>127020</v>
@@ -49768,7 +49790,7 @@
         <v>235200</v>
       </c>
       <c r="K968" t="n">
-        <v>28.57142857142857</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L968" t="n">
         <v>127100</v>
@@ -49819,7 +49841,7 @@
         <v>235900</v>
       </c>
       <c r="K969" t="n">
-        <v>42.85714285714285</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L969" t="n">
         <v>127260</v>
@@ -49870,7 +49892,7 @@
         <v>235900</v>
       </c>
       <c r="K970" t="n">
-        <v>39.39393939393939</v>
+        <v>68</v>
       </c>
       <c r="L970" t="n">
         <v>127410</v>
@@ -49921,7 +49943,7 @@
         <v>235900</v>
       </c>
       <c r="K971" t="n">
-        <v>39.39393939393939</v>
+        <v>75</v>
       </c>
       <c r="L971" t="n">
         <v>127580</v>
@@ -49972,7 +49994,7 @@
         <v>235900</v>
       </c>
       <c r="K972" t="n">
-        <v>43.75</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L972" t="n">
         <v>127760</v>
@@ -50023,7 +50045,7 @@
         <v>236200</v>
       </c>
       <c r="K973" t="n">
-        <v>31.42857142857143</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L973" t="n">
         <v>127860</v>
@@ -50074,7 +50096,7 @@
         <v>236200</v>
       </c>
       <c r="K974" t="n">
-        <v>35.29411764705883</v>
+        <v>40</v>
       </c>
       <c r="L974" t="n">
         <v>127950</v>
@@ -50125,7 +50147,7 @@
         <v>236600</v>
       </c>
       <c r="K975" t="n">
-        <v>18.91891891891892</v>
+        <v>0</v>
       </c>
       <c r="L975" t="n">
         <v>127990</v>
@@ -50176,7 +50198,7 @@
         <v>237000</v>
       </c>
       <c r="K976" t="n">
-        <v>26.82926829268293</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L976" t="n">
         <v>128030</v>
@@ -50227,7 +50249,7 @@
         <v>237000</v>
       </c>
       <c r="K977" t="n">
-        <v>26.82926829268293</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L977" t="n">
         <v>128040</v>
@@ -50278,7 +50300,7 @@
         <v>237000</v>
       </c>
       <c r="K978" t="n">
-        <v>30</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L978" t="n">
         <v>128080</v>
@@ -50329,7 +50351,7 @@
         <v>237400</v>
       </c>
       <c r="K979" t="n">
-        <v>20.93023255813954</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L979" t="n">
         <v>128010</v>
@@ -50380,7 +50402,7 @@
         <v>237400</v>
       </c>
       <c r="K980" t="n">
-        <v>19.04761904761905</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L980" t="n">
         <v>127940</v>
@@ -50431,7 +50453,7 @@
         <v>237900</v>
       </c>
       <c r="K981" t="n">
-        <v>11.11111111111111</v>
+        <v>-60</v>
       </c>
       <c r="L981" t="n">
         <v>127820</v>
@@ -50482,7 +50504,7 @@
         <v>237900</v>
       </c>
       <c r="K982" t="n">
-        <v>13.63636363636363</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L982" t="n">
         <v>127700</v>
@@ -50533,7 +50555,7 @@
         <v>238200</v>
       </c>
       <c r="K983" t="n">
-        <v>-4.761904761904762</v>
+        <v>-60</v>
       </c>
       <c r="L983" t="n">
         <v>127580</v>
@@ -50584,7 +50606,7 @@
         <v>238500</v>
       </c>
       <c r="K984" t="n">
-        <v>0</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L984" t="n">
         <v>127490</v>
@@ -50635,7 +50657,7 @@
         <v>238500</v>
       </c>
       <c r="K985" t="n">
-        <v>-2.325581395348837</v>
+        <v>-60</v>
       </c>
       <c r="L985" t="n">
         <v>127440</v>
@@ -50686,7 +50708,7 @@
         <v>239000</v>
       </c>
       <c r="K986" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L986" t="n">
         <v>127400</v>
@@ -50737,7 +50759,7 @@
         <v>239000</v>
       </c>
       <c r="K987" t="n">
-        <v>-7.317073170731707</v>
+        <v>-20</v>
       </c>
       <c r="L987" t="n">
         <v>127360</v>
@@ -50788,7 +50810,7 @@
         <v>239400</v>
       </c>
       <c r="K988" t="n">
-        <v>9.523809523809524</v>
+        <v>20</v>
       </c>
       <c r="L988" t="n">
         <v>127360</v>
@@ -50839,7 +50861,7 @@
         <v>239500</v>
       </c>
       <c r="K989" t="n">
-        <v>-5.555555555555555</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L989" t="n">
         <v>127410</v>
@@ -50890,7 +50912,7 @@
         <v>240000</v>
       </c>
       <c r="K990" t="n">
-        <v>7.317073170731707</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L990" t="n">
         <v>127510</v>
@@ -50941,7 +50963,7 @@
         <v>240400</v>
       </c>
       <c r="K991" t="n">
-        <v>-2.222222222222222</v>
+        <v>44</v>
       </c>
       <c r="L991" t="n">
         <v>127620</v>
@@ -50992,7 +51014,7 @@
         <v>240600</v>
       </c>
       <c r="K992" t="n">
-        <v>2.127659574468085</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L992" t="n">
         <v>127750</v>
@@ -51043,7 +51065,7 @@
         <v>240900</v>
       </c>
       <c r="K993" t="n">
-        <v>14.8936170212766</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L993" t="n">
         <v>127940</v>
@@ -51094,7 +51116,7 @@
         <v>241200</v>
       </c>
       <c r="K994" t="n">
-        <v>8</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L994" t="n">
         <v>128070</v>
@@ -51145,7 +51167,7 @@
         <v>241500</v>
       </c>
       <c r="K995" t="n">
-        <v>10.20408163265306</v>
+        <v>20</v>
       </c>
       <c r="L995" t="n">
         <v>128170</v>
@@ -51196,7 +51218,7 @@
         <v>242100</v>
       </c>
       <c r="K996" t="n">
-        <v>-9.803921568627452</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L996" t="n">
         <v>128160</v>

--- a/BackTest/2019-10-22 BackTest BSV.xlsx
+++ b/BackTest/2019-10-22 BackTest BSV.xlsx
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>120600</v>
+        <v>120800</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>121500</v>
+        <v>121600</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>121600</v>
+        <v>121300</v>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>122000</v>
+        <v>121800</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
@@ -2190,14 +2190,12 @@
         <v>124046.6666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>122100</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2231,14 +2229,12 @@
         <v>124015</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>122200</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2272,14 +2268,12 @@
         <v>123986.6666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>122300</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2313,14 +2307,12 @@
         <v>123948.3333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>122100</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2354,14 +2346,12 @@
         <v>123905</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>121900</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -2395,14 +2385,12 @@
         <v>123856.6666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>121800</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2436,14 +2424,12 @@
         <v>123798.3333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>121500</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2477,14 +2463,12 @@
         <v>123730</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>121500</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2518,14 +2502,12 @@
         <v>123658.3333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>121300</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -2559,14 +2541,12 @@
         <v>123586.6666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>121200</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
@@ -2600,14 +2580,12 @@
         <v>123516.6666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>121100</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -2641,14 +2619,12 @@
         <v>123443.3333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>120900</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -2682,14 +2658,12 @@
         <v>123366.6666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>121000</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -2723,14 +2697,12 @@
         <v>123296.6666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>121000</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
@@ -2764,14 +2736,12 @@
         <v>123231.6666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>121100</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -2805,14 +2775,12 @@
         <v>123166.6666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>121100</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -2846,14 +2814,12 @@
         <v>123113.3333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>121700</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -2887,14 +2853,12 @@
         <v>123053.3333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>122000</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -2928,14 +2892,12 @@
         <v>122990</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>121500</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
@@ -2969,14 +2931,12 @@
         <v>122931.6666666667</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>121200</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -3010,14 +2970,12 @@
         <v>122873.3333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>121600</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
@@ -3051,14 +3009,12 @@
         <v>122821.6666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>121900</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -3092,14 +3048,12 @@
         <v>122785</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>122200</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -3133,14 +3087,12 @@
         <v>122746.6666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>123000</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -3174,14 +3126,12 @@
         <v>122701.6666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>122600</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -3215,14 +3165,12 @@
         <v>122658.3333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>122500</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3256,14 +3204,12 @@
         <v>122613.3333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>122500</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3297,14 +3243,12 @@
         <v>122560</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>122000</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3338,14 +3282,12 @@
         <v>122525</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>122100</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3379,14 +3321,12 @@
         <v>122488.3333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>122000</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3420,14 +3360,12 @@
         <v>122463.3333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>122800</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3461,14 +3399,12 @@
         <v>122448.3333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>123000</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -3502,14 +3438,12 @@
         <v>122425</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>122500</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3660,14 +3594,12 @@
         <v>122271.6666666667</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>121600</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -3701,14 +3633,12 @@
         <v>122223.3333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>121900</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3742,14 +3672,12 @@
         <v>122175</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>121700</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3783,14 +3711,12 @@
         <v>122126.6666666667</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>121700</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3824,14 +3750,12 @@
         <v>122068.3333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>121700</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3865,14 +3789,12 @@
         <v>121991.6666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>121400</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3906,14 +3828,12 @@
         <v>121930</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>121600</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -3947,14 +3867,12 @@
         <v>121881.6666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>121600</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -3988,14 +3906,12 @@
         <v>121848.3333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>121900</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -4029,14 +3945,12 @@
         <v>121845</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>121900</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -4070,14 +3984,12 @@
         <v>121841.6666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>122800</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -4111,14 +4023,12 @@
         <v>121843.3333333333</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>122900</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -4152,14 +4062,12 @@
         <v>121848.3333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>122900</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4193,14 +4101,12 @@
         <v>121856.6666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>123100</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -4234,14 +4140,12 @@
         <v>121871.6666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>123000</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4275,14 +4179,12 @@
         <v>121895</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>123400</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4316,14 +4218,12 @@
         <v>121918.3333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>123300</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -4357,14 +4257,12 @@
         <v>121951.6666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>123200</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -4398,14 +4296,12 @@
         <v>121995</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>123300</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -4439,14 +4335,12 @@
         <v>122041.6666666667</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>123600</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -4480,14 +4374,12 @@
         <v>122068.3333333333</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>123300</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -7098,16 +6990,18 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7135,14 +7029,16 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7205,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -7240,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>

--- a/BackTest/2019-10-22 BackTest BSV.xlsx
+++ b/BackTest/2019-10-22 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4543,10 +4543,14 @@
         <v>-890.1626735499997</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>121100</v>
+      </c>
+      <c r="J126" t="n">
+        <v>121100</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
@@ -4576,11 +4580,19 @@
         <v>-1007.89257355</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>121800</v>
+      </c>
+      <c r="J127" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4621,19 @@
         <v>-984.4941735499997</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>121200</v>
+      </c>
+      <c r="J128" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,15 +4662,17 @@
         <v>-953.0466735499997</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>121300</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>121100</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -4681,10 +4703,14 @@
         <v>-953.0466735499997</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>121600</v>
+      </c>
+      <c r="J130" t="n">
+        <v>121100</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4721,7 +4747,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>121100</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4755,10 +4783,14 @@
         <v>-774.0793735499997</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>122200</v>
+      </c>
+      <c r="J132" t="n">
+        <v>121100</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4795,7 +4827,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>121100</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4832,7 +4866,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>121100</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4869,7 +4905,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>121100</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4906,7 +4944,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>121100</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4943,7 +4983,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>121100</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4980,7 +5022,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>121100</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5017,7 +5061,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>121100</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5054,7 +5100,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>121100</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5091,7 +5139,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>121100</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5128,7 +5178,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>121100</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5165,7 +5217,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>121100</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5202,7 +5256,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>121100</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5239,7 +5295,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>121100</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5276,7 +5334,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>121100</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5313,7 +5373,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>121100</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5350,7 +5412,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>121100</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5384,12 +5448,14 @@
         <v>-403.8218735499996</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>121600</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>121100</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5423,12 +5489,14 @@
         <v>-420.7476735499996</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>121700</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>121100</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5462,12 +5530,14 @@
         <v>-434.5395735499996</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>121600</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>121100</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5501,12 +5571,14 @@
         <v>-433.9577735499996</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>121400</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>121100</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5540,12 +5612,14 @@
         <v>-433.9577735499996</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>121600</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>121100</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5579,12 +5653,14 @@
         <v>-433.9470735499996</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>121600</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>121100</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5618,12 +5694,14 @@
         <v>-433.9470735499996</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>121900</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>121100</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5657,12 +5735,14 @@
         <v>-433.8452575899996</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>121900</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>121100</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5696,12 +5776,12 @@
         <v>-381.6817575899996</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>122800</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>121100</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5735,12 +5815,12 @@
         <v>-381.6817575899996</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>122900</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>121100</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5774,12 +5854,12 @@
         <v>-367.1667575899996</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>122900</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>121100</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5813,12 +5893,12 @@
         <v>-419.3302575899996</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>123400</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>121100</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5855,7 +5935,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>121100</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5892,7 +5974,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>121100</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5926,12 +6010,12 @@
         <v>-403.9208575899996</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>123200</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>121100</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5968,7 +6052,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>121100</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6005,7 +6091,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>121100</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6042,7 +6130,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>121100</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6079,7 +6169,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>121100</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6116,7 +6208,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>121100</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6153,7 +6247,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>121100</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6190,7 +6286,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>121100</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6227,7 +6325,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>121100</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6264,7 +6364,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>121100</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6301,7 +6403,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>121100</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6338,7 +6442,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>121100</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6375,7 +6481,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>121100</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6412,7 +6520,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>121100</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6449,7 +6559,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>121100</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6486,7 +6598,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>121100</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6523,7 +6637,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>121100</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6560,7 +6676,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>121100</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6597,7 +6715,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>121100</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6634,7 +6754,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>121100</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6671,7 +6793,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>121100</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6708,7 +6832,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>121100</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6745,7 +6871,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>121100</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6782,7 +6910,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>121100</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6819,7 +6949,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>121100</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6856,7 +6988,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>121100</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6893,7 +7027,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>121100</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6930,7 +7066,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>121100</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6967,7 +7105,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>121100</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7004,7 +7144,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>121100</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7041,7 +7183,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>121100</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7078,7 +7222,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>121100</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7115,7 +7261,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>121100</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7152,7 +7300,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>121100</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7189,7 +7339,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>121100</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7226,7 +7378,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>121100</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7263,7 +7417,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>121100</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7300,7 +7456,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>121100</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7337,7 +7495,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>121100</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7374,7 +7534,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>121100</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7411,7 +7573,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>121100</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7448,7 +7612,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>121100</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7485,7 +7651,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>121100</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7522,7 +7690,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>121100</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7559,7 +7729,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>121100</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7596,7 +7768,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>121100</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7633,7 +7807,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>121100</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7670,7 +7846,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>121100</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7707,7 +7885,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>121100</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7744,7 +7924,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>121100</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7781,7 +7963,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>121100</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7818,7 +8002,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>121100</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7855,7 +8041,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>121100</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7892,7 +8080,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>121100</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7929,7 +8119,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>121100</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7966,7 +8158,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>121100</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8003,7 +8197,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>121100</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8040,7 +8236,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>121100</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8077,7 +8275,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>121100</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8114,7 +8314,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>121100</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8151,7 +8353,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>121100</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8188,7 +8392,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>121100</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8225,7 +8431,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>121100</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8262,7 +8470,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>121100</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8299,7 +8509,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>121100</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8336,7 +8548,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>121100</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8373,7 +8587,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>121100</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8410,7 +8626,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>121100</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8447,7 +8665,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>121100</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8484,7 +8704,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>121100</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8518,644 +8740,764 @@
         <v>995.3637800500003</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>121100</v>
+      </c>
       <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>133800</v>
+      </c>
+      <c r="C234" t="n">
+        <v>132100</v>
+      </c>
+      <c r="D234" t="n">
+        <v>133800</v>
+      </c>
+      <c r="E234" t="n">
+        <v>131900</v>
+      </c>
+      <c r="F234" t="n">
+        <v>207.3358</v>
+      </c>
+      <c r="G234" t="n">
+        <v>788.0279800500002</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>132100</v>
+      </c>
+      <c r="C235" t="n">
+        <v>132600</v>
+      </c>
+      <c r="D235" t="n">
+        <v>133200</v>
+      </c>
+      <c r="E235" t="n">
+        <v>131100</v>
+      </c>
+      <c r="F235" t="n">
+        <v>107.329</v>
+      </c>
+      <c r="G235" t="n">
+        <v>895.3569800500002</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>132900</v>
+      </c>
+      <c r="C236" t="n">
+        <v>133700</v>
+      </c>
+      <c r="D236" t="n">
+        <v>133700</v>
+      </c>
+      <c r="E236" t="n">
+        <v>132900</v>
+      </c>
+      <c r="F236" t="n">
+        <v>16.4474</v>
+      </c>
+      <c r="G236" t="n">
+        <v>911.8043800500002</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>133800</v>
+      </c>
+      <c r="C237" t="n">
+        <v>133300</v>
+      </c>
+      <c r="D237" t="n">
+        <v>133800</v>
+      </c>
+      <c r="E237" t="n">
+        <v>132600</v>
+      </c>
+      <c r="F237" t="n">
+        <v>210.7884</v>
+      </c>
+      <c r="G237" t="n">
+        <v>701.0159800500002</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>133400</v>
+      </c>
+      <c r="C238" t="n">
+        <v>133700</v>
+      </c>
+      <c r="D238" t="n">
+        <v>133800</v>
+      </c>
+      <c r="E238" t="n">
+        <v>133400</v>
+      </c>
+      <c r="F238" t="n">
+        <v>14.7121</v>
+      </c>
+      <c r="G238" t="n">
+        <v>715.7280800500001</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>133700</v>
+      </c>
+      <c r="C239" t="n">
+        <v>133900</v>
+      </c>
+      <c r="D239" t="n">
+        <v>133900</v>
+      </c>
+      <c r="E239" t="n">
+        <v>133200</v>
+      </c>
+      <c r="F239" t="n">
+        <v>70.7903</v>
+      </c>
+      <c r="G239" t="n">
+        <v>786.5183800500001</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>133800</v>
+      </c>
+      <c r="C240" t="n">
+        <v>134300</v>
+      </c>
+      <c r="D240" t="n">
+        <v>134300</v>
+      </c>
+      <c r="E240" t="n">
+        <v>133800</v>
+      </c>
+      <c r="F240" t="n">
+        <v>57.3576</v>
+      </c>
+      <c r="G240" t="n">
+        <v>843.8759800500002</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>134400</v>
+      </c>
+      <c r="C241" t="n">
+        <v>133400</v>
+      </c>
+      <c r="D241" t="n">
+        <v>134500</v>
+      </c>
+      <c r="E241" t="n">
+        <v>133200</v>
+      </c>
+      <c r="F241" t="n">
+        <v>322.3607</v>
+      </c>
+      <c r="G241" t="n">
+        <v>521.5152800500002</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>133500</v>
+      </c>
+      <c r="C242" t="n">
+        <v>132900</v>
+      </c>
+      <c r="D242" t="n">
+        <v>133700</v>
+      </c>
+      <c r="E242" t="n">
+        <v>132800</v>
+      </c>
+      <c r="F242" t="n">
+        <v>84.90470000000001</v>
+      </c>
+      <c r="G242" t="n">
+        <v>436.6105800500002</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>133200</v>
+      </c>
+      <c r="C243" t="n">
+        <v>133000</v>
+      </c>
+      <c r="D243" t="n">
+        <v>133200</v>
+      </c>
+      <c r="E243" t="n">
+        <v>132900</v>
+      </c>
+      <c r="F243" t="n">
+        <v>84.919</v>
+      </c>
+      <c r="G243" t="n">
+        <v>521.5295800500003</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>133100</v>
+      </c>
+      <c r="C244" t="n">
+        <v>131000</v>
+      </c>
+      <c r="D244" t="n">
+        <v>133100</v>
+      </c>
+      <c r="E244" t="n">
+        <v>131000</v>
+      </c>
+      <c r="F244" t="n">
+        <v>286.2027</v>
+      </c>
+      <c r="G244" t="n">
+        <v>235.3268800500003</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>132800</v>
+      </c>
+      <c r="C245" t="n">
+        <v>132600</v>
+      </c>
+      <c r="D245" t="n">
+        <v>132800</v>
+      </c>
+      <c r="E245" t="n">
+        <v>132300</v>
+      </c>
+      <c r="F245" t="n">
+        <v>94.3878</v>
+      </c>
+      <c r="G245" t="n">
+        <v>329.7146800500003</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>132500</v>
+      </c>
+      <c r="C246" t="n">
+        <v>132800</v>
+      </c>
+      <c r="D246" t="n">
+        <v>133000</v>
+      </c>
+      <c r="E246" t="n">
+        <v>132500</v>
+      </c>
+      <c r="F246" t="n">
+        <v>268.7179</v>
+      </c>
+      <c r="G246" t="n">
+        <v>598.4325800500003</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>132800</v>
+      </c>
+      <c r="C247" t="n">
+        <v>133500</v>
+      </c>
+      <c r="D247" t="n">
+        <v>133500</v>
+      </c>
+      <c r="E247" t="n">
+        <v>132800</v>
+      </c>
+      <c r="F247" t="n">
+        <v>131.6527</v>
+      </c>
+      <c r="G247" t="n">
+        <v>730.0852800500003</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>133300</v>
+      </c>
+      <c r="C248" t="n">
+        <v>133000</v>
+      </c>
+      <c r="D248" t="n">
+        <v>133300</v>
+      </c>
+      <c r="E248" t="n">
+        <v>133000</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.8905</v>
+      </c>
+      <c r="G248" t="n">
+        <v>729.1947800500003</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>133000</v>
+      </c>
+      <c r="C249" t="n">
+        <v>133100</v>
+      </c>
+      <c r="D249" t="n">
+        <v>133100</v>
+      </c>
+      <c r="E249" t="n">
+        <v>133000</v>
+      </c>
+      <c r="F249" t="n">
+        <v>4.8707</v>
+      </c>
+      <c r="G249" t="n">
+        <v>734.0654800500004</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>133000</v>
+      </c>
+      <c r="C250" t="n">
+        <v>133200</v>
+      </c>
+      <c r="D250" t="n">
+        <v>133200</v>
+      </c>
+      <c r="E250" t="n">
+        <v>133000</v>
+      </c>
+      <c r="F250" t="n">
+        <v>42.4361</v>
+      </c>
+      <c r="G250" t="n">
+        <v>776.5015800500004</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>132800</v>
+      </c>
+      <c r="C251" t="n">
+        <v>132600</v>
+      </c>
+      <c r="D251" t="n">
+        <v>132800</v>
+      </c>
+      <c r="E251" t="n">
+        <v>132600</v>
+      </c>
+      <c r="F251" t="n">
+        <v>41.7228</v>
+      </c>
+      <c r="G251" t="n">
+        <v>734.7787800500004</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>132000</v>
+      </c>
+      <c r="C252" t="n">
+        <v>131800</v>
+      </c>
+      <c r="D252" t="n">
+        <v>132000</v>
+      </c>
+      <c r="E252" t="n">
+        <v>131800</v>
+      </c>
+      <c r="F252" t="n">
+        <v>14.7111</v>
+      </c>
+      <c r="G252" t="n">
+        <v>720.0676800500004</v>
+      </c>
+      <c r="H252" t="n">
+        <v>2</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>121100</v>
+      </c>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>133800</v>
-      </c>
-      <c r="C234" t="n">
-        <v>132100</v>
-      </c>
-      <c r="D234" t="n">
-        <v>133800</v>
-      </c>
-      <c r="E234" t="n">
-        <v>131900</v>
-      </c>
-      <c r="F234" t="n">
-        <v>207.3358</v>
-      </c>
-      <c r="G234" t="n">
-        <v>788.0279800500002</v>
-      </c>
-      <c r="H234" t="n">
-        <v>3</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>132100</v>
-      </c>
-      <c r="C235" t="n">
-        <v>132600</v>
-      </c>
-      <c r="D235" t="n">
-        <v>133200</v>
-      </c>
-      <c r="E235" t="n">
-        <v>131100</v>
-      </c>
-      <c r="F235" t="n">
-        <v>107.329</v>
-      </c>
-      <c r="G235" t="n">
-        <v>895.3569800500002</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>132900</v>
-      </c>
-      <c r="C236" t="n">
-        <v>133700</v>
-      </c>
-      <c r="D236" t="n">
-        <v>133700</v>
-      </c>
-      <c r="E236" t="n">
-        <v>132900</v>
-      </c>
-      <c r="F236" t="n">
-        <v>16.4474</v>
-      </c>
-      <c r="G236" t="n">
-        <v>911.8043800500002</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>133800</v>
-      </c>
-      <c r="C237" t="n">
-        <v>133300</v>
-      </c>
-      <c r="D237" t="n">
-        <v>133800</v>
-      </c>
-      <c r="E237" t="n">
-        <v>132600</v>
-      </c>
-      <c r="F237" t="n">
-        <v>210.7884</v>
-      </c>
-      <c r="G237" t="n">
-        <v>701.0159800500002</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>133400</v>
-      </c>
-      <c r="C238" t="n">
-        <v>133700</v>
-      </c>
-      <c r="D238" t="n">
-        <v>133800</v>
-      </c>
-      <c r="E238" t="n">
-        <v>133400</v>
-      </c>
-      <c r="F238" t="n">
-        <v>14.7121</v>
-      </c>
-      <c r="G238" t="n">
-        <v>715.7280800500001</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>133700</v>
-      </c>
-      <c r="C239" t="n">
-        <v>133900</v>
-      </c>
-      <c r="D239" t="n">
-        <v>133900</v>
-      </c>
-      <c r="E239" t="n">
-        <v>133200</v>
-      </c>
-      <c r="F239" t="n">
-        <v>70.7903</v>
-      </c>
-      <c r="G239" t="n">
-        <v>786.5183800500001</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>133800</v>
-      </c>
-      <c r="C240" t="n">
-        <v>134300</v>
-      </c>
-      <c r="D240" t="n">
-        <v>134300</v>
-      </c>
-      <c r="E240" t="n">
-        <v>133800</v>
-      </c>
-      <c r="F240" t="n">
-        <v>57.3576</v>
-      </c>
-      <c r="G240" t="n">
-        <v>843.8759800500002</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>134400</v>
-      </c>
-      <c r="C241" t="n">
-        <v>133400</v>
-      </c>
-      <c r="D241" t="n">
-        <v>134500</v>
-      </c>
-      <c r="E241" t="n">
-        <v>133200</v>
-      </c>
-      <c r="F241" t="n">
-        <v>322.3607</v>
-      </c>
-      <c r="G241" t="n">
-        <v>521.5152800500002</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>133500</v>
-      </c>
-      <c r="C242" t="n">
-        <v>132900</v>
-      </c>
-      <c r="D242" t="n">
-        <v>133700</v>
-      </c>
-      <c r="E242" t="n">
-        <v>132800</v>
-      </c>
-      <c r="F242" t="n">
-        <v>84.90470000000001</v>
-      </c>
-      <c r="G242" t="n">
-        <v>436.6105800500002</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>133200</v>
-      </c>
-      <c r="C243" t="n">
-        <v>133000</v>
-      </c>
-      <c r="D243" t="n">
-        <v>133200</v>
-      </c>
-      <c r="E243" t="n">
-        <v>132900</v>
-      </c>
-      <c r="F243" t="n">
-        <v>84.919</v>
-      </c>
-      <c r="G243" t="n">
-        <v>521.5295800500003</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>133100</v>
-      </c>
-      <c r="C244" t="n">
-        <v>131000</v>
-      </c>
-      <c r="D244" t="n">
-        <v>133100</v>
-      </c>
-      <c r="E244" t="n">
-        <v>131000</v>
-      </c>
-      <c r="F244" t="n">
-        <v>286.2027</v>
-      </c>
-      <c r="G244" t="n">
-        <v>235.3268800500003</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>132800</v>
-      </c>
-      <c r="C245" t="n">
-        <v>132600</v>
-      </c>
-      <c r="D245" t="n">
-        <v>132800</v>
-      </c>
-      <c r="E245" t="n">
-        <v>132300</v>
-      </c>
-      <c r="F245" t="n">
-        <v>94.3878</v>
-      </c>
-      <c r="G245" t="n">
-        <v>329.7146800500003</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>132500</v>
-      </c>
-      <c r="C246" t="n">
-        <v>132800</v>
-      </c>
-      <c r="D246" t="n">
-        <v>133000</v>
-      </c>
-      <c r="E246" t="n">
-        <v>132500</v>
-      </c>
-      <c r="F246" t="n">
-        <v>268.7179</v>
-      </c>
-      <c r="G246" t="n">
-        <v>598.4325800500003</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>132800</v>
-      </c>
-      <c r="C247" t="n">
-        <v>133500</v>
-      </c>
-      <c r="D247" t="n">
-        <v>133500</v>
-      </c>
-      <c r="E247" t="n">
-        <v>132800</v>
-      </c>
-      <c r="F247" t="n">
-        <v>131.6527</v>
-      </c>
-      <c r="G247" t="n">
-        <v>730.0852800500003</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>133300</v>
-      </c>
-      <c r="C248" t="n">
-        <v>133000</v>
-      </c>
-      <c r="D248" t="n">
-        <v>133300</v>
-      </c>
-      <c r="E248" t="n">
-        <v>133000</v>
-      </c>
-      <c r="F248" t="n">
-        <v>0.8905</v>
-      </c>
-      <c r="G248" t="n">
-        <v>729.1947800500003</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>133000</v>
-      </c>
-      <c r="C249" t="n">
-        <v>133100</v>
-      </c>
-      <c r="D249" t="n">
-        <v>133100</v>
-      </c>
-      <c r="E249" t="n">
-        <v>133000</v>
-      </c>
-      <c r="F249" t="n">
-        <v>4.8707</v>
-      </c>
-      <c r="G249" t="n">
-        <v>734.0654800500004</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>133000</v>
-      </c>
-      <c r="C250" t="n">
-        <v>133200</v>
-      </c>
-      <c r="D250" t="n">
-        <v>133200</v>
-      </c>
-      <c r="E250" t="n">
-        <v>133000</v>
-      </c>
-      <c r="F250" t="n">
-        <v>42.4361</v>
-      </c>
-      <c r="G250" t="n">
-        <v>776.5015800500004</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>132800</v>
-      </c>
-      <c r="C251" t="n">
-        <v>132600</v>
-      </c>
-      <c r="D251" t="n">
-        <v>132800</v>
-      </c>
-      <c r="E251" t="n">
-        <v>132600</v>
-      </c>
-      <c r="F251" t="n">
-        <v>41.7228</v>
-      </c>
-      <c r="G251" t="n">
-        <v>734.7787800500004</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>132000</v>
-      </c>
-      <c r="C252" t="n">
-        <v>131800</v>
-      </c>
-      <c r="D252" t="n">
-        <v>132000</v>
-      </c>
-      <c r="E252" t="n">
-        <v>131800</v>
-      </c>
-      <c r="F252" t="n">
-        <v>14.7111</v>
-      </c>
-      <c r="G252" t="n">
-        <v>720.0676800500004</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>1.083356729975227</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1.047302904564315</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9180,7 +9522,7 @@
         <v>755.5097800500004</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9213,7 +9555,7 @@
         <v>748.4473800500003</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9246,7 +9588,7 @@
         <v>776.2394800500003</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9279,7 +9621,7 @@
         <v>725.7213800500003</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9312,7 +9654,7 @@
         <v>697.9292800500003</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9345,7 +9687,7 @@
         <v>698.8320800500003</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9378,7 +9720,7 @@
         <v>696.0946800500003</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9411,7 +9753,7 @@
         <v>655.4532800500003</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9444,7 +9786,7 @@
         <v>651.7176800500004</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9807,7 +10149,7 @@
         <v>745.8465800500002</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10071,7 +10413,7 @@
         <v>606.6764800500001</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10104,7 +10446,7 @@
         <v>622.8418800500001</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10137,7 +10479,7 @@
         <v>622.8418800500001</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10170,7 +10512,7 @@
         <v>622.9165800500001</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10203,7 +10545,7 @@
         <v>622.9165800500001</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10236,7 +10578,7 @@
         <v>622.9165800500001</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10269,7 +10611,7 @@
         <v>622.9206800500001</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10302,7 +10644,7 @@
         <v>614.9435800500002</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10335,7 +10677,7 @@
         <v>577.1686800500001</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10368,7 +10710,7 @@
         <v>577.1772800500001</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10401,7 +10743,7 @@
         <v>577.1772800500001</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10434,7 +10776,7 @@
         <v>577.1772800500001</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10467,7 +10809,7 @@
         <v>577.1772800500001</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10500,7 +10842,7 @@
         <v>469.6483800500001</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10533,7 +10875,7 @@
         <v>489.6177800500001</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10566,7 +10908,7 @@
         <v>528.0506800500001</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10599,7 +10941,7 @@
         <v>528.0536800500001</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10632,7 +10974,7 @@
         <v>528.0536800500001</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10665,7 +11007,7 @@
         <v>523.4742800500002</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10698,7 +11040,7 @@
         <v>482.7648800500002</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10731,7 +11073,7 @@
         <v>484.3476800500002</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10764,7 +11106,7 @@
         <v>536.3822800500002</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10797,7 +11139,7 @@
         <v>536.3822800500002</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10929,7 +11271,7 @@
         <v>426.9716800500003</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10962,7 +11304,7 @@
         <v>426.9716800500003</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10995,7 +11337,7 @@
         <v>423.6609800500003</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11094,7 +11436,7 @@
         <v>478.2830800500003</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11127,7 +11469,7 @@
         <v>478.2830800500003</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11160,7 +11502,7 @@
         <v>491.1199800500003</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11193,7 +11535,7 @@
         <v>491.1199800500003</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11226,7 +11568,7 @@
         <v>491.1199800500003</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11259,7 +11601,7 @@
         <v>491.1199800500003</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11292,7 +11634,7 @@
         <v>491.1144800500003</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11325,7 +11667,7 @@
         <v>491.1144800500003</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11358,7 +11700,7 @@
         <v>491.1144800500003</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11391,7 +11733,7 @@
         <v>491.1144800500003</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11424,7 +11766,7 @@
         <v>491.1144800500003</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11457,7 +11799,7 @@
         <v>491.1144800500003</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11490,7 +11832,7 @@
         <v>491.1144800500003</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11523,7 +11865,7 @@
         <v>506.9459800500003</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11556,7 +11898,7 @@
         <v>496.6485800500003</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11589,7 +11931,7 @@
         <v>438.8554800500003</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11622,7 +11964,7 @@
         <v>433.8554800500003</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11655,7 +11997,7 @@
         <v>434.1914800500003</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11688,7 +12030,7 @@
         <v>434.1914800500003</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11721,7 +12063,7 @@
         <v>401.1768800500004</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11754,7 +12096,7 @@
         <v>66.70648005000038</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11787,7 +12129,7 @@
         <v>66.70648005000038</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11820,7 +12162,7 @@
         <v>66.70648005000038</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11853,7 +12195,7 @@
         <v>10.77958005000038</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11886,7 +12228,7 @@
         <v>9.322680050000375</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11919,7 +12261,7 @@
         <v>47.37982757000037</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11952,7 +12294,7 @@
         <v>40.28742757000037</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11985,7 +12327,7 @@
         <v>38.98972757000038</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12018,7 +12360,7 @@
         <v>38.98972757000038</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12051,7 +12393,7 @@
         <v>39.49682757000038</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12084,7 +12426,7 @@
         <v>34.29032757000038</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12117,7 +12459,7 @@
         <v>57.33732757000038</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12150,7 +12492,7 @@
         <v>74.76252757000039</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12183,7 +12525,7 @@
         <v>2.873027570000389</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12216,7 +12558,7 @@
         <v>3.449027570000389</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12249,7 +12591,7 @@
         <v>13.44902757000039</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12282,7 +12624,7 @@
         <v>4.984927570000389</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12315,7 +12657,7 @@
         <v>4.984927570000389</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12348,7 +12690,7 @@
         <v>-15.11197242999961</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12381,7 +12723,7 @@
         <v>-56.84657242999961</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12414,7 +12756,7 @@
         <v>-58.11147242999961</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12447,7 +12789,7 @@
         <v>-12.87337242999961</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12480,7 +12822,7 @@
         <v>-1.256372429999605</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12513,7 +12855,7 @@
         <v>-0.9047724299996046</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12546,7 +12888,7 @@
         <v>-1.526272429999605</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12579,7 +12921,7 @@
         <v>-1.526272429999605</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12612,7 +12954,7 @@
         <v>-3.177172429999604</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12645,7 +12987,7 @@
         <v>-3.177172429999604</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12678,7 +13020,7 @@
         <v>-3.177172429999604</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12711,7 +13053,7 @@
         <v>-32.1331724299996</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12744,7 +13086,7 @@
         <v>-28.8883724299996</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12777,7 +13119,7 @@
         <v>-33.8758724299996</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12810,7 +13152,7 @@
         <v>-33.7052724299996</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12843,7 +13185,7 @@
         <v>-33.7052724299996</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12876,7 +13218,7 @@
         <v>-19.6016724299996</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12909,7 +13251,7 @@
         <v>34.6496275700004</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12942,7 +13284,7 @@
         <v>30.8957275700004</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13008,7 +13350,7 @@
         <v>76.1199275700004</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -15780,7 +16122,7 @@
         <v>521.0914088000004</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15846,7 +16188,7 @@
         <v>353.5870088000004</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15879,7 +16221,7 @@
         <v>329.9412410200005</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15912,7 +16254,7 @@
         <v>328.9412410200005</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16143,7 +16485,7 @@
         <v>314.1085410200004</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16176,7 +16518,7 @@
         <v>351.7413410200004</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16209,7 +16551,7 @@
         <v>295.7807410200004</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16242,7 +16584,7 @@
         <v>300.3189410200004</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16275,7 +16617,7 @@
         <v>419.3813410200004</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16308,7 +16650,7 @@
         <v>487.0951410200004</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16341,7 +16683,7 @@
         <v>452.4601425300004</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16374,7 +16716,7 @@
         <v>430.7340425300004</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16407,7 +16749,7 @@
         <v>566.3445425300004</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16440,7 +16782,7 @@
         <v>802.1360425300004</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16473,7 +16815,7 @@
         <v>802.1360425300004</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16506,7 +16848,7 @@
         <v>686.8369425300004</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16539,7 +16881,7 @@
         <v>778.5041425300004</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16572,7 +16914,7 @@
         <v>728.9566425300004</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16605,7 +16947,7 @@
         <v>861.4363425300004</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16638,7 +16980,7 @@
         <v>722.9734425300004</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16671,7 +17013,7 @@
         <v>738.3351425300004</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16704,7 +17046,7 @@
         <v>782.7272294000004</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16737,7 +17079,7 @@
         <v>805.9694294000004</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16770,7 +17112,7 @@
         <v>821.2755294000004</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16803,7 +17145,7 @@
         <v>886.3461425300004</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16836,7 +17178,7 @@
         <v>857.8769425300004</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16869,7 +17211,7 @@
         <v>1022.29818948</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16902,7 +17244,7 @@
         <v>829.0255894800005</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16935,7 +17277,7 @@
         <v>862.6872894800005</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16968,7 +17310,7 @@
         <v>816.7630894800004</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17001,7 +17343,7 @@
         <v>663.4068369000004</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17034,7 +17376,7 @@
         <v>741.7702369000003</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17067,7 +17409,7 @@
         <v>741.7702369000003</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17100,7 +17442,7 @@
         <v>610.3455369000003</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17133,7 +17475,7 @@
         <v>565.9621369000002</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17166,7 +17508,7 @@
         <v>481.1168369000002</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17199,7 +17541,7 @@
         <v>490.6451369000002</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17232,7 +17574,7 @@
         <v>514.0221369000002</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17265,7 +17607,7 @@
         <v>533.3153369000001</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17298,7 +17640,7 @@
         <v>533.3153369000001</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17331,7 +17673,7 @@
         <v>569.5722369000001</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17364,7 +17706,7 @@
         <v>608.8549369000001</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17397,7 +17739,7 @@
         <v>608.8549369000001</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17430,7 +17772,7 @@
         <v>490.4362369000001</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17463,7 +17805,7 @@
         <v>490.4362369000001</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17496,7 +17838,7 @@
         <v>-53.16799594999992</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17529,7 +17871,7 @@
         <v>-158.4339959499999</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17562,7 +17904,7 @@
         <v>-344.0065959499999</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17595,7 +17937,7 @@
         <v>-318.3467959499999</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17628,7 +17970,7 @@
         <v>-403.2607959499999</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17661,7 +18003,7 @@
         <v>-352.6951959499999</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17694,7 +18036,7 @@
         <v>-448.4502959499998</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17727,7 +18069,7 @@
         <v>-386.4219959499998</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17760,7 +18102,7 @@
         <v>-386.4219959499998</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17793,7 +18135,7 @@
         <v>-397.9350959499998</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17826,7 +18168,7 @@
         <v>-397.9350959499998</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17859,7 +18201,7 @@
         <v>-543.4803959499998</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17892,7 +18234,7 @@
         <v>-543.4803959499998</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17925,7 +18267,7 @@
         <v>-534.3739959499998</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17958,7 +18300,7 @@
         <v>-417.3286959499998</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17991,7 +18333,7 @@
         <v>-592.8196423999998</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18024,7 +18366,7 @@
         <v>-588.8467423999998</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18057,7 +18399,7 @@
         <v>-570.1594423999998</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18090,7 +18432,7 @@
         <v>-597.8535423999998</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18123,7 +18465,7 @@
         <v>-597.8535423999998</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18156,7 +18498,7 @@
         <v>-567.2728423999998</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18189,7 +18531,7 @@
         <v>-568.2673423999998</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18222,7 +18564,7 @@
         <v>-566.9473423999998</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18255,7 +18597,7 @@
         <v>-570.5825423999999</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18288,7 +18630,7 @@
         <v>-569.6008423999998</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18321,7 +18663,7 @@
         <v>-571.2167423999998</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18354,7 +18696,7 @@
         <v>-570.7671423999998</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18387,7 +18729,7 @@
         <v>-542.4029423999998</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18420,7 +18762,7 @@
         <v>-542.4029423999998</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18453,7 +18795,7 @@
         <v>-569.1017854899998</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18618,7 +18960,7 @@
         <v>-272.5869927599998</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18651,7 +18993,7 @@
         <v>-363.6862927599998</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18684,7 +19026,7 @@
         <v>-330.4001927599998</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18717,7 +19059,7 @@
         <v>-291.1276927599998</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18750,7 +19092,7 @@
         <v>477.7297072400002</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18783,7 +19125,7 @@
         <v>369.3813029800002</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18816,7 +19158,7 @@
         <v>242.2619007800002</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18849,7 +19191,7 @@
         <v>229.8854007800002</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18882,7 +19224,7 @@
         <v>142.1614007800002</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18915,7 +19257,7 @@
         <v>186.2369007800002</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18948,7 +19290,7 @@
         <v>211.1252007800002</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18981,7 +19323,7 @@
         <v>151.1946007800002</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19014,7 +19356,7 @@
         <v>126.2050007800002</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19047,7 +19389,7 @@
         <v>186.8503007800002</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19080,7 +19422,7 @@
         <v>176.5025007800002</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19113,7 +19455,7 @@
         <v>166.5025007800002</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19179,7 +19521,7 @@
         <v>143.9065007800002</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19212,7 +19554,7 @@
         <v>143.9065007800002</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19245,7 +19587,7 @@
         <v>143.9065007800002</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19278,7 +19620,7 @@
         <v>171.0168007800002</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19311,7 +19653,7 @@
         <v>171.0168007800002</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19344,7 +19686,7 @@
         <v>168.0358007800002</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19377,7 +19719,7 @@
         <v>177.5460007800002</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19410,7 +19752,7 @@
         <v>179.4786007800002</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19443,7 +19785,7 @@
         <v>183.2404007800002</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19476,7 +19818,7 @@
         <v>183.2404007800002</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19509,7 +19851,7 @@
         <v>183.2404007800002</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19542,7 +19884,7 @@
         <v>183.2404007800002</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19575,7 +19917,7 @@
         <v>183.7304007800002</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19608,7 +19950,7 @@
         <v>183.7304007800002</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19641,7 +19983,7 @@
         <v>142.2538007800002</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19674,7 +20016,7 @@
         <v>319.8832007800002</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19707,7 +20049,7 @@
         <v>499.7544007800001</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19839,7 +20181,7 @@
         <v>195.9854007800001</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20070,7 +20412,7 @@
         <v>188.2276007800002</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20103,7 +20445,7 @@
         <v>202.6943007800002</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20136,7 +20478,7 @@
         <v>327.4813030100001</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20169,7 +20511,7 @@
         <v>281.9257030100001</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20202,7 +20544,7 @@
         <v>281.9257030100001</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20235,7 +20577,7 @@
         <v>311.2613030100001</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20268,7 +20610,7 @@
         <v>311.2613030100001</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20301,7 +20643,7 @@
         <v>300.5895030100001</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20334,7 +20676,7 @@
         <v>347.6706030100001</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20367,7 +20709,7 @@
         <v>347.6706030100001</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20400,7 +20742,7 @@
         <v>347.6706030100001</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20433,7 +20775,7 @@
         <v>341.1689030100001</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20466,7 +20808,7 @@
         <v>341.1689030100001</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20499,7 +20841,7 @@
         <v>221.8726030100001</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20532,7 +20874,7 @@
         <v>192.6681030100001</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20565,7 +20907,7 @@
         <v>110.2686030100001</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20598,7 +20940,7 @@
         <v>176.8842301100001</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20631,7 +20973,7 @@
         <v>170.5812301100001</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20664,7 +21006,7 @@
         <v>170.5812301100001</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20697,7 +21039,7 @@
         <v>98.72063026000012</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20994,7 +21336,7 @@
         <v>95.03903026000013</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21027,7 +21369,7 @@
         <v>95.03903026000013</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21060,7 +21402,7 @@
         <v>38.29573026000013</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21093,7 +21435,7 @@
         <v>38.29573026000013</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21126,7 +21468,7 @@
         <v>-38.94447348999987</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21159,7 +21501,7 @@
         <v>-38.94447348999987</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21192,7 +21534,7 @@
         <v>-38.94447348999987</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21225,7 +21567,7 @@
         <v>-131.9185734899999</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21258,7 +21600,7 @@
         <v>-295.2037734899999</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21291,7 +21633,7 @@
         <v>-154.6884074799999</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21324,7 +21666,7 @@
         <v>-154.6884074799999</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21357,7 +21699,7 @@
         <v>-166.5713074799999</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21390,7 +21732,7 @@
         <v>-197.8582074799999</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21423,7 +21765,7 @@
         <v>-190.0124074799999</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21456,7 +21798,7 @@
         <v>-416.7427074799999</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21489,7 +21831,7 @@
         <v>-56.86020747999993</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21522,7 +21864,7 @@
         <v>-290.1055074799999</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21555,7 +21897,7 @@
         <v>-216.6889074799999</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21588,7 +21930,7 @@
         <v>-268.6779074799999</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21621,7 +21963,7 @@
         <v>-185.2081074799999</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21654,7 +21996,7 @@
         <v>-185.8618074799998</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21687,7 +22029,7 @@
         <v>-176.9508074799998</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21720,7 +22062,7 @@
         <v>-190.0981074799998</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21753,7 +22095,7 @@
         <v>-153.5663074799998</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21786,7 +22128,7 @@
         <v>-152.5920074799998</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21819,7 +22161,7 @@
         <v>-170.5735074799998</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21852,7 +22194,7 @@
         <v>-170.1335074799998</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21885,7 +22227,7 @@
         <v>-171.1165074799999</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21918,7 +22260,7 @@
         <v>-161.0707074799998</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21951,7 +22293,7 @@
         <v>-169.6968074799998</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21984,7 +22326,7 @@
         <v>-162.5550074799999</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22017,7 +22359,7 @@
         <v>-162.5550074799999</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22050,7 +22392,7 @@
         <v>-162.5550074799999</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22083,7 +22425,7 @@
         <v>-165.1222074799999</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22116,7 +22458,7 @@
         <v>-165.1222074799999</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22149,7 +22491,7 @@
         <v>-184.8171074799999</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22182,7 +22524,7 @@
         <v>-191.0808074799999</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22215,7 +22557,7 @@
         <v>-190.3608074799999</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22248,7 +22590,7 @@
         <v>-194.2082074799999</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22281,7 +22623,7 @@
         <v>-194.2082074799999</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22314,7 +22656,7 @@
         <v>-191.2954074799999</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22347,7 +22689,7 @@
         <v>-191.2954074799999</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22380,7 +22722,7 @@
         <v>-191.3058074799999</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22413,7 +22755,7 @@
         <v>-195.4797074799999</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22446,7 +22788,7 @@
         <v>-236.3746074799999</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22479,7 +22821,7 @@
         <v>-348.9324074799999</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22512,7 +22854,7 @@
         <v>-495.3237074799999</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22545,7 +22887,7 @@
         <v>-495.3237074799999</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22578,7 +22920,7 @@
         <v>-653.7727074799999</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22611,7 +22953,7 @@
         <v>-642.6302074799999</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22644,7 +22986,7 @@
         <v>-666.6693074799998</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22677,7 +23019,7 @@
         <v>-666.6514074799998</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22710,7 +23052,7 @@
         <v>-702.6397074799997</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22974,7 +23316,7 @@
         <v>-641.1608074799998</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23007,7 +23349,7 @@
         <v>-640.7008074799998</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23040,7 +23382,7 @@
         <v>-640.7008074799998</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23205,7 +23547,7 @@
         <v>-655.9724074799998</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23238,7 +23580,7 @@
         <v>-655.9724074799998</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23271,7 +23613,7 @@
         <v>-653.8307074799998</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24228,7 +24570,7 @@
         <v>-586.3300074799997</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24261,7 +24603,7 @@
         <v>-586.3280074799998</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24294,7 +24636,7 @@
         <v>-597.3353074799998</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24327,7 +24669,7 @@
         <v>-626.1501074799997</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24360,7 +24702,7 @@
         <v>-622.4001074799997</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24393,7 +24735,7 @@
         <v>-609.5128074799998</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24426,7 +24768,7 @@
         <v>-609.5128074799998</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24459,7 +24801,7 @@
         <v>-644.3571074799997</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24492,7 +24834,7 @@
         <v>-644.3571074799997</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24525,7 +24867,7 @@
         <v>-659.8062132499997</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24558,7 +24900,7 @@
         <v>-682.1481424899997</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24591,7 +24933,7 @@
         <v>-682.1481424899997</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24624,7 +24966,7 @@
         <v>-697.6427424899997</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24657,7 +24999,7 @@
         <v>-665.7427424899997</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24690,7 +25032,7 @@
         <v>-685.0082424899997</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24723,7 +25065,7 @@
         <v>-685.0082424899997</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24756,7 +25098,7 @@
         <v>-685.7000424899996</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24789,7 +25131,7 @@
         <v>-685.2000424899996</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24822,7 +25164,7 @@
         <v>-694.3110424899996</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24855,7 +25197,7 @@
         <v>-692.1945424899997</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24888,7 +25230,7 @@
         <v>-686.2775424899996</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24921,7 +25263,7 @@
         <v>-686.2775424899996</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24954,7 +25296,7 @@
         <v>-671.1223424899996</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24987,7 +25329,7 @@
         <v>-671.2825424899996</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25152,7 +25494,7 @@
         <v>-698.0456424899995</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25185,7 +25527,7 @@
         <v>-697.9956424899996</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25218,7 +25560,7 @@
         <v>-697.7011424899996</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25251,7 +25593,7 @@
         <v>-778.3993424899996</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25284,7 +25626,7 @@
         <v>-796.6050424899996</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25317,7 +25659,7 @@
         <v>-699.4793424899997</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25350,7 +25692,7 @@
         <v>-699.4793424899997</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -35294,6 +35636,6 @@
       <c r="M1044" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest BSV.xlsx
+++ b/BackTest/2019-10-22 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4543,14 +4543,10 @@
         <v>-890.1626735499997</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>121100</v>
-      </c>
-      <c r="J126" t="n">
-        <v>121100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
@@ -4580,19 +4576,11 @@
         <v>-1007.89257355</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>121800</v>
-      </c>
-      <c r="J127" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4621,19 +4609,11 @@
         <v>-984.4941735499997</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>121200</v>
-      </c>
-      <c r="J128" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4662,19 +4642,11 @@
         <v>-953.0466735499997</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>121300</v>
-      </c>
-      <c r="J129" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4703,19 +4675,11 @@
         <v>-953.0466735499997</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>121600</v>
-      </c>
-      <c r="J130" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4747,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4783,19 +4741,11 @@
         <v>-774.0793735499997</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>122200</v>
-      </c>
-      <c r="J132" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4827,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4866,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4905,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4944,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4983,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5022,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5061,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5100,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5139,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5178,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5217,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5256,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5295,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5334,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5373,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5412,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5448,19 +5302,11 @@
         <v>-403.8218735499996</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>121600</v>
-      </c>
-      <c r="J149" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5489,19 +5335,11 @@
         <v>-420.7476735499996</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>121700</v>
-      </c>
-      <c r="J150" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5530,19 +5368,11 @@
         <v>-434.5395735499996</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>121600</v>
-      </c>
-      <c r="J151" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5571,19 +5401,11 @@
         <v>-433.9577735499996</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>121400</v>
-      </c>
-      <c r="J152" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5612,19 +5434,11 @@
         <v>-433.9577735499996</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>121600</v>
-      </c>
-      <c r="J153" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5653,19 +5467,11 @@
         <v>-433.9470735499996</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>121600</v>
-      </c>
-      <c r="J154" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5694,19 +5500,11 @@
         <v>-433.9470735499996</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>121900</v>
-      </c>
-      <c r="J155" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5735,19 +5533,11 @@
         <v>-433.8452575899996</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>121900</v>
-      </c>
-      <c r="J156" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5779,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5818,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5857,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5896,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5935,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5974,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6013,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6052,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6091,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6130,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6169,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6208,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6247,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6286,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6325,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6364,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6403,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6442,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6481,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6520,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6559,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6598,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6637,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6676,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6715,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6754,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6793,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6832,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6871,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6910,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6949,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6988,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7027,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7066,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7105,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7144,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7183,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7222,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7261,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7300,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7339,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7378,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7417,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7456,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7495,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7534,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7573,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7612,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7651,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7690,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7729,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7768,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7807,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7846,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7885,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7924,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7963,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8002,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8041,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8080,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8119,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8158,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8197,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8236,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8275,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8314,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8353,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8392,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8431,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8470,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8509,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8548,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8587,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8626,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8662,17 +8008,11 @@
         <v>948.4672123200004</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8701,17 +8041,11 @@
         <v>1185.83208005</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8740,17 +8074,11 @@
         <v>995.3637800500003</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8779,17 +8107,11 @@
         <v>788.0279800500002</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8821,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8860,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8899,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8938,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8977,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9016,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9055,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9094,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9133,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9172,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9211,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9250,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9289,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9328,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9367,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9406,14 +8638,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9445,14 +8671,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9481,23 +8701,15 @@
         <v>720.0676800500004</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>121100</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
-        <v>1.083356729975227</v>
-      </c>
-      <c r="M252" t="n">
-        <v>1.047302904564315</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9522,7 +8734,7 @@
         <v>755.5097800500004</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9555,7 +8767,7 @@
         <v>748.4473800500003</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9588,7 +8800,7 @@
         <v>776.2394800500003</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9621,7 +8833,7 @@
         <v>725.7213800500003</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9654,7 +8866,7 @@
         <v>697.9292800500003</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9687,7 +8899,7 @@
         <v>698.8320800500003</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9720,7 +8932,7 @@
         <v>696.0946800500003</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9753,7 +8965,7 @@
         <v>655.4532800500003</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9786,7 +8998,7 @@
         <v>651.7176800500004</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9885,7 +9097,7 @@
         <v>739.2268800500002</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9918,7 +9130,7 @@
         <v>789.8126800500002</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10413,7 +9625,7 @@
         <v>606.6764800500001</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10446,7 +9658,7 @@
         <v>622.8418800500001</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10479,7 +9691,7 @@
         <v>622.8418800500001</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10512,7 +9724,7 @@
         <v>622.9165800500001</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10545,7 +9757,7 @@
         <v>622.9165800500001</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10578,7 +9790,7 @@
         <v>622.9165800500001</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10611,7 +9823,7 @@
         <v>622.9206800500001</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10644,7 +9856,7 @@
         <v>614.9435800500002</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10677,7 +9889,7 @@
         <v>577.1686800500001</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10710,7 +9922,7 @@
         <v>577.1772800500001</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10743,7 +9955,7 @@
         <v>577.1772800500001</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10776,7 +9988,7 @@
         <v>577.1772800500001</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10809,7 +10021,7 @@
         <v>577.1772800500001</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10842,7 +10054,7 @@
         <v>469.6483800500001</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10875,7 +10087,7 @@
         <v>489.6177800500001</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10908,7 +10120,7 @@
         <v>528.0506800500001</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10941,7 +10153,7 @@
         <v>528.0536800500001</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10974,7 +10186,7 @@
         <v>528.0536800500001</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11007,7 +10219,7 @@
         <v>523.4742800500002</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11040,7 +10252,7 @@
         <v>482.7648800500002</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11073,7 +10285,7 @@
         <v>484.3476800500002</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11106,7 +10318,7 @@
         <v>536.3822800500002</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11139,7 +10351,7 @@
         <v>536.3822800500002</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11271,7 +10483,7 @@
         <v>426.9716800500003</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11304,7 +10516,7 @@
         <v>426.9716800500003</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11337,7 +10549,7 @@
         <v>423.6609800500003</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11436,7 +10648,7 @@
         <v>478.2830800500003</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11469,7 +10681,7 @@
         <v>478.2830800500003</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11502,7 +10714,7 @@
         <v>491.1199800500003</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11535,7 +10747,7 @@
         <v>491.1199800500003</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11568,7 +10780,7 @@
         <v>491.1199800500003</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11601,7 +10813,7 @@
         <v>491.1199800500003</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11634,7 +10846,7 @@
         <v>491.1144800500003</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11667,7 +10879,7 @@
         <v>491.1144800500003</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11700,7 +10912,7 @@
         <v>491.1144800500003</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11733,7 +10945,7 @@
         <v>491.1144800500003</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11766,7 +10978,7 @@
         <v>491.1144800500003</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11799,7 +11011,7 @@
         <v>491.1144800500003</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11832,7 +11044,7 @@
         <v>491.1144800500003</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11865,7 +11077,7 @@
         <v>506.9459800500003</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11898,7 +11110,7 @@
         <v>496.6485800500003</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11931,7 +11143,7 @@
         <v>438.8554800500003</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11964,7 +11176,7 @@
         <v>433.8554800500003</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11997,7 +11209,7 @@
         <v>434.1914800500003</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12030,7 +11242,7 @@
         <v>434.1914800500003</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12063,7 +11275,7 @@
         <v>401.1768800500004</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12096,7 +11308,7 @@
         <v>66.70648005000038</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12129,7 +11341,7 @@
         <v>66.70648005000038</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12162,7 +11374,7 @@
         <v>66.70648005000038</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12195,7 +11407,7 @@
         <v>10.77958005000038</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12228,7 +11440,7 @@
         <v>9.322680050000375</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12261,7 +11473,7 @@
         <v>47.37982757000037</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12294,7 +11506,7 @@
         <v>40.28742757000037</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12327,7 +11539,7 @@
         <v>38.98972757000038</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12360,7 +11572,7 @@
         <v>38.98972757000038</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12393,7 +11605,7 @@
         <v>39.49682757000038</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12426,7 +11638,7 @@
         <v>34.29032757000038</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12459,7 +11671,7 @@
         <v>57.33732757000038</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12492,7 +11704,7 @@
         <v>74.76252757000039</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12525,7 +11737,7 @@
         <v>2.873027570000389</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12558,7 +11770,7 @@
         <v>3.449027570000389</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12591,7 +11803,7 @@
         <v>13.44902757000039</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12624,7 +11836,7 @@
         <v>4.984927570000389</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12657,7 +11869,7 @@
         <v>4.984927570000389</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12690,7 +11902,7 @@
         <v>-15.11197242999961</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12723,7 +11935,7 @@
         <v>-56.84657242999961</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12756,7 +11968,7 @@
         <v>-58.11147242999961</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12789,7 +12001,7 @@
         <v>-12.87337242999961</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12822,7 +12034,7 @@
         <v>-1.256372429999605</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12855,7 +12067,7 @@
         <v>-0.9047724299996046</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12888,7 +12100,7 @@
         <v>-1.526272429999605</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12921,7 +12133,7 @@
         <v>-1.526272429999605</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12954,7 +12166,7 @@
         <v>-3.177172429999604</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12987,7 +12199,7 @@
         <v>-3.177172429999604</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13020,7 +12232,7 @@
         <v>-3.177172429999604</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13053,7 +12265,7 @@
         <v>-32.1331724299996</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13086,7 +12298,7 @@
         <v>-28.8883724299996</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13119,7 +12331,7 @@
         <v>-33.8758724299996</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13152,7 +12364,7 @@
         <v>-33.7052724299996</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13185,7 +12397,7 @@
         <v>-33.7052724299996</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13218,7 +12430,7 @@
         <v>-19.6016724299996</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13251,7 +12463,7 @@
         <v>34.6496275700004</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13284,7 +12496,7 @@
         <v>30.8957275700004</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13350,7 +12562,7 @@
         <v>76.1199275700004</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -16188,7 +15400,7 @@
         <v>353.5870088000004</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16221,7 +15433,7 @@
         <v>329.9412410200005</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16254,7 +15466,7 @@
         <v>328.9412410200005</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16485,7 +15697,7 @@
         <v>314.1085410200004</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16518,7 +15730,7 @@
         <v>351.7413410200004</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16551,7 +15763,7 @@
         <v>295.7807410200004</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16584,7 +15796,7 @@
         <v>300.3189410200004</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16617,7 +15829,7 @@
         <v>419.3813410200004</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16650,7 +15862,7 @@
         <v>487.0951410200004</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16683,7 +15895,7 @@
         <v>452.4601425300004</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16716,7 +15928,7 @@
         <v>430.7340425300004</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16749,7 +15961,7 @@
         <v>566.3445425300004</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16782,7 +15994,7 @@
         <v>802.1360425300004</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16815,7 +16027,7 @@
         <v>802.1360425300004</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16848,7 +16060,7 @@
         <v>686.8369425300004</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16881,7 +16093,7 @@
         <v>778.5041425300004</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16914,7 +16126,7 @@
         <v>728.9566425300004</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16947,7 +16159,7 @@
         <v>861.4363425300004</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16980,7 +16192,7 @@
         <v>722.9734425300004</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17013,7 +16225,7 @@
         <v>738.3351425300004</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17046,7 +16258,7 @@
         <v>782.7272294000004</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17079,7 +16291,7 @@
         <v>805.9694294000004</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17112,7 +16324,7 @@
         <v>821.2755294000004</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17145,7 +16357,7 @@
         <v>886.3461425300004</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17178,7 +16390,7 @@
         <v>857.8769425300004</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17211,7 +16423,7 @@
         <v>1022.29818948</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17244,7 +16456,7 @@
         <v>829.0255894800005</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17277,7 +16489,7 @@
         <v>862.6872894800005</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17310,7 +16522,7 @@
         <v>816.7630894800004</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17343,7 +16555,7 @@
         <v>663.4068369000004</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17376,7 +16588,7 @@
         <v>741.7702369000003</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17409,7 +16621,7 @@
         <v>741.7702369000003</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17442,7 +16654,7 @@
         <v>610.3455369000003</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17475,7 +16687,7 @@
         <v>565.9621369000002</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17508,7 +16720,7 @@
         <v>481.1168369000002</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17541,7 +16753,7 @@
         <v>490.6451369000002</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17574,7 +16786,7 @@
         <v>514.0221369000002</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17607,7 +16819,7 @@
         <v>533.3153369000001</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17640,7 +16852,7 @@
         <v>533.3153369000001</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17673,7 +16885,7 @@
         <v>569.5722369000001</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17706,7 +16918,7 @@
         <v>608.8549369000001</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17739,7 +16951,7 @@
         <v>608.8549369000001</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17772,7 +16984,7 @@
         <v>490.4362369000001</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17805,7 +17017,7 @@
         <v>490.4362369000001</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17838,7 +17050,7 @@
         <v>-53.16799594999992</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17871,7 +17083,7 @@
         <v>-158.4339959499999</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17904,7 +17116,7 @@
         <v>-344.0065959499999</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17937,7 +17149,7 @@
         <v>-318.3467959499999</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17970,7 +17182,7 @@
         <v>-403.2607959499999</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18003,7 +17215,7 @@
         <v>-352.6951959499999</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18036,7 +17248,7 @@
         <v>-448.4502959499998</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18069,7 +17281,7 @@
         <v>-386.4219959499998</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18102,7 +17314,7 @@
         <v>-386.4219959499998</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18135,7 +17347,7 @@
         <v>-397.9350959499998</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18168,7 +17380,7 @@
         <v>-397.9350959499998</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18201,7 +17413,7 @@
         <v>-543.4803959499998</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18234,7 +17446,7 @@
         <v>-543.4803959499998</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18267,7 +17479,7 @@
         <v>-534.3739959499998</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18300,7 +17512,7 @@
         <v>-417.3286959499998</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18333,7 +17545,7 @@
         <v>-592.8196423999998</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18366,7 +17578,7 @@
         <v>-588.8467423999998</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18399,7 +17611,7 @@
         <v>-570.1594423999998</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18432,7 +17644,7 @@
         <v>-597.8535423999998</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18465,7 +17677,7 @@
         <v>-597.8535423999998</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18498,7 +17710,7 @@
         <v>-567.2728423999998</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18531,7 +17743,7 @@
         <v>-568.2673423999998</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18564,7 +17776,7 @@
         <v>-566.9473423999998</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18597,7 +17809,7 @@
         <v>-570.5825423999999</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18630,7 +17842,7 @@
         <v>-569.6008423999998</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18663,7 +17875,7 @@
         <v>-571.2167423999998</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18696,7 +17908,7 @@
         <v>-570.7671423999998</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18729,7 +17941,7 @@
         <v>-542.4029423999998</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18762,7 +17974,7 @@
         <v>-542.4029423999998</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18795,7 +18007,7 @@
         <v>-569.1017854899998</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18960,7 +18172,7 @@
         <v>-272.5869927599998</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18993,7 +18205,7 @@
         <v>-363.6862927599998</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19026,7 +18238,7 @@
         <v>-330.4001927599998</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19059,7 +18271,7 @@
         <v>-291.1276927599998</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19092,7 +18304,7 @@
         <v>477.7297072400002</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19125,7 +18337,7 @@
         <v>369.3813029800002</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19158,7 +18370,7 @@
         <v>242.2619007800002</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19224,7 +18436,7 @@
         <v>142.1614007800002</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19257,7 +18469,7 @@
         <v>186.2369007800002</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19290,7 +18502,7 @@
         <v>211.1252007800002</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19323,7 +18535,7 @@
         <v>151.1946007800002</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19356,7 +18568,7 @@
         <v>126.2050007800002</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19389,7 +18601,7 @@
         <v>186.8503007800002</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19422,7 +18634,7 @@
         <v>176.5025007800002</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19455,7 +18667,7 @@
         <v>166.5025007800002</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19521,7 +18733,7 @@
         <v>143.9065007800002</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19554,7 +18766,7 @@
         <v>143.9065007800002</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19587,7 +18799,7 @@
         <v>143.9065007800002</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19620,7 +18832,7 @@
         <v>171.0168007800002</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19653,7 +18865,7 @@
         <v>171.0168007800002</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19686,7 +18898,7 @@
         <v>168.0358007800002</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19719,7 +18931,7 @@
         <v>177.5460007800002</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19752,7 +18964,7 @@
         <v>179.4786007800002</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19785,7 +18997,7 @@
         <v>183.2404007800002</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19818,7 +19030,7 @@
         <v>183.2404007800002</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19851,7 +19063,7 @@
         <v>183.2404007800002</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19884,7 +19096,7 @@
         <v>183.2404007800002</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19917,7 +19129,7 @@
         <v>183.7304007800002</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19950,7 +19162,7 @@
         <v>183.7304007800002</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19983,7 +19195,7 @@
         <v>142.2538007800002</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20016,7 +19228,7 @@
         <v>319.8832007800002</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20049,7 +19261,7 @@
         <v>499.7544007800001</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20412,7 +19624,7 @@
         <v>188.2276007800002</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20445,7 +19657,7 @@
         <v>202.6943007800002</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20478,7 +19690,7 @@
         <v>327.4813030100001</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20511,7 +19723,7 @@
         <v>281.9257030100001</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20544,7 +19756,7 @@
         <v>281.9257030100001</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20577,7 +19789,7 @@
         <v>311.2613030100001</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20610,7 +19822,7 @@
         <v>311.2613030100001</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20643,7 +19855,7 @@
         <v>300.5895030100001</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20676,7 +19888,7 @@
         <v>347.6706030100001</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20709,7 +19921,7 @@
         <v>347.6706030100001</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20742,7 +19954,7 @@
         <v>347.6706030100001</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20775,7 +19987,7 @@
         <v>341.1689030100001</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20808,7 +20020,7 @@
         <v>341.1689030100001</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20841,7 +20053,7 @@
         <v>221.8726030100001</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20874,7 +20086,7 @@
         <v>192.6681030100001</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20907,7 +20119,7 @@
         <v>110.2686030100001</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20940,7 +20152,7 @@
         <v>176.8842301100001</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20973,7 +20185,7 @@
         <v>170.5812301100001</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21006,7 +20218,7 @@
         <v>170.5812301100001</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21039,7 +20251,7 @@
         <v>98.72063026000012</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21336,7 +20548,7 @@
         <v>95.03903026000013</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21369,7 +20581,7 @@
         <v>95.03903026000013</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21402,7 +20614,7 @@
         <v>38.29573026000013</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21435,7 +20647,7 @@
         <v>38.29573026000013</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21468,7 +20680,7 @@
         <v>-38.94447348999987</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21501,7 +20713,7 @@
         <v>-38.94447348999987</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21534,7 +20746,7 @@
         <v>-38.94447348999987</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21567,7 +20779,7 @@
         <v>-131.9185734899999</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21600,7 +20812,7 @@
         <v>-295.2037734899999</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21633,7 +20845,7 @@
         <v>-154.6884074799999</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21666,7 +20878,7 @@
         <v>-154.6884074799999</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21699,7 +20911,7 @@
         <v>-166.5713074799999</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21732,7 +20944,7 @@
         <v>-197.8582074799999</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21765,7 +20977,7 @@
         <v>-190.0124074799999</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21798,7 +21010,7 @@
         <v>-416.7427074799999</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21831,7 +21043,7 @@
         <v>-56.86020747999993</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21864,7 +21076,7 @@
         <v>-290.1055074799999</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21897,7 +21109,7 @@
         <v>-216.6889074799999</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21930,7 +21142,7 @@
         <v>-268.6779074799999</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21963,7 +21175,7 @@
         <v>-185.2081074799999</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21996,7 +21208,7 @@
         <v>-185.8618074799998</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22029,7 +21241,7 @@
         <v>-176.9508074799998</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22062,7 +21274,7 @@
         <v>-190.0981074799998</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22095,7 +21307,7 @@
         <v>-153.5663074799998</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22128,7 +21340,7 @@
         <v>-152.5920074799998</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22161,7 +21373,7 @@
         <v>-170.5735074799998</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22194,7 +21406,7 @@
         <v>-170.1335074799998</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22227,7 +21439,7 @@
         <v>-171.1165074799999</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22260,7 +21472,7 @@
         <v>-161.0707074799998</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22293,7 +21505,7 @@
         <v>-169.6968074799998</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22326,7 +21538,7 @@
         <v>-162.5550074799999</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22359,7 +21571,7 @@
         <v>-162.5550074799999</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22392,7 +21604,7 @@
         <v>-162.5550074799999</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22425,7 +21637,7 @@
         <v>-165.1222074799999</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22458,7 +21670,7 @@
         <v>-165.1222074799999</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22491,7 +21703,7 @@
         <v>-184.8171074799999</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22524,7 +21736,7 @@
         <v>-191.0808074799999</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22557,7 +21769,7 @@
         <v>-190.3608074799999</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22590,7 +21802,7 @@
         <v>-194.2082074799999</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22623,7 +21835,7 @@
         <v>-194.2082074799999</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22656,7 +21868,7 @@
         <v>-191.2954074799999</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22689,7 +21901,7 @@
         <v>-191.2954074799999</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22722,7 +21934,7 @@
         <v>-191.3058074799999</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22755,7 +21967,7 @@
         <v>-195.4797074799999</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22788,7 +22000,7 @@
         <v>-236.3746074799999</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22821,7 +22033,7 @@
         <v>-348.9324074799999</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22854,7 +22066,7 @@
         <v>-495.3237074799999</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22887,7 +22099,7 @@
         <v>-495.3237074799999</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22920,7 +22132,7 @@
         <v>-653.7727074799999</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22953,7 +22165,7 @@
         <v>-642.6302074799999</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22986,7 +22198,7 @@
         <v>-666.6693074799998</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23019,7 +22231,7 @@
         <v>-666.6514074799998</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23052,7 +22264,7 @@
         <v>-702.6397074799997</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23316,7 +22528,7 @@
         <v>-641.1608074799998</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23349,7 +22561,7 @@
         <v>-640.7008074799998</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23382,7 +22594,7 @@
         <v>-640.7008074799998</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23547,7 +22759,7 @@
         <v>-655.9724074799998</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23580,7 +22792,7 @@
         <v>-655.9724074799998</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23613,7 +22825,7 @@
         <v>-653.8307074799998</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24570,7 +23782,7 @@
         <v>-586.3300074799997</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24603,7 +23815,7 @@
         <v>-586.3280074799998</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24636,7 +23848,7 @@
         <v>-597.3353074799998</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24669,7 +23881,7 @@
         <v>-626.1501074799997</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24702,7 +23914,7 @@
         <v>-622.4001074799997</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24735,7 +23947,7 @@
         <v>-609.5128074799998</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24768,7 +23980,7 @@
         <v>-609.5128074799998</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24801,7 +24013,7 @@
         <v>-644.3571074799997</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24834,7 +24046,7 @@
         <v>-644.3571074799997</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24867,7 +24079,7 @@
         <v>-659.8062132499997</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24900,7 +24112,7 @@
         <v>-682.1481424899997</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24933,7 +24145,7 @@
         <v>-682.1481424899997</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24966,7 +24178,7 @@
         <v>-697.6427424899997</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24999,7 +24211,7 @@
         <v>-665.7427424899997</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25032,7 +24244,7 @@
         <v>-685.0082424899997</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25065,7 +24277,7 @@
         <v>-685.0082424899997</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25098,7 +24310,7 @@
         <v>-685.7000424899996</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25131,7 +24343,7 @@
         <v>-685.2000424899996</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25164,7 +24376,7 @@
         <v>-694.3110424899996</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25197,7 +24409,7 @@
         <v>-692.1945424899997</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25230,7 +24442,7 @@
         <v>-686.2775424899996</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25263,7 +24475,7 @@
         <v>-686.2775424899996</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25296,7 +24508,7 @@
         <v>-671.1223424899996</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25329,7 +24541,7 @@
         <v>-671.2825424899996</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25494,7 +24706,7 @@
         <v>-698.0456424899995</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25527,7 +24739,7 @@
         <v>-697.9956424899996</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25560,7 +24772,7 @@
         <v>-697.7011424899996</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25593,7 +24805,7 @@
         <v>-778.3993424899996</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25626,7 +24838,7 @@
         <v>-796.6050424899996</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25659,7 +24871,7 @@
         <v>-699.4793424899997</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25692,7 +24904,7 @@
         <v>-699.4793424899997</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -33942,10 +33154,14 @@
         <v>-3140.86366887</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I993" t="n">
+        <v>126400</v>
+      </c>
+      <c r="J993" t="n">
+        <v>126400</v>
+      </c>
       <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
@@ -33975,11 +33191,19 @@
         <v>-3140.86366887</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
-      </c>
-      <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I994" t="n">
+        <v>126400</v>
+      </c>
+      <c r="J994" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34008,11 +33232,19 @@
         <v>-3156.843768870001</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I995" t="n">
+        <v>126400</v>
+      </c>
+      <c r="J995" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34041,11 +33273,19 @@
         <v>-3156.343768870001</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I996" t="n">
+        <v>125900</v>
+      </c>
+      <c r="J996" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34074,11 +33314,19 @@
         <v>-3164.175668870001</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>126300</v>
+      </c>
+      <c r="J997" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34107,11 +33355,19 @@
         <v>-3113.007568870001</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I998" t="n">
+        <v>125900</v>
+      </c>
+      <c r="J998" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34140,11 +33396,19 @@
         <v>-3115.760568870001</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I999" t="n">
+        <v>126200</v>
+      </c>
+      <c r="J999" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34173,11 +33437,19 @@
         <v>-3115.760568870001</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>126100</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34206,11 +33478,19 @@
         <v>-2997.704568870001</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>126100</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34239,11 +33519,19 @@
         <v>-2968.190568870001</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>126400</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34272,11 +33560,19 @@
         <v>-2939.909168870001</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>126500</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34305,11 +33601,19 @@
         <v>-2938.639168870001</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>126700</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34338,11 +33642,19 @@
         <v>-2938.639168870001</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>126800</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34371,11 +33683,19 @@
         <v>-2938.639168870001</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>126800</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34404,11 +33724,19 @@
         <v>-2938.639168870001</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>126800</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34437,11 +33765,19 @@
         <v>-2938.639168870001</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>126800</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34470,11 +33806,19 @@
         <v>-2935.853968870001</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>126800</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34503,11 +33847,19 @@
         <v>-2935.853968870001</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>127000</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34536,11 +33888,19 @@
         <v>-2935.953968870001</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>127000</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34569,11 +33929,19 @@
         <v>-2935.953968870001</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>126900</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34602,11 +33970,19 @@
         <v>-2938.357268870001</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>126900</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34635,11 +34011,19 @@
         <v>-2926.345368870001</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>126800</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34668,11 +34052,19 @@
         <v>-2926.345368870001</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>126900</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34701,11 +34093,19 @@
         <v>-2926.345368870001</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>126900</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34734,11 +34134,19 @@
         <v>-2940.605568870001</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>126900</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34767,11 +34175,19 @@
         <v>-2951.092368870001</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>126800</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34800,11 +34216,19 @@
         <v>-2950.431368870001</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>126700</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34833,11 +34257,19 @@
         <v>-2986.941268870001</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>126800</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34866,11 +34298,19 @@
         <v>-2989.809068870001</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>126600</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34899,11 +34339,19 @@
         <v>-2939.736268870001</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>126500</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34932,11 +34380,19 @@
         <v>-2939.486268870001</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>127000</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34965,11 +34421,19 @@
         <v>-2879.295668870001</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>127100</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34998,11 +34462,19 @@
         <v>-2878.810968870001</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>127200</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35034,8 +34506,14 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="J1026" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35067,8 +34545,14 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="J1027" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35100,8 +34584,14 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="J1028" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35133,8 +34623,14 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="J1029" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35166,8 +34662,14 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="J1030" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35199,8 +34701,14 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="J1031" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35232,8 +34740,14 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="J1032" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35265,8 +34779,14 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="J1033" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35298,8 +34818,14 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="J1034" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35331,8 +34857,14 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="J1035" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35364,8 +34896,14 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="J1036" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35397,8 +34935,14 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="J1037" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35430,8 +34974,14 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="J1038" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35463,8 +35013,14 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="J1039" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35496,8 +35052,14 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="J1040" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35529,8 +35091,14 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="J1041" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35562,8 +35130,14 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="J1042" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35595,8 +35169,14 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="J1043" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -35628,14 +35208,20 @@
         <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="J1044" t="n">
+        <v>126400</v>
+      </c>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
       <c r="M1044" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest BSV.xlsx
+++ b/BackTest/2019-10-22 BackTest BSV.xlsx
@@ -8008,7 +8008,7 @@
         <v>948.4672123200004</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>1185.83208005</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>995.3637800500003</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>788.0279800500002</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>843.8759800500002</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>521.5152800500002</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>436.6105800500002</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>235.3268800500003</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>329.7146800500003</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>730.0852800500003</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>734.7787800500004</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>720.0676800500004</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>755.5097800500004</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>748.4473800500003</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>776.2394800500003</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>725.7213800500003</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>697.9292800500003</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>698.8320800500003</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>696.0946800500003</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>655.4532800500003</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>651.7176800500004</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>680.9823800500003</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>674.3335800500003</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>839.8561800500001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>783.6782800500001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>783.6782800500001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>783.6782800500001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>783.6782800500001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>783.6782800500001</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>745.8465800500002</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>749.4391800500001</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>802.1360425300004</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>802.1360425300004</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>686.8369425300004</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>778.5041425300004</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>728.9566425300004</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>782.7272294000004</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>805.9694294000004</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>821.2755294000004</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>886.3461425300004</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>857.8769425300004</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>1022.29818948</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>829.0255894800005</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>862.6872894800005</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>816.7630894800004</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>663.4068369000004</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>307.3493007800001</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>300.4381007800001</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>195.9854007800001</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>187.8788007800001</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>281.9257030100001</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>281.9257030100001</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>347.6706030100001</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>341.1689030100001</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>341.1689030100001</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>221.8726030100001</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>192.6681030100001</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>110.2686030100001</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>170.5812301100001</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>170.5812301100001</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>98.72063026000012</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>121.4507302600001</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>156.8003302600001</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>151.7421302600001</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>151.7421302600001</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>89.80073026000012</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -28171,11 +28171,17 @@
         <v>-2949.348147879999</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>125300</v>
+      </c>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28204,11 +28210,17 @@
         <v>-2909.57794788</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>125100</v>
+      </c>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28237,11 +28249,17 @@
         <v>-2909.57794788</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>125900</v>
+      </c>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28270,11 +28288,17 @@
         <v>-2838.183066099999</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>125900</v>
+      </c>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28307,7 +28331,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28340,7 +28368,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28369,11 +28401,17 @@
         <v>-2814.4588661</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>126100</v>
+      </c>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28406,7 +28444,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28439,7 +28481,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28472,7 +28518,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28505,7 +28555,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28538,7 +28592,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28571,7 +28629,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28604,7 +28666,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28637,7 +28703,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28670,7 +28740,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28703,7 +28777,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28736,7 +28814,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28769,7 +28851,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28802,7 +28888,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28835,7 +28925,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28868,7 +28962,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28901,7 +28999,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28934,7 +29036,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28967,7 +29073,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29000,7 +29110,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29033,7 +29147,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29066,7 +29184,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29099,7 +29221,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29132,7 +29258,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29165,7 +29295,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29198,7 +29332,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29227,11 +29365,17 @@
         <v>-2827.28870761</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>127800</v>
+      </c>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29264,7 +29408,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29293,11 +29441,17 @@
         <v>-2825.14420761</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>127900</v>
+      </c>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29330,7 +29484,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29359,11 +29517,17 @@
         <v>-2815.69920761</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>127600</v>
+      </c>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29392,11 +29556,17 @@
         <v>-2803.29430761</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>127700</v>
+      </c>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29425,11 +29595,17 @@
         <v>-2803.29430761</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>128000</v>
+      </c>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29462,7 +29638,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29495,7 +29675,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29528,7 +29712,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29557,11 +29745,17 @@
         <v>-2880.45800482</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>128800</v>
+      </c>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29590,11 +29784,17 @@
         <v>-2868.44610482</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>128700</v>
+      </c>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29623,11 +29823,17 @@
         <v>-2830.13050482</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>128800</v>
+      </c>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29656,11 +29862,17 @@
         <v>-2843.12930482</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>129000</v>
+      </c>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29689,11 +29901,17 @@
         <v>-2899.81510482</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>128500</v>
+      </c>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29722,11 +29940,17 @@
         <v>-2872.01210482</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>128300</v>
+      </c>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29755,11 +29979,17 @@
         <v>-2855.92640482</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>128400</v>
+      </c>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29788,11 +30018,17 @@
         <v>-2850.54810482</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>128500</v>
+      </c>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29821,11 +30057,17 @@
         <v>-2840.17890482</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>128700</v>
+      </c>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29854,11 +30096,17 @@
         <v>-2855.28000482</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>128800</v>
+      </c>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29887,11 +30135,17 @@
         <v>-2792.49316752</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>128600</v>
+      </c>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29920,11 +30174,17 @@
         <v>-2794.20666752</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>129200</v>
+      </c>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29953,11 +30213,17 @@
         <v>-2794.20666752</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>128700</v>
+      </c>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29986,11 +30252,17 @@
         <v>-2782.03436752</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>128700</v>
+      </c>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30019,11 +30291,17 @@
         <v>-2782.03436752</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>128900</v>
+      </c>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30052,11 +30330,17 @@
         <v>-2782.03436752</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>128900</v>
+      </c>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30085,11 +30369,17 @@
         <v>-2794.65338637</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>128900</v>
+      </c>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30118,11 +30408,17 @@
         <v>-2798.13688637</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>128800</v>
+      </c>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30151,11 +30447,17 @@
         <v>-2798.13688637</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>128700</v>
+      </c>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30184,11 +30486,17 @@
         <v>-2797.13688637</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>128700</v>
+      </c>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30217,11 +30525,17 @@
         <v>-2770.357562319999</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>128800</v>
+      </c>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30250,11 +30564,17 @@
         <v>-2744.37226232</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>129300</v>
+      </c>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30283,11 +30603,17 @@
         <v>-2744.37226232</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>129400</v>
+      </c>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30316,11 +30642,17 @@
         <v>-2729.93816232</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>129400</v>
+      </c>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30349,11 +30681,17 @@
         <v>-2748.32546232</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>129500</v>
+      </c>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30382,11 +30720,17 @@
         <v>-2760.71516232</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>129400</v>
+      </c>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30415,11 +30759,17 @@
         <v>-2760.71516232</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>129300</v>
+      </c>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30448,11 +30798,17 @@
         <v>-2724.01516232</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>129300</v>
+      </c>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30481,11 +30837,17 @@
         <v>-2764.76336232</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>129400</v>
+      </c>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30514,11 +30876,17 @@
         <v>-2764.76336232</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>129300</v>
+      </c>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30547,11 +30915,17 @@
         <v>-2763.17036232</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>129300</v>
+      </c>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30580,11 +30954,17 @@
         <v>-2727.69526232</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>129400</v>
+      </c>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30613,11 +30993,17 @@
         <v>-2727.69526232</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>129700</v>
+      </c>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30646,11 +31032,17 @@
         <v>-2683.44106232</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>129700</v>
+      </c>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30679,11 +31071,17 @@
         <v>-2683.44106232</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>129800</v>
+      </c>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30712,11 +31110,17 @@
         <v>-2698.45296232</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>129800</v>
+      </c>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30745,11 +31149,17 @@
         <v>-2698.45296232</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>129700</v>
+      </c>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30778,11 +31188,17 @@
         <v>-2687.87356232</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>129700</v>
+      </c>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -30811,11 +31227,17 @@
         <v>-2691.12196232</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>129900</v>
+      </c>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30844,11 +31266,17 @@
         <v>-2691.12196232</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>129800</v>
+      </c>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30877,11 +31305,17 @@
         <v>-2691.12196232</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>129800</v>
+      </c>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -30910,11 +31344,17 @@
         <v>-2700.78606232</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>129800</v>
+      </c>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -30943,11 +31383,17 @@
         <v>-2655.44476232</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>129400</v>
+      </c>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -30976,11 +31422,17 @@
         <v>-2665.57476232</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>129600</v>
+      </c>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31009,11 +31461,17 @@
         <v>-2648.54736232</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>129300</v>
+      </c>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31042,11 +31500,17 @@
         <v>-2668.11356232</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I929" t="n">
+        <v>129600</v>
+      </c>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31075,11 +31539,17 @@
         <v>-2683.93566232</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I930" t="n">
+        <v>129300</v>
+      </c>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31108,11 +31578,17 @@
         <v>-2861.51586232</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>129000</v>
+      </c>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31141,11 +31617,17 @@
         <v>-2853.16596232</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I932" t="n">
+        <v>127900</v>
+      </c>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31174,11 +31656,17 @@
         <v>-2859.75706232</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I933" t="n">
+        <v>128500</v>
+      </c>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31207,11 +31695,17 @@
         <v>-2857.74356232</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I934" t="n">
+        <v>128000</v>
+      </c>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31240,11 +31734,17 @@
         <v>-2861.93416232</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I935" t="n">
+        <v>128700</v>
+      </c>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31273,11 +31773,17 @@
         <v>-2896.12756232</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>128500</v>
+      </c>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31306,11 +31812,17 @@
         <v>-2895.80166232</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>128400</v>
+      </c>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31339,11 +31851,17 @@
         <v>-2895.80166232</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I938" t="n">
+        <v>128500</v>
+      </c>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31372,11 +31890,17 @@
         <v>-2903.58746232</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>128500</v>
+      </c>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31405,11 +31929,17 @@
         <v>-2904.87886232</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I940" t="n">
+        <v>128300</v>
+      </c>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31438,11 +31968,17 @@
         <v>-2856.64186232</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>127800</v>
+      </c>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31471,11 +32007,17 @@
         <v>-2856.14186232</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>128000</v>
+      </c>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31504,11 +32046,17 @@
         <v>-2910.20816232</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>128100</v>
+      </c>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31537,11 +32085,17 @@
         <v>-2910.20816232</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>128000</v>
+      </c>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31570,11 +32124,17 @@
         <v>-2910.20816232</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>128000</v>
+      </c>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31603,11 +32163,17 @@
         <v>-2867.05146232</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>128000</v>
+      </c>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -31636,11 +32202,17 @@
         <v>-2870.19736232</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>128700</v>
+      </c>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -31669,11 +32241,17 @@
         <v>-2870.19736232</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>128300</v>
+      </c>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -31702,11 +32280,17 @@
         <v>-2880.20066232</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>128300</v>
+      </c>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -31735,11 +32319,17 @@
         <v>-2875.39966887</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>128100</v>
+      </c>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -31768,11 +32358,17 @@
         <v>-2875.56996887</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>128300</v>
+      </c>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -31801,11 +32397,17 @@
         <v>-2875.50446887</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>128100</v>
+      </c>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -31834,11 +32436,17 @@
         <v>-2876.63526887</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>128300</v>
+      </c>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -31867,11 +32475,17 @@
         <v>-2870.09046887</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>128100</v>
+      </c>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -31900,11 +32514,17 @@
         <v>-2870.09046887</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>128200</v>
+      </c>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -31933,11 +32553,17 @@
         <v>-2870.09046887</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>128200</v>
+      </c>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -31966,11 +32592,17 @@
         <v>-2906.49196887</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>128200</v>
+      </c>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -31999,11 +32631,17 @@
         <v>-2906.72136887</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I958" t="n">
+        <v>128100</v>
+      </c>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32032,11 +32670,17 @@
         <v>-2906.72136887</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I959" t="n">
+        <v>128000</v>
+      </c>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32065,11 +32709,17 @@
         <v>-2922.30346887</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>128000</v>
+      </c>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32098,11 +32748,17 @@
         <v>-2922.13756887</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
-      </c>
-      <c r="I961" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I961" t="n">
+        <v>127600</v>
+      </c>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32131,11 +32787,17 @@
         <v>-2953.48756887</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I962" t="n">
+        <v>128000</v>
+      </c>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32164,11 +32826,17 @@
         <v>-2961.48756887</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>127900</v>
+      </c>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32197,11 +32865,17 @@
         <v>-2961.25766887</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>127700</v>
+      </c>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32230,11 +32904,17 @@
         <v>-2961.25766887</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>127900</v>
+      </c>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32263,11 +32943,17 @@
         <v>-2961.25766887</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>127900</v>
+      </c>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32296,11 +32982,17 @@
         <v>-2961.25766887</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>127900</v>
+      </c>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32329,11 +33021,17 @@
         <v>-2974.07016887</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>127900</v>
+      </c>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32362,11 +33060,17 @@
         <v>-2974.07016887</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>127800</v>
+      </c>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32395,11 +33099,17 @@
         <v>-2976.20936887</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I970" t="n">
+        <v>127800</v>
+      </c>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32428,11 +33138,17 @@
         <v>-3015.30936887</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I971" t="n">
+        <v>127700</v>
+      </c>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32461,11 +33177,17 @@
         <v>-3044.33116887</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>127400</v>
+      </c>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32494,11 +33216,17 @@
         <v>-3027.64276887</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I973" t="n">
+        <v>127000</v>
+      </c>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32527,11 +33255,17 @@
         <v>-3027.64276887</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
-      </c>
-      <c r="I974" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I974" t="n">
+        <v>127600</v>
+      </c>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32560,11 +33294,17 @@
         <v>-3032.87076887</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
-      </c>
-      <c r="I975" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I975" t="n">
+        <v>127600</v>
+      </c>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32593,11 +33333,17 @@
         <v>-3080.66876887</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
-      </c>
-      <c r="I976" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I976" t="n">
+        <v>127200</v>
+      </c>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32626,11 +33372,17 @@
         <v>-3101.55266887</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
-      </c>
-      <c r="I977" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I977" t="n">
+        <v>127000</v>
+      </c>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -32659,11 +33411,17 @@
         <v>-3111.44776887</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
-      </c>
-      <c r="I978" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I978" t="n">
+        <v>126800</v>
+      </c>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -32692,11 +33450,17 @@
         <v>-3153.64316887</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
-      </c>
-      <c r="I979" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I979" t="n">
+        <v>126600</v>
+      </c>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -32725,11 +33489,17 @@
         <v>-3125.888068870001</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
-      </c>
-      <c r="I980" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I980" t="n">
+        <v>126400</v>
+      </c>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -32758,11 +33528,17 @@
         <v>-3154.126868870001</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
-      </c>
-      <c r="I981" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I981" t="n">
+        <v>126700</v>
+      </c>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -32791,11 +33567,17 @@
         <v>-3154.126868870001</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I982" t="n">
+        <v>126000</v>
+      </c>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -32824,11 +33606,17 @@
         <v>-3146.29156887</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I983" t="n">
+        <v>126000</v>
+      </c>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -32857,11 +33645,17 @@
         <v>-3146.29156887</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
-      </c>
-      <c r="I984" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I984" t="n">
+        <v>126200</v>
+      </c>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -32890,11 +33684,17 @@
         <v>-3146.29156887</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
-      </c>
-      <c r="I985" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I985" t="n">
+        <v>126200</v>
+      </c>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -32923,11 +33723,17 @@
         <v>-3146.29156887</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
-      </c>
-      <c r="I986" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I986" t="n">
+        <v>126200</v>
+      </c>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -32956,11 +33762,17 @@
         <v>-3146.29156887</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I987" t="n">
+        <v>126200</v>
+      </c>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -32989,11 +33801,17 @@
         <v>-2989.24166887</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I988" t="n">
+        <v>126200</v>
+      </c>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33022,11 +33840,17 @@
         <v>-2982.50916887</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I989" t="n">
+        <v>126300</v>
+      </c>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33055,11 +33879,17 @@
         <v>-3128.72726887</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I990" t="n">
+        <v>126400</v>
+      </c>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33088,11 +33918,17 @@
         <v>-3141.15366887</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I991" t="n">
+        <v>126000</v>
+      </c>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33121,11 +33957,17 @@
         <v>-3140.86366887</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I992" t="n">
+        <v>125900</v>
+      </c>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33159,10 +34001,12 @@
       <c r="I993" t="n">
         <v>126400</v>
       </c>
-      <c r="J993" t="n">
-        <v>126400</v>
-      </c>
-      <c r="K993" t="inlineStr"/>
+      <c r="J993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33196,12 +34040,10 @@
       <c r="I994" t="n">
         <v>126400</v>
       </c>
-      <c r="J994" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L994" t="n">
@@ -33237,12 +34079,10 @@
       <c r="I995" t="n">
         <v>126400</v>
       </c>
-      <c r="J995" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L995" t="n">
@@ -33278,9 +34118,7 @@
       <c r="I996" t="n">
         <v>125900</v>
       </c>
-      <c r="J996" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33319,9 +34157,7 @@
       <c r="I997" t="n">
         <v>126300</v>
       </c>
-      <c r="J997" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33360,9 +34196,7 @@
       <c r="I998" t="n">
         <v>125900</v>
       </c>
-      <c r="J998" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33401,9 +34235,7 @@
       <c r="I999" t="n">
         <v>126200</v>
       </c>
-      <c r="J999" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33442,9 +34274,7 @@
       <c r="I1000" t="n">
         <v>126100</v>
       </c>
-      <c r="J1000" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33483,9 +34313,7 @@
       <c r="I1001" t="n">
         <v>126100</v>
       </c>
-      <c r="J1001" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33524,9 +34352,7 @@
       <c r="I1002" t="n">
         <v>126400</v>
       </c>
-      <c r="J1002" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33565,9 +34391,7 @@
       <c r="I1003" t="n">
         <v>126500</v>
       </c>
-      <c r="J1003" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33606,9 +34430,7 @@
       <c r="I1004" t="n">
         <v>126700</v>
       </c>
-      <c r="J1004" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33647,9 +34469,7 @@
       <c r="I1005" t="n">
         <v>126800</v>
       </c>
-      <c r="J1005" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33688,9 +34508,7 @@
       <c r="I1006" t="n">
         <v>126800</v>
       </c>
-      <c r="J1006" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33729,9 +34547,7 @@
       <c r="I1007" t="n">
         <v>126800</v>
       </c>
-      <c r="J1007" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33770,9 +34586,7 @@
       <c r="I1008" t="n">
         <v>126800</v>
       </c>
-      <c r="J1008" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33811,9 +34625,7 @@
       <c r="I1009" t="n">
         <v>126800</v>
       </c>
-      <c r="J1009" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33852,9 +34664,7 @@
       <c r="I1010" t="n">
         <v>127000</v>
       </c>
-      <c r="J1010" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33893,9 +34703,7 @@
       <c r="I1011" t="n">
         <v>127000</v>
       </c>
-      <c r="J1011" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33934,9 +34742,7 @@
       <c r="I1012" t="n">
         <v>126900</v>
       </c>
-      <c r="J1012" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33975,9 +34781,7 @@
       <c r="I1013" t="n">
         <v>126900</v>
       </c>
-      <c r="J1013" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34016,9 +34820,7 @@
       <c r="I1014" t="n">
         <v>126800</v>
       </c>
-      <c r="J1014" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34057,9 +34859,7 @@
       <c r="I1015" t="n">
         <v>126900</v>
       </c>
-      <c r="J1015" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34098,9 +34898,7 @@
       <c r="I1016" t="n">
         <v>126900</v>
       </c>
-      <c r="J1016" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34139,9 +34937,7 @@
       <c r="I1017" t="n">
         <v>126900</v>
       </c>
-      <c r="J1017" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34180,9 +34976,7 @@
       <c r="I1018" t="n">
         <v>126800</v>
       </c>
-      <c r="J1018" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34221,9 +35015,7 @@
       <c r="I1019" t="n">
         <v>126700</v>
       </c>
-      <c r="J1019" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34262,9 +35054,7 @@
       <c r="I1020" t="n">
         <v>126800</v>
       </c>
-      <c r="J1020" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34303,9 +35093,7 @@
       <c r="I1021" t="n">
         <v>126600</v>
       </c>
-      <c r="J1021" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34344,9 +35132,7 @@
       <c r="I1022" t="n">
         <v>126500</v>
       </c>
-      <c r="J1022" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34385,9 +35171,7 @@
       <c r="I1023" t="n">
         <v>127000</v>
       </c>
-      <c r="J1023" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34426,9 +35210,7 @@
       <c r="I1024" t="n">
         <v>127100</v>
       </c>
-      <c r="J1024" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34467,9 +35249,7 @@
       <c r="I1025" t="n">
         <v>127200</v>
       </c>
-      <c r="J1025" t="n">
-        <v>126400</v>
-      </c>
+      <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34503,12 +35283,12 @@
         <v>-2805.227468870001</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>127600</v>
+      </c>
+      <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34542,12 +35322,12 @@
         <v>-2808.651268870001</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>127900</v>
+      </c>
+      <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34581,12 +35361,12 @@
         <v>-2807.408068870001</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>127600</v>
+      </c>
+      <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34620,12 +35400,12 @@
         <v>-2807.408068870001</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>128300</v>
+      </c>
+      <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34659,12 +35439,12 @@
         <v>-2807.408068870001</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>128300</v>
+      </c>
+      <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34698,12 +35478,12 @@
         <v>-2807.408068870001</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>128300</v>
+      </c>
+      <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34737,12 +35517,12 @@
         <v>-2811.061168870001</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>128300</v>
+      </c>
+      <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34776,12 +35556,12 @@
         <v>-2811.061168870001</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>128000</v>
+      </c>
+      <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34815,12 +35595,12 @@
         <v>-2864.892468870001</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>128000</v>
+      </c>
+      <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34854,12 +35634,12 @@
         <v>-2864.642468870001</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>127600</v>
+      </c>
+      <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34893,12 +35673,12 @@
         <v>-2864.642468870001</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>128000</v>
+      </c>
+      <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34932,12 +35712,12 @@
         <v>-2864.642468870001</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>128000</v>
+      </c>
+      <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34971,12 +35751,12 @@
         <v>-2886.728468870001</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>128000</v>
+      </c>
+      <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35010,12 +35790,12 @@
         <v>-2886.728468870001</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>127600</v>
+      </c>
+      <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35049,12 +35829,12 @@
         <v>-2888.114468870001</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>127600</v>
+      </c>
+      <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35088,12 +35868,12 @@
         <v>-2888.114468870001</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>127100</v>
+      </c>
+      <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35127,12 +35907,12 @@
         <v>-2980.921268870001</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>127100</v>
+      </c>
+      <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35166,12 +35946,12 @@
         <v>-2972.785968870001</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>126800</v>
+      </c>
+      <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35205,12 +35985,12 @@
         <v>-2972.785968870001</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="n">
-        <v>126400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>127100</v>
+      </c>
+      <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
           <t>매도 대기</t>
